--- a/poc/jc_skills_grid.xlsx
+++ b/poc/jc_skills_grid.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr date1904="1" showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="30000" windowHeight="24340" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="38300" windowHeight="25300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Skills Grid" sheetId="2" r:id="rId1"/>
     <sheet name="WnS Bill" sheetId="5" r:id="rId2"/>
     <sheet name="WnS Bill Move Ship" sheetId="8" r:id="rId3"/>
     <sheet name="WnS Bill Harbour Cruise" sheetId="9" r:id="rId4"/>
-    <sheet name="Task Listing" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId6"/>
-    <sheet name="Minimum Manning Station" sheetId="7" r:id="rId7"/>
+    <sheet name="WnS Bill Day Sail" sheetId="10" r:id="rId5"/>
+    <sheet name="Task Listing" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId7"/>
+    <sheet name="Minimum Manning Station" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="BillAssignmentRef">'Skills Grid'!$C$6</definedName>
@@ -28,7 +29,7 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="507">
   <si>
     <t>Respond to an MOB</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1712,16 +1713,7 @@
     <t>Harbour Cruise</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>Other Evolutions</t>
-  </si>
-  <si>
     <t>MS-M4</t>
-  </si>
-  <si>
-    <t>MS-F18</t>
   </si>
   <si>
     <t>MS-M9</t>
@@ -2925,7 +2917,7 @@
     <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <font>
         <color theme="0" tint="-0.249977111117893"/>
@@ -2934,6 +2926,16 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4257,10 +4259,10 @@
   <dimension ref="A1:JJ132"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="FQ4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="DT4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="GL7" sqref="GL7"/>
+      <selection pane="bottomRight" activeCell="EN9" sqref="EN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -7192,67 +7194,59 @@
       <c r="EL7" s="9"/>
       <c r="EM7" s="10"/>
       <c r="EN7" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="EO7" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="EP7" s="9"/>
       <c r="EQ7" s="9"/>
       <c r="ER7" s="9"/>
       <c r="ES7" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="ET7" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="EU7" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="EV7" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="EW7" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="EX7" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="EY7" s="14" t="s">
-        <v>493</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="EV7" s="14"/>
+      <c r="EW7" s="14"/>
+      <c r="EX7" s="14"/>
+      <c r="EY7" s="14"/>
       <c r="EZ7" s="14"/>
       <c r="FA7" s="9"/>
       <c r="FB7" s="10"/>
       <c r="FC7" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="FD7" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="FE7" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="FF7" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="FG7" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="FH7" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="FI7" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="FJ7" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="FK7" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="FL7" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="FM7" s="9"/>
       <c r="FN7" s="9"/>
@@ -7265,7 +7259,7 @@
       <c r="FU7" s="9"/>
       <c r="FV7" s="9"/>
       <c r="FW7" s="9" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="FX7" s="9"/>
       <c r="FY7" s="9"/>
@@ -7279,17 +7273,17 @@
       <c r="GG7" s="9"/>
       <c r="GH7" s="9"/>
       <c r="GI7" s="9" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="GJ7" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="GK7" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="GL7" s="9"/>
       <c r="GM7" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="GN7" s="9"/>
       <c r="GO7" s="9"/>
@@ -7308,16 +7302,16 @@
       <c r="HB7" s="9"/>
       <c r="HC7" s="9"/>
       <c r="HD7" s="14" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="HH7" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="HK7" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="HN7" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:270" s="31" customFormat="1" ht="14">
@@ -30903,184 +30897,154 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG67"/>
+  <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="S2" sqref="S1:S1048576"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="12.5703125" customWidth="1"/>
-    <col min="19" max="19" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2" style="28" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="3" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="2" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="20">
-      <c r="D1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E1" s="125" t="s">
+    <row r="1" spans="1:30" ht="20">
+      <c r="D1" s="125" t="s">
         <v>378</v>
       </c>
+      <c r="E1" s="126"/>
       <c r="F1" s="126"/>
       <c r="G1" s="126"/>
       <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="127"/>
-      <c r="K1" t="s">
-        <v>490</v>
-      </c>
-      <c r="L1" s="120" t="s">
+      <c r="I1" s="127"/>
+      <c r="J1" s="120" t="s">
         <v>489</v>
       </c>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
       <c r="M1" s="121"/>
       <c r="N1" s="121"/>
       <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="122"/>
-      <c r="S1" t="s">
-        <v>490</v>
-      </c>
-      <c r="T1" s="120" t="s">
+      <c r="P1" s="122"/>
+      <c r="Q1" s="120" t="s">
         <v>379</v>
       </c>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
       <c r="U1" s="121"/>
       <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="120" t="s">
+        <v>443</v>
+      </c>
       <c r="Y1" s="121"/>
-      <c r="Z1" s="122"/>
-      <c r="AA1" s="120" t="s">
-        <v>443</v>
-      </c>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="121"/>
       <c r="AB1" s="121"/>
       <c r="AC1" s="121"/>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="122"/>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AD1" s="122"/>
+    </row>
+    <row r="2" spans="1:30">
       <c r="C2" s="38" t="s">
         <v>391</v>
       </c>
-      <c r="D2" t="s">
-        <v>490</v>
-      </c>
-      <c r="E2" s="16">
-        <f>COUNTIF(E5:E67,"Y")</f>
-        <v>0</v>
-      </c>
+      <c r="D2" s="16">
+        <f>COUNTIF(D5:D67,"Y")</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" t="s">
-        <v>490</v>
-      </c>
-      <c r="L2" s="22">
-        <f>COUNTIF(L5:L67,"Y")</f>
+      <c r="I2" s="8"/>
+      <c r="J2" s="22">
+        <f>COUNTIF(J5:J67,"Y")</f>
         <v>20</v>
       </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="8"/>
-      <c r="S2" t="s">
-        <v>490</v>
-      </c>
-      <c r="T2" s="22">
-        <f>COUNTIF(T5:T67,"Y")</f>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="22">
+        <f>COUNTIF(Q5:Q67,"Y")</f>
         <v>14</v>
       </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="22">
+        <f>COUNTIF(X5:X51,"Y")</f>
+        <v>0</v>
+      </c>
       <c r="Y2" s="7"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="22">
-        <f>COUNTIF(AA5:AA51,"Y")</f>
-        <v>0</v>
-      </c>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="8"/>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AD2" s="8"/>
+    </row>
+    <row r="3" spans="1:30">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
-      <c r="D3" t="s">
-        <v>490</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="G3" s="123" t="s">
+      <c r="F3" s="123" t="s">
         <v>393</v>
       </c>
+      <c r="G3" s="123"/>
       <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="124"/>
-      <c r="K3" t="s">
-        <v>490</v>
-      </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="123" t="s">
+      <c r="I3" s="124"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="123" t="s">
         <v>393</v>
       </c>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
       <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="124"/>
-      <c r="S3" t="s">
-        <v>490</v>
-      </c>
-      <c r="T3" s="22"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="123" t="s">
+      <c r="P3" s="124"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="123" t="s">
         <v>393</v>
       </c>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="123" t="s">
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="123" t="s">
         <v>393</v>
       </c>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="124"/>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="123"/>
+      <c r="AD3" s="124"/>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>376</v>
       </c>
@@ -31090,82 +31054,73 @@
       <c r="C4" t="s">
         <v>377</v>
       </c>
-      <c r="D4" t="s">
-        <v>490</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="44" t="s">
+        <v>397</v>
+      </c>
       <c r="G4" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="M4" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="N4" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="O4" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="P4" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="K4" t="s">
-        <v>490</v>
-      </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="44" t="s">
+      <c r="Q4" s="50"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="T4" s="44" t="s">
         <v>416</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="U4" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="V4" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="R4" s="45" t="s">
+      <c r="W4" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="S4" t="s">
-        <v>490</v>
-      </c>
-      <c r="T4" s="50"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="44" t="s">
+      <c r="X4" s="50"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="W4" s="44" t="s">
+      <c r="AA4" s="44" t="s">
         <v>416</v>
       </c>
-      <c r="X4" s="44" t="s">
+      <c r="AB4" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="Y4" s="44" t="s">
+      <c r="AC4" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="Z4" s="45" t="s">
+      <c r="AD4" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="44" t="s">
-        <v>397</v>
-      </c>
-      <c r="AD4" s="44" t="s">
-        <v>416</v>
-      </c>
-      <c r="AE4" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="AF4" s="44" t="s">
-        <v>404</v>
-      </c>
-      <c r="AG4" s="45" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>463</v>
       </c>
@@ -31175,35 +31130,35 @@
       <c r="C5" s="95" t="s">
         <v>381</v>
       </c>
-      <c r="D5" t="s">
-        <v>490</v>
-      </c>
-      <c r="E5" s="85" t="str">
-        <f t="shared" ref="E5:E36" si="0">IF(COUNTIF(WnSAssignmentMoveShip,$A5)&gt;0,"Y","-")</f>
+      <c r="D5" s="85" t="str">
+        <f t="shared" ref="D5:D36" si="0">IF(COUNTIF(WnSAssignmentMoveShip,$A5)&gt;0,"Y","-")</f>
         <v>-</v>
       </c>
-      <c r="F5" s="86" t="str">
-        <f t="array" ref="F5">IF(E5="Y",MAX(IF(WnSAssignmentMoveShip=A5,TaskRankRequirements)),"")</f>
+      <c r="E5" s="86" t="str">
+        <f t="array" ref="E5">IF(D5="Y",MAX(IF(WnSAssignmentMoveShip=A5,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F5" s="87" t="s">
+        <v>306</v>
+      </c>
       <c r="G5" s="87" t="s">
+        <v>402</v>
+      </c>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="85" t="str">
+        <f t="shared" ref="J5:J36" si="1">IF(COUNTIF(WnSAssignmentHarbourCruise,$A5)&gt;0,"Y","-")</f>
+        <v>Y</v>
+      </c>
+      <c r="K5" s="86" t="e">
+        <f t="array" ref="K5">IF(J5="Y",MAX(IF(WnSAssignmentHarbourCruise=$A5,TaskRankRequirements)),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L5" s="87" t="s">
         <v>306</v>
       </c>
-      <c r="H5" s="87" t="s">
-        <v>402</v>
-      </c>
-      <c r="I5" s="87"/>
-      <c r="J5" s="88"/>
-      <c r="K5" t="s">
-        <v>490</v>
-      </c>
-      <c r="L5" s="85" t="str">
-        <f t="shared" ref="L5:L36" si="1">IF(COUNTIF(WnSAssignmentHarbourCruise,$A5)&gt;0,"Y","-")</f>
-        <v>Y</v>
-      </c>
-      <c r="M5" s="86" t="e">
-        <f t="array" ref="M5">IF(L5="Y",MAX(IF(WnSAssignmentHarbourCruise=$A5,TaskRankRequirements)),"")</f>
-        <v>#N/A</v>
+      <c r="M5" s="87" t="s">
+        <v>306</v>
       </c>
       <c r="N5" s="87" t="s">
         <v>306</v>
@@ -31211,50 +31166,41 @@
       <c r="O5" s="87" t="s">
         <v>306</v>
       </c>
-      <c r="P5" s="87" t="s">
+      <c r="P5" s="111" t="s">
         <v>306</v>
       </c>
-      <c r="Q5" s="87" t="s">
+      <c r="Q5" s="85" t="str">
+        <f t="shared" ref="Q5:Q36" si="2">IF(COUNTIF(WnSAssignmentDaySail,$A5)&gt;0,"Y","-")</f>
+        <v>-</v>
+      </c>
+      <c r="R5" s="87" t="str">
+        <f t="shared" ref="R5:R51" si="3">IF(Q5="Y",MAX(IF(WnSAssignmentHarbourCruise=$A5,TaskRankRequirements)),"")</f>
+        <v/>
+      </c>
+      <c r="S5" s="87" t="s">
         <v>306</v>
       </c>
-      <c r="R5" s="111" t="s">
+      <c r="T5" s="87" t="s">
         <v>306</v>
       </c>
-      <c r="S5" t="s">
-        <v>490</v>
-      </c>
-      <c r="T5" s="85" t="str">
-        <f t="shared" ref="T5:T36" si="2">IF(COUNTIF(WnSAssignmentDaySail,$A5)&gt;0,"Y","-")</f>
-        <v>-</v>
-      </c>
-      <c r="U5" s="87" t="str">
-        <f t="shared" ref="U5:U51" si="3">IF(T5="Y",MAX(IF(WnSAssignmentHarbourCruise=$A5,TaskRankRequirements)),"")</f>
-        <v/>
-      </c>
-      <c r="V5" s="87" t="s">
+      <c r="U5" s="87" t="s">
         <v>306</v>
       </c>
-      <c r="W5" s="87" t="s">
+      <c r="V5" s="86" t="s">
         <v>306</v>
       </c>
-      <c r="X5" s="87" t="s">
+      <c r="W5" s="111" t="s">
         <v>306</v>
       </c>
-      <c r="Y5" s="86" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z5" s="111" t="s">
-        <v>306</v>
-      </c>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
       <c r="AA5" s="89"/>
       <c r="AB5" s="89"/>
       <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="89"/>
-      <c r="AF5" s="89"/>
-      <c r="AG5" s="90"/>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AD5" s="90"/>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>464</v>
       </c>
@@ -31264,78 +31210,69 @@
       <c r="C6" s="96" t="s">
         <v>382</v>
       </c>
-      <c r="D6" t="s">
-        <v>490</v>
-      </c>
-      <c r="E6" s="52" t="str">
+      <c r="D6" s="52" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F6" s="53" t="str">
-        <f t="array" ref="F6">IF(E6="Y",MAX(IF(WnSAssignmentMoveShip=A6,TaskRankRequirements)),"")</f>
+      <c r="E6" s="53" t="str">
+        <f t="array" ref="E6">IF(D6="Y",MAX(IF(WnSAssignmentMoveShip=A6,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F6" s="54" t="s">
+        <v>415</v>
+      </c>
       <c r="G6" s="54" t="s">
-        <v>415</v>
-      </c>
-      <c r="H6" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" t="s">
-        <v>490</v>
-      </c>
-      <c r="L6" s="52" t="str">
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="M6" s="53">
-        <f t="array" ref="M6">IF(L6="Y",MAX(IF(WnSAssignmentHarbourCruise=$A6,TaskRankRequirements)),"")</f>
+      <c r="K6" s="53">
+        <f t="array" ref="K6">IF(J6="Y",MAX(IF(WnSAssignmentHarbourCruise=$A6,TaskRankRequirements)),"")</f>
         <v>4</v>
       </c>
+      <c r="L6" s="54" t="s">
+        <v>415</v>
+      </c>
+      <c r="M6" s="54" t="s">
+        <v>417</v>
+      </c>
       <c r="N6" s="54" t="s">
-        <v>415</v>
-      </c>
-      <c r="O6" s="54" t="s">
-        <v>417</v>
-      </c>
-      <c r="P6" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="91"/>
-      <c r="S6" t="s">
-        <v>490</v>
-      </c>
-      <c r="T6" s="52" t="str">
+      <c r="O6" s="54"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="52" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="U6" s="54">
+      <c r="R6" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V6" s="54" t="s">
+      <c r="S6" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="W6" s="54" t="s">
+      <c r="T6" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="X6" s="54" t="s">
+      <c r="U6" s="54" t="s">
         <v>394</v>
       </c>
+      <c r="V6" s="53"/>
+      <c r="W6" s="91"/>
+      <c r="X6" s="53"/>
       <c r="Y6" s="53"/>
-      <c r="Z6" s="91"/>
+      <c r="Z6" s="53"/>
       <c r="AA6" s="53"/>
       <c r="AB6" s="53"/>
       <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="91"/>
-    </row>
-    <row r="7" spans="1:33">
+      <c r="AD6" s="91"/>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" s="39" t="s">
         <v>459</v>
       </c>
@@ -31345,62 +31282,53 @@
       <c r="C7" s="83" t="s">
         <v>426</v>
       </c>
-      <c r="D7" t="s">
-        <v>490</v>
-      </c>
-      <c r="E7" s="22" t="str">
+      <c r="D7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F7" s="23" t="str">
-        <f t="array" ref="F7">IF(E7="Y",MAX(IF(WnSAssignmentMoveShip=A7,TaskRankRequirements)),"")</f>
+      <c r="E7" s="23" t="str">
+        <f t="array" ref="E7">IF(D7="Y",MAX(IF(WnSAssignmentMoveShip=A7,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" t="s">
-        <v>490</v>
-      </c>
-      <c r="L7" s="26" t="str">
+      <c r="I7" s="8"/>
+      <c r="J7" s="26" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="M7" s="24" t="str">
-        <f t="array" ref="M7">IF(L7="Y",MAX(IF(WnSAssignmentHarbourCruise=$A7,TaskRankRequirements)),"")</f>
+      <c r="K7" s="24" t="str">
+        <f t="array" ref="K7">IF(J7="Y",MAX(IF(WnSAssignmentHarbourCruise=$A7,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
       <c r="N7" s="39"/>
       <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="66"/>
-      <c r="S7" t="s">
-        <v>490</v>
-      </c>
-      <c r="T7" s="26" t="str">
+      <c r="P7" s="66"/>
+      <c r="Q7" s="26" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U7" s="39" t="str">
+      <c r="R7" s="39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
       <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
       <c r="AA7" s="56"/>
       <c r="AB7" s="56"/>
       <c r="AC7" s="56"/>
-      <c r="AD7" s="56"/>
-      <c r="AE7" s="56"/>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="57"/>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="AD7" s="57"/>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="39" t="s">
         <v>459</v>
       </c>
@@ -31410,59 +31338,50 @@
       <c r="C8" s="81" t="s">
         <v>427</v>
       </c>
-      <c r="D8" t="s">
-        <v>490</v>
-      </c>
-      <c r="E8" s="22" t="str">
+      <c r="D8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" t="s">
-        <v>490</v>
-      </c>
-      <c r="L8" s="22" t="str">
+      <c r="I8" s="8"/>
+      <c r="J8" s="22" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="M8" s="23" t="str">
-        <f t="array" ref="M8">IF(L8="Y",MAX(IF(WnSAssignmentHarbourCruise=$A8,TaskRankRequirements)),"")</f>
+      <c r="K8" s="23" t="str">
+        <f t="array" ref="K8">IF(J8="Y",MAX(IF(WnSAssignmentHarbourCruise=$A8,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="8"/>
-      <c r="S8" t="s">
-        <v>490</v>
-      </c>
-      <c r="T8" s="22" t="str">
+      <c r="P8" s="8"/>
+      <c r="Q8" s="22" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U8" s="23" t="str">
+      <c r="R8" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="W8" s="8"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
-      <c r="Z8" s="8"/>
+      <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="8"/>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="AD8" s="8"/>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="39" t="s">
         <v>459</v>
       </c>
@@ -31472,62 +31391,53 @@
       <c r="C9" s="97" t="s">
         <v>428</v>
       </c>
-      <c r="D9" t="s">
-        <v>490</v>
-      </c>
-      <c r="E9" s="22" t="str">
+      <c r="D9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F9" s="23" t="str">
-        <f t="array" ref="F9">IF(E9="Y",MAX(IF(WnSAssignmentMoveShip=A9,TaskRankRequirements)),"")</f>
+      <c r="E9" s="23" t="str">
+        <f t="array" ref="E9">IF(D9="Y",MAX(IF(WnSAssignmentMoveShip=A9,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" t="s">
-        <v>490</v>
-      </c>
-      <c r="L9" s="22" t="str">
+      <c r="I9" s="8"/>
+      <c r="J9" s="22" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="M9" s="23" t="str">
-        <f t="array" ref="M9">IF(L9="Y",MAX(IF(WnSAssignmentHarbourCruise=$A9,TaskRankRequirements)),"")</f>
+      <c r="K9" s="23" t="str">
+        <f t="array" ref="K9">IF(J9="Y",MAX(IF(WnSAssignmentHarbourCruise=$A9,TaskRankRequirements)),"")</f>
         <v/>
       </c>
-      <c r="N9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="8"/>
-      <c r="S9" t="s">
-        <v>490</v>
-      </c>
-      <c r="T9" s="22" t="str">
+      <c r="P9" s="8"/>
+      <c r="Q9" s="22" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U9" s="23" t="str">
+      <c r="R9" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V9" s="39"/>
-      <c r="W9" s="7"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="8"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="8"/>
+      <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="8"/>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AD9" s="8"/>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" s="108" t="s">
         <v>459</v>
       </c>
@@ -31535,59 +31445,50 @@
         <v>460</v>
       </c>
       <c r="C10" s="110"/>
-      <c r="D10" t="s">
-        <v>490</v>
-      </c>
-      <c r="E10" s="40" t="str">
+      <c r="D10" s="40" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F10" s="41" t="str">
-        <f t="array" ref="F10">IF(E10="Y",MAX(IF(WnSAssignmentMoveShip=A10,TaskRankRequirements)),"")</f>
+      <c r="E10" s="41" t="str">
+        <f t="array" ref="E10">IF(D10="Y",MAX(IF(WnSAssignmentMoveShip=A10,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F10" s="42"/>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" t="s">
-        <v>490</v>
-      </c>
-      <c r="L10" s="40" t="str">
+      <c r="I10" s="43"/>
+      <c r="J10" s="40" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="M10" s="41" t="str">
-        <f t="array" ref="M10">IF(L10="Y",MAX(IF(WnSAssignmentHarbourCruise=$A10,TaskRankRequirements)),"")</f>
+      <c r="K10" s="41" t="str">
+        <f t="array" ref="K10">IF(J10="Y",MAX(IF(WnSAssignmentHarbourCruise=$A10,TaskRankRequirements)),"")</f>
         <v/>
       </c>
-      <c r="N10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
       <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="43"/>
-      <c r="S10" t="s">
-        <v>490</v>
-      </c>
-      <c r="T10" s="40" t="str">
+      <c r="P10" s="43"/>
+      <c r="Q10" s="40" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U10" s="41"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="42"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="43"/>
       <c r="X10" s="42"/>
       <c r="Y10" s="42"/>
-      <c r="Z10" s="43"/>
+      <c r="Z10" s="42"/>
       <c r="AA10" s="42"/>
       <c r="AB10" s="42"/>
       <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42"/>
-      <c r="AG10" s="43"/>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="AD10" s="43"/>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
         <v>465</v>
       </c>
@@ -31597,16 +31498,16 @@
       <c r="C11" s="98" t="s">
         <v>380</v>
       </c>
-      <c r="D11" t="s">
-        <v>490</v>
-      </c>
-      <c r="E11" s="52" t="str">
+      <c r="D11" s="52" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F11" s="53" t="str">
-        <f t="array" ref="F11">IF(E11="Y",MAX(IF(WnSAssignmentMoveShip=A11,TaskRankRequirements)),"")</f>
+      <c r="E11" s="53" t="str">
+        <f t="array" ref="E11">IF(D11="Y",MAX(IF(WnSAssignmentMoveShip=A11,TaskRankRequirements)),"")</f>
         <v/>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>425</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>425</v>
@@ -31614,22 +31515,22 @@
       <c r="H11" s="54" t="s">
         <v>425</v>
       </c>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="55" t="s">
         <v>425</v>
       </c>
-      <c r="J11" s="55" t="s">
-        <v>425</v>
-      </c>
-      <c r="K11" t="s">
-        <v>490</v>
-      </c>
-      <c r="L11" s="52" t="str">
+      <c r="J11" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="M11" s="53" t="e">
-        <f t="array" ref="M11">IF(L11="Y",MAX(IF(WnSAssignmentHarbourCruise=$A11,TaskRankRequirements)),"")</f>
+      <c r="K11" s="53" t="e">
+        <f t="array" ref="K11">IF(J11="Y",MAX(IF(WnSAssignmentHarbourCruise=$A11,TaskRankRequirements)),"")</f>
         <v>#N/A</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="M11" s="54" t="s">
+        <v>425</v>
       </c>
       <c r="N11" s="54" t="s">
         <v>425</v>
@@ -31637,50 +31538,41 @@
       <c r="O11" s="54" t="s">
         <v>425</v>
       </c>
-      <c r="P11" s="54" t="s">
+      <c r="P11" s="91" t="s">
         <v>425</v>
       </c>
-      <c r="Q11" s="54" t="s">
-        <v>425</v>
-      </c>
-      <c r="R11" s="91" t="s">
-        <v>425</v>
-      </c>
-      <c r="S11" t="s">
-        <v>490</v>
-      </c>
-      <c r="T11" s="52" t="str">
+      <c r="Q11" s="52" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U11" s="54" t="str">
+      <c r="R11" s="54" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V11" s="54" t="s">
+      <c r="S11" s="54" t="s">
         <v>425</v>
       </c>
-      <c r="W11" s="54" t="s">
+      <c r="T11" s="54" t="s">
         <v>425</v>
       </c>
-      <c r="X11" s="54" t="s">
+      <c r="U11" s="54" t="s">
         <v>425</v>
       </c>
-      <c r="Y11" s="53" t="s">
+      <c r="V11" s="53" t="s">
         <v>425</v>
       </c>
-      <c r="Z11" s="91" t="s">
+      <c r="W11" s="91" t="s">
         <v>425</v>
       </c>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
       <c r="AA11" s="53"/>
       <c r="AB11" s="53"/>
       <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="91"/>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AD11" s="91"/>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
         <v>466</v>
       </c>
@@ -31690,76 +31582,67 @@
       <c r="C12" s="98" t="s">
         <v>452</v>
       </c>
-      <c r="D12" t="s">
-        <v>490</v>
-      </c>
-      <c r="E12" s="52" t="str">
+      <c r="D12" s="52" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F12" s="53" t="str">
-        <f t="array" ref="F12">IF(E12="Y",MAX(IF(WnSAssignmentMoveShip=A12,TaskRankRequirements)),"")</f>
+      <c r="E12" s="53" t="str">
+        <f t="array" ref="E12">IF(D12="Y",MAX(IF(WnSAssignmentMoveShip=A12,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F12" s="54" t="s">
+        <v>412</v>
+      </c>
       <c r="G12" s="54" t="s">
-        <v>412</v>
-      </c>
-      <c r="H12" s="54" t="s">
         <v>396</v>
       </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
-      <c r="K12" t="s">
-        <v>490</v>
-      </c>
-      <c r="L12" s="52" t="str">
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="M12" s="53">
-        <f t="array" ref="M12">IF(L12="Y",MAX(IF(WnSAssignmentHarbourCruise=$A12,TaskRankRequirements)),"")</f>
+      <c r="K12" s="53">
+        <f t="array" ref="K12">IF(J12="Y",MAX(IF(WnSAssignmentHarbourCruise=$A12,TaskRankRequirements)),"")</f>
         <v>4</v>
       </c>
-      <c r="N12" s="54" t="s">
+      <c r="L12" s="54" t="s">
         <v>412</v>
       </c>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
       <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="91"/>
-      <c r="S12" t="s">
-        <v>490</v>
-      </c>
-      <c r="T12" s="52" t="str">
+      <c r="P12" s="91"/>
+      <c r="Q12" s="52" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="U12" s="54">
+      <c r="R12" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V12" s="54" t="s">
+      <c r="S12" s="54" t="s">
         <v>422</v>
       </c>
-      <c r="W12" s="54" t="s">
+      <c r="T12" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="X12" s="54" t="s">
+      <c r="U12" s="54" t="s">
         <v>450</v>
       </c>
-      <c r="Y12" s="53" t="s">
+      <c r="V12" s="53" t="s">
         <v>449</v>
       </c>
-      <c r="Z12" s="91"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
       <c r="AA12" s="53"/>
       <c r="AB12" s="53"/>
       <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="53"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="91"/>
-    </row>
-    <row r="13" spans="1:33">
+      <c r="AD12" s="91"/>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
         <v>467</v>
       </c>
@@ -31769,70 +31652,61 @@
       <c r="C13" s="99" t="s">
         <v>453</v>
       </c>
-      <c r="D13" t="s">
-        <v>490</v>
-      </c>
-      <c r="E13" s="22" t="str">
+      <c r="D13" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F13" s="23" t="str">
-        <f t="array" ref="F13">IF(E13="Y",MAX(IF(WnSAssignmentMoveShip=A13,TaskRankRequirements)),"")</f>
+      <c r="E13" s="23" t="str">
+        <f t="array" ref="E13">IF(D13="Y",MAX(IF(WnSAssignmentMoveShip=A13,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-      <c r="K13" t="s">
-        <v>490</v>
-      </c>
-      <c r="L13" s="22" t="str">
+      <c r="I13" s="8"/>
+      <c r="J13" s="22" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="M13" s="23" t="str">
-        <f t="array" ref="M13">IF(L13="Y",MAX(IF(WnSAssignmentHarbourCruise=$A13,TaskRankRequirements)),"")</f>
+      <c r="K13" s="23" t="str">
+        <f t="array" ref="K13">IF(J13="Y",MAX(IF(WnSAssignmentHarbourCruise=$A13,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="8"/>
-      <c r="S13" t="s">
-        <v>490</v>
-      </c>
-      <c r="T13" s="58" t="str">
+      <c r="P13" s="8"/>
+      <c r="Q13" s="58" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U13" s="59" t="str">
+      <c r="R13" s="59" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S13" s="60" t="s">
+        <v>412</v>
+      </c>
+      <c r="T13" s="60" t="s">
+        <v>447</v>
+      </c>
+      <c r="U13" s="60" t="s">
+        <v>447</v>
+      </c>
       <c r="V13" s="60" t="s">
-        <v>412</v>
-      </c>
-      <c r="W13" s="60" t="s">
         <v>447</v>
       </c>
-      <c r="X13" s="60" t="s">
-        <v>447</v>
-      </c>
-      <c r="Y13" s="60" t="s">
-        <v>447</v>
-      </c>
-      <c r="Z13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
       <c r="AA13" s="60"/>
       <c r="AB13" s="60"/>
       <c r="AC13" s="60"/>
-      <c r="AD13" s="60"/>
-      <c r="AE13" s="60"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="61"/>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="AD13" s="61"/>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
         <v>459</v>
       </c>
@@ -31842,62 +31716,53 @@
       <c r="C14" s="79" t="s">
         <v>454</v>
       </c>
-      <c r="D14" t="s">
-        <v>490</v>
-      </c>
-      <c r="E14" s="22" t="str">
+      <c r="D14" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F14" s="23" t="str">
-        <f t="array" ref="F14">IF(E14="Y",MAX(IF(WnSAssignmentMoveShip=A14,TaskRankRequirements)),"")</f>
+      <c r="E14" s="23" t="str">
+        <f t="array" ref="E14">IF(D14="Y",MAX(IF(WnSAssignmentMoveShip=A14,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-      <c r="K14" t="s">
-        <v>490</v>
-      </c>
-      <c r="L14" s="26" t="str">
+      <c r="I14" s="8"/>
+      <c r="J14" s="26" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="M14" s="24" t="str">
-        <f t="array" ref="M14">IF(L14="Y",MAX(IF(WnSAssignmentHarbourCruise=$A14,TaskRankRequirements)),"")</f>
+      <c r="K14" s="24" t="str">
+        <f t="array" ref="K14">IF(J14="Y",MAX(IF(WnSAssignmentHarbourCruise=$A14,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="66"/>
-      <c r="S14" t="s">
-        <v>490</v>
-      </c>
-      <c r="T14" s="26" t="str">
+      <c r="P14" s="66"/>
+      <c r="Q14" s="26" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U14" s="39" t="str">
+      <c r="R14" s="39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
       <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
       <c r="AA14" s="56"/>
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="57"/>
-    </row>
-    <row r="15" spans="1:33">
+      <c r="AD14" s="57"/>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
         <v>468</v>
       </c>
@@ -31907,16 +31772,16 @@
       <c r="C15" s="98" t="s">
         <v>368</v>
       </c>
-      <c r="D15" t="s">
-        <v>490</v>
-      </c>
-      <c r="E15" s="52" t="str">
+      <c r="D15" s="52" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F15" s="53" t="str">
-        <f t="array" ref="F15">IF(E15="Y",MAX(IF(WnSAssignmentMoveShip=A15,TaskRankRequirements)),"")</f>
+      <c r="E15" s="53" t="str">
+        <f t="array" ref="E15">IF(D15="Y",MAX(IF(WnSAssignmentMoveShip=A15,TaskRankRequirements)),"")</f>
         <v/>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>403</v>
       </c>
       <c r="G15" s="54" t="s">
         <v>403</v>
@@ -31924,63 +31789,54 @@
       <c r="H15" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="I15" s="54" t="s">
+      <c r="I15" s="55" t="s">
         <v>403</v>
       </c>
-      <c r="J15" s="55" t="s">
-        <v>403</v>
-      </c>
-      <c r="K15" t="s">
-        <v>490</v>
-      </c>
-      <c r="L15" s="52" t="str">
+      <c r="J15" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="M15" s="53">
-        <f t="array" ref="M15">IF(L15="Y",MAX(IF(WnSAssignmentHarbourCruise=$A15,TaskRankRequirements)),"")</f>
+      <c r="K15" s="53">
+        <f t="array" ref="K15">IF(J15="Y",MAX(IF(WnSAssignmentHarbourCruise=$A15,TaskRankRequirements)),"")</f>
         <v>4</v>
       </c>
+      <c r="L15" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="M15" s="54"/>
       <c r="N15" s="54" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="O15" s="54"/>
-      <c r="P15" s="54" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="91"/>
-      <c r="S15" t="s">
-        <v>490</v>
-      </c>
-      <c r="T15" s="52" t="str">
+      <c r="P15" s="91"/>
+      <c r="Q15" s="52" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="U15" s="54">
+      <c r="R15" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V15" s="54" t="s">
+      <c r="S15" s="54" t="s">
         <v>413</v>
       </c>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54" t="s">
+      <c r="T15" s="54"/>
+      <c r="U15" s="54" t="s">
         <v>396</v>
       </c>
-      <c r="Y15" s="53" t="s">
+      <c r="V15" s="53" t="s">
         <v>448</v>
       </c>
-      <c r="Z15" s="91"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
       <c r="AA15" s="53"/>
       <c r="AB15" s="53"/>
       <c r="AC15" s="53"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="53"/>
-      <c r="AF15" s="53"/>
-      <c r="AG15" s="91"/>
-    </row>
-    <row r="16" spans="1:33">
+      <c r="AD15" s="91"/>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
         <v>375</v>
       </c>
@@ -31990,66 +31846,57 @@
       <c r="C16" s="99" t="s">
         <v>455</v>
       </c>
-      <c r="D16" t="s">
-        <v>490</v>
-      </c>
-      <c r="E16" s="22" t="str">
+      <c r="D16" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F16" s="23" t="str">
-        <f t="array" ref="F16">IF(E16="Y",MAX(IF(WnSAssignmentMoveShip=A16,TaskRankRequirements)),"")</f>
+      <c r="E16" s="23" t="str">
+        <f t="array" ref="E16">IF(D16="Y",MAX(IF(WnSAssignmentMoveShip=A16,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" t="s">
-        <v>490</v>
-      </c>
-      <c r="L16" s="22" t="str">
+      <c r="I16" s="8"/>
+      <c r="J16" s="22" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="M16" s="23" t="str">
-        <f t="array" ref="M16">IF(L16="Y",MAX(IF(WnSAssignmentHarbourCruise=$A16,TaskRankRequirements)),"")</f>
+      <c r="K16" s="23" t="str">
+        <f t="array" ref="K16">IF(J16="Y",MAX(IF(WnSAssignmentHarbourCruise=$A16,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="8"/>
-      <c r="S16" t="s">
-        <v>490</v>
-      </c>
-      <c r="T16" s="58" t="str">
+      <c r="P16" s="8"/>
+      <c r="Q16" s="58" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="U16" s="60">
+      <c r="R16" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60" t="s">
+      <c r="S16" s="60"/>
+      <c r="T16" s="60" t="s">
         <v>445</v>
       </c>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60" t="s">
+        <v>421</v>
+      </c>
+      <c r="W16" s="61"/>
       <c r="X16" s="60"/>
-      <c r="Y16" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="Z16" s="61"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="60"/>
       <c r="AA16" s="60"/>
       <c r="AB16" s="60"/>
       <c r="AC16" s="60"/>
-      <c r="AD16" s="60"/>
-      <c r="AE16" s="60"/>
-      <c r="AF16" s="60"/>
-      <c r="AG16" s="61"/>
-    </row>
-    <row r="17" spans="1:33">
+      <c r="AD16" s="61"/>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
         <v>459</v>
       </c>
@@ -32057,62 +31904,53 @@
         <v>431</v>
       </c>
       <c r="C17" s="79"/>
-      <c r="D17" t="s">
-        <v>490</v>
-      </c>
-      <c r="E17" s="22" t="str">
+      <c r="D17" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F17" s="23" t="str">
-        <f t="array" ref="F17">IF(E17="Y",MAX(IF(WnSAssignmentMoveShip=A17,TaskRankRequirements)),"")</f>
+      <c r="E17" s="23" t="str">
+        <f t="array" ref="E17">IF(D17="Y",MAX(IF(WnSAssignmentMoveShip=A17,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" t="s">
-        <v>490</v>
-      </c>
-      <c r="L17" s="26" t="str">
+      <c r="I17" s="8"/>
+      <c r="J17" s="26" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="M17" s="24" t="str">
-        <f t="array" ref="M17">IF(L17="Y",MAX(IF(WnSAssignmentHarbourCruise=$A17,TaskRankRequirements)),"")</f>
+      <c r="K17" s="24" t="str">
+        <f t="array" ref="K17">IF(J17="Y",MAX(IF(WnSAssignmentHarbourCruise=$A17,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
       <c r="N17" s="39"/>
       <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="66"/>
-      <c r="S17" t="s">
-        <v>490</v>
-      </c>
-      <c r="T17" s="26" t="str">
+      <c r="P17" s="66"/>
+      <c r="Q17" s="26" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U17" s="39" t="str">
+      <c r="R17" s="39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
       <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
       <c r="AA17" s="56"/>
       <c r="AB17" s="56"/>
       <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="57"/>
-    </row>
-    <row r="18" spans="1:33">
+      <c r="AD17" s="57"/>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
         <v>459</v>
       </c>
@@ -32120,62 +31958,53 @@
         <v>431</v>
       </c>
       <c r="C18" s="79"/>
-      <c r="D18" t="s">
-        <v>490</v>
-      </c>
-      <c r="E18" s="22" t="str">
+      <c r="D18" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F18" s="23" t="str">
-        <f t="array" ref="F18">IF(E18="Y",MAX(IF(WnSAssignmentMoveShip=A18,TaskRankRequirements)),"")</f>
+      <c r="E18" s="23" t="str">
+        <f t="array" ref="E18">IF(D18="Y",MAX(IF(WnSAssignmentMoveShip=A18,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
-      <c r="K18" t="s">
-        <v>490</v>
-      </c>
-      <c r="L18" s="26" t="str">
+      <c r="I18" s="8"/>
+      <c r="J18" s="26" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="M18" s="24" t="str">
-        <f t="array" ref="M18">IF(L18="Y",MAX(IF(WnSAssignmentHarbourCruise=$A18,TaskRankRequirements)),"")</f>
+      <c r="K18" s="24" t="str">
+        <f t="array" ref="K18">IF(J18="Y",MAX(IF(WnSAssignmentHarbourCruise=$A18,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
       <c r="N18" s="39"/>
       <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="66"/>
-      <c r="S18" t="s">
-        <v>490</v>
-      </c>
-      <c r="T18" s="26" t="str">
+      <c r="P18" s="66"/>
+      <c r="Q18" s="26" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U18" s="39" t="str">
+      <c r="R18" s="39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
       <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
       <c r="AA18" s="56"/>
       <c r="AB18" s="56"/>
       <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="57"/>
-    </row>
-    <row r="19" spans="1:33">
+      <c r="AD18" s="57"/>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
         <v>469</v>
       </c>
@@ -32185,68 +32014,59 @@
       <c r="C19" s="99" t="s">
         <v>358</v>
       </c>
-      <c r="D19" t="s">
-        <v>490</v>
-      </c>
-      <c r="E19" s="22" t="str">
+      <c r="D19" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F19" s="23" t="str">
-        <f t="array" ref="F19">IF(E19="Y",MAX(IF(WnSAssignmentMoveShip=A19,TaskRankRequirements)),"")</f>
+      <c r="E19" s="23" t="str">
+        <f t="array" ref="E19">IF(D19="Y",MAX(IF(WnSAssignmentMoveShip=A19,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" t="s">
-        <v>490</v>
-      </c>
-      <c r="L19" s="22" t="str">
+      <c r="I19" s="8"/>
+      <c r="J19" s="22" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="M19" s="23" t="str">
-        <f t="array" ref="M19">IF(L19="Y",MAX(IF(WnSAssignmentHarbourCruise=$A19,TaskRankRequirements)),"")</f>
+      <c r="K19" s="23" t="str">
+        <f t="array" ref="K19">IF(J19="Y",MAX(IF(WnSAssignmentHarbourCruise=$A19,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="8"/>
-      <c r="S19" t="s">
-        <v>490</v>
-      </c>
-      <c r="T19" s="58" t="str">
+      <c r="P19" s="8"/>
+      <c r="Q19" s="58" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U19" s="60" t="str">
+      <c r="R19" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60" t="s">
+      <c r="S19" s="60"/>
+      <c r="T19" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="X19" s="60" t="s">
+      <c r="U19" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="Y19" s="60" t="s">
+      <c r="V19" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="Z19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="60"/>
       <c r="AA19" s="60"/>
       <c r="AB19" s="60"/>
       <c r="AC19" s="60"/>
-      <c r="AD19" s="60"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="60"/>
-      <c r="AG19" s="61"/>
-    </row>
-    <row r="20" spans="1:33">
+      <c r="AD19" s="61"/>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
         <v>470</v>
       </c>
@@ -32254,68 +32074,59 @@
         <v>432</v>
       </c>
       <c r="C20" s="99"/>
-      <c r="D20" t="s">
-        <v>490</v>
-      </c>
-      <c r="E20" s="22" t="str">
+      <c r="D20" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F20" s="23" t="str">
-        <f t="array" ref="F20">IF(E20="Y",MAX(IF(WnSAssignmentMoveShip=A20,TaskRankRequirements)),"")</f>
+      <c r="E20" s="23" t="str">
+        <f t="array" ref="E20">IF(D20="Y",MAX(IF(WnSAssignmentMoveShip=A20,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" t="s">
-        <v>490</v>
-      </c>
-      <c r="L20" s="22" t="str">
+      <c r="I20" s="8"/>
+      <c r="J20" s="22" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="M20" s="23" t="str">
-        <f t="array" ref="M20">IF(L20="Y",MAX(IF(WnSAssignmentHarbourCruise=$A20,TaskRankRequirements)),"")</f>
+      <c r="K20" s="23" t="str">
+        <f t="array" ref="K20">IF(J20="Y",MAX(IF(WnSAssignmentHarbourCruise=$A20,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="8"/>
-      <c r="S20" t="s">
-        <v>490</v>
-      </c>
-      <c r="T20" s="58" t="str">
+      <c r="P20" s="8"/>
+      <c r="Q20" s="58" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U20" s="60" t="str">
+      <c r="R20" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60" t="s">
+      <c r="S20" s="60"/>
+      <c r="T20" s="60" t="s">
         <v>445</v>
       </c>
-      <c r="X20" s="60" t="s">
+      <c r="U20" s="60" t="s">
         <v>445</v>
       </c>
-      <c r="Y20" s="60" t="s">
+      <c r="V20" s="60" t="s">
         <v>456</v>
       </c>
-      <c r="Z20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="60"/>
       <c r="AA20" s="60"/>
       <c r="AB20" s="60"/>
       <c r="AC20" s="60"/>
-      <c r="AD20" s="60"/>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="60"/>
-      <c r="AG20" s="61"/>
-    </row>
-    <row r="21" spans="1:33">
+      <c r="AD20" s="61"/>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
         <v>471</v>
       </c>
@@ -32323,68 +32134,59 @@
         <v>432</v>
       </c>
       <c r="C21" s="99"/>
-      <c r="D21" t="s">
-        <v>490</v>
-      </c>
-      <c r="E21" s="22" t="str">
+      <c r="D21" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F21" s="23" t="str">
-        <f t="array" ref="F21">IF(E21="Y",MAX(IF(WnSAssignmentMoveShip=A21,TaskRankRequirements)),"")</f>
+      <c r="E21" s="23" t="str">
+        <f t="array" ref="E21">IF(D21="Y",MAX(IF(WnSAssignmentMoveShip=A21,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="K21" t="s">
-        <v>490</v>
-      </c>
-      <c r="L21" s="22" t="str">
+      <c r="I21" s="8"/>
+      <c r="J21" s="22" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="M21" s="23" t="str">
-        <f t="array" ref="M21">IF(L21="Y",MAX(IF(WnSAssignmentHarbourCruise=$A21,TaskRankRequirements)),"")</f>
+      <c r="K21" s="23" t="str">
+        <f t="array" ref="K21">IF(J21="Y",MAX(IF(WnSAssignmentHarbourCruise=$A21,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="8"/>
-      <c r="S21" t="s">
-        <v>490</v>
-      </c>
-      <c r="T21" s="58" t="str">
+      <c r="P21" s="8"/>
+      <c r="Q21" s="58" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U21" s="60" t="str">
+      <c r="R21" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60" t="s">
+      <c r="S21" s="60"/>
+      <c r="T21" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="X21" s="60" t="s">
+      <c r="U21" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="Y21" s="60" t="s">
+      <c r="V21" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="Z21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
       <c r="AA21" s="60"/>
       <c r="AB21" s="60"/>
       <c r="AC21" s="60"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="61"/>
-    </row>
-    <row r="22" spans="1:33">
+      <c r="AD21" s="61"/>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
         <v>459</v>
       </c>
@@ -32392,62 +32194,53 @@
         <v>432</v>
       </c>
       <c r="C22" s="79"/>
-      <c r="D22" t="s">
-        <v>490</v>
-      </c>
-      <c r="E22" s="22" t="str">
+      <c r="D22" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F22" s="23" t="str">
-        <f t="array" ref="F22">IF(E22="Y",MAX(IF(WnSAssignmentMoveShip=A22,TaskRankRequirements)),"")</f>
+      <c r="E22" s="23" t="str">
+        <f t="array" ref="E22">IF(D22="Y",MAX(IF(WnSAssignmentMoveShip=A22,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
-      <c r="K22" t="s">
-        <v>490</v>
-      </c>
-      <c r="L22" s="26" t="str">
+      <c r="I22" s="8"/>
+      <c r="J22" s="26" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="M22" s="24" t="str">
-        <f t="array" ref="M22">IF(L22="Y",MAX(IF(WnSAssignmentHarbourCruise=$A22,TaskRankRequirements)),"")</f>
+      <c r="K22" s="24" t="str">
+        <f t="array" ref="K22">IF(J22="Y",MAX(IF(WnSAssignmentHarbourCruise=$A22,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
       <c r="N22" s="39"/>
       <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="66"/>
-      <c r="S22" t="s">
-        <v>490</v>
-      </c>
-      <c r="T22" s="26" t="str">
+      <c r="P22" s="66"/>
+      <c r="Q22" s="26" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U22" s="39" t="str">
+      <c r="R22" s="39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
       <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
       <c r="AA22" s="56"/>
       <c r="AB22" s="56"/>
       <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="57"/>
-    </row>
-    <row r="23" spans="1:33">
+      <c r="AD22" s="57"/>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
         <v>459</v>
       </c>
@@ -32455,62 +32248,53 @@
         <v>432</v>
       </c>
       <c r="C23" s="79"/>
-      <c r="D23" t="s">
-        <v>490</v>
-      </c>
-      <c r="E23" s="22" t="str">
+      <c r="D23" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F23" s="23" t="str">
-        <f t="array" ref="F23">IF(E23="Y",MAX(IF(WnSAssignmentMoveShip=A23,TaskRankRequirements)),"")</f>
+      <c r="E23" s="23" t="str">
+        <f t="array" ref="E23">IF(D23="Y",MAX(IF(WnSAssignmentMoveShip=A23,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
-      <c r="K23" t="s">
-        <v>490</v>
-      </c>
-      <c r="L23" s="26" t="str">
+      <c r="I23" s="8"/>
+      <c r="J23" s="26" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="M23" s="24" t="str">
-        <f t="array" ref="M23">IF(L23="Y",MAX(IF(WnSAssignmentHarbourCruise=$A23,TaskRankRequirements)),"")</f>
+      <c r="K23" s="24" t="str">
+        <f t="array" ref="K23">IF(J23="Y",MAX(IF(WnSAssignmentHarbourCruise=$A23,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
       <c r="N23" s="39"/>
       <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="66"/>
-      <c r="S23" t="s">
-        <v>490</v>
-      </c>
-      <c r="T23" s="26" t="str">
+      <c r="P23" s="66"/>
+      <c r="Q23" s="26" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U23" s="39" t="str">
+      <c r="R23" s="39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
       <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
       <c r="AA23" s="56"/>
       <c r="AB23" s="56"/>
       <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="56"/>
-      <c r="AF23" s="56"/>
-      <c r="AG23" s="57"/>
-    </row>
-    <row r="24" spans="1:33">
+      <c r="AD23" s="57"/>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
         <v>459</v>
       </c>
@@ -32518,62 +32302,53 @@
         <v>432</v>
       </c>
       <c r="C24" s="80"/>
-      <c r="D24" t="s">
-        <v>490</v>
-      </c>
-      <c r="E24" s="22" t="str">
+      <c r="D24" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F24" s="23" t="str">
-        <f t="array" ref="F24">IF(E24="Y",MAX(IF(WnSAssignmentMoveShip=A24,TaskRankRequirements)),"")</f>
+      <c r="E24" s="23" t="str">
+        <f t="array" ref="E24">IF(D24="Y",MAX(IF(WnSAssignmentMoveShip=A24,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
-      <c r="K24" t="s">
-        <v>490</v>
-      </c>
-      <c r="L24" s="22" t="str">
+      <c r="I24" s="8"/>
+      <c r="J24" s="22" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="M24" s="23" t="str">
-        <f t="array" ref="M24">IF(L24="Y",MAX(IF(WnSAssignmentHarbourCruise=$A24,TaskRankRequirements)),"")</f>
+      <c r="K24" s="23" t="str">
+        <f t="array" ref="K24">IF(J24="Y",MAX(IF(WnSAssignmentHarbourCruise=$A24,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="8"/>
-      <c r="S24" t="s">
-        <v>490</v>
-      </c>
-      <c r="T24" s="22" t="str">
+      <c r="P24" s="8"/>
+      <c r="Q24" s="22" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U24" s="7" t="str">
+      <c r="R24" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
       <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
+      <c r="W24" s="8"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
-      <c r="Z24" s="8"/>
+      <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="8"/>
-    </row>
-    <row r="25" spans="1:33">
+      <c r="AD24" s="8"/>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
         <v>459</v>
       </c>
@@ -32581,62 +32356,53 @@
         <v>432</v>
       </c>
       <c r="C25" s="80"/>
-      <c r="D25" t="s">
-        <v>490</v>
-      </c>
-      <c r="E25" s="22" t="str">
+      <c r="D25" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F25" s="23" t="str">
-        <f t="array" ref="F25">IF(E25="Y",MAX(IF(WnSAssignmentMoveShip=A25,TaskRankRequirements)),"")</f>
+      <c r="E25" s="23" t="str">
+        <f t="array" ref="E25">IF(D25="Y",MAX(IF(WnSAssignmentMoveShip=A25,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
-      <c r="K25" t="s">
-        <v>490</v>
-      </c>
-      <c r="L25" s="22" t="str">
+      <c r="I25" s="8"/>
+      <c r="J25" s="22" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="M25" s="23" t="str">
-        <f t="array" ref="M25">IF(L25="Y",MAX(IF(WnSAssignmentHarbourCruise=$A25,TaskRankRequirements)),"")</f>
+      <c r="K25" s="23" t="str">
+        <f t="array" ref="K25">IF(J25="Y",MAX(IF(WnSAssignmentHarbourCruise=$A25,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="8"/>
-      <c r="S25" t="s">
-        <v>490</v>
-      </c>
-      <c r="T25" s="22" t="str">
+      <c r="P25" s="8"/>
+      <c r="Q25" s="22" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U25" s="7" t="str">
+      <c r="R25" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
       <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
+      <c r="W25" s="8"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="8"/>
+      <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="8"/>
-    </row>
-    <row r="26" spans="1:33">
+      <c r="AD25" s="8"/>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
         <v>472</v>
       </c>
@@ -32644,82 +32410,73 @@
         <v>433</v>
       </c>
       <c r="C26" s="98"/>
-      <c r="D26" t="s">
-        <v>490</v>
-      </c>
-      <c r="E26" s="52" t="str">
+      <c r="D26" s="52" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F26" s="53" t="str">
-        <f t="array" ref="F26">IF(E26="Y",MAX(IF(WnSAssignmentMoveShip=A26,TaskRankRequirements)),"")</f>
+      <c r="E26" s="53" t="str">
+        <f t="array" ref="E26">IF(D26="Y",MAX(IF(WnSAssignmentMoveShip=A26,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F26" s="54" t="s">
+        <v>419</v>
+      </c>
       <c r="G26" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="H26" s="54" t="s">
         <v>398</v>
       </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
-      <c r="K26" t="s">
-        <v>490</v>
-      </c>
-      <c r="L26" s="52" t="str">
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="M26" s="53">
-        <f t="array" ref="M26">IF(L26="Y",MAX(IF(WnSAssignmentHarbourCruise=$A26,TaskRankRequirements)),"")</f>
-        <v>0</v>
-      </c>
+      <c r="K26" s="53">
+        <f t="array" ref="K26">IF(J26="Y",MAX(IF(WnSAssignmentHarbourCruise=$A26,TaskRankRequirements)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="M26" s="54"/>
       <c r="N26" s="54" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="O26" s="54"/>
-      <c r="P26" s="54" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="91"/>
-      <c r="S26" t="s">
-        <v>490</v>
-      </c>
-      <c r="T26" s="52" t="str">
+      <c r="P26" s="91"/>
+      <c r="Q26" s="52" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="U26" s="53">
+      <c r="R26" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="S26" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="T26" s="54" t="s">
+        <v>445</v>
+      </c>
+      <c r="U26" s="54" t="s">
+        <v>398</v>
+      </c>
       <c r="V26" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="W26" s="91"/>
+      <c r="X26" s="54" t="s">
         <v>419</v>
       </c>
-      <c r="W26" s="54" t="s">
-        <v>445</v>
-      </c>
-      <c r="X26" s="54" t="s">
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54" t="s">
         <v>398</v>
       </c>
-      <c r="Y26" s="54" t="s">
-        <v>424</v>
-      </c>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="54" t="s">
-        <v>398</v>
-      </c>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="53"/>
-      <c r="AF26" s="53"/>
-      <c r="AG26" s="91"/>
-    </row>
-    <row r="27" spans="1:33">
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="91"/>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
         <v>473</v>
       </c>
@@ -32727,82 +32484,73 @@
         <v>433</v>
       </c>
       <c r="C27" s="98"/>
-      <c r="D27" t="s">
-        <v>490</v>
-      </c>
-      <c r="E27" s="52" t="str">
+      <c r="D27" s="52" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F27" s="53" t="str">
-        <f t="array" ref="F27">IF(E27="Y",MAX(IF(WnSAssignmentMoveShip=A27,TaskRankRequirements)),"")</f>
+      <c r="E27" s="53" t="str">
+        <f t="array" ref="E27">IF(D27="Y",MAX(IF(WnSAssignmentMoveShip=A27,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F27" s="54" t="s">
+        <v>419</v>
+      </c>
       <c r="G27" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="H27" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="I27" s="54"/>
-      <c r="J27" s="55"/>
-      <c r="K27" t="s">
-        <v>490</v>
-      </c>
-      <c r="L27" s="52" t="str">
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="M27" s="53">
-        <f t="array" ref="M27">IF(L27="Y",MAX(IF(WnSAssignmentHarbourCruise=$A27,TaskRankRequirements)),"")</f>
-        <v>0</v>
-      </c>
+      <c r="K27" s="53">
+        <f t="array" ref="K27">IF(J27="Y",MAX(IF(WnSAssignmentHarbourCruise=$A27,TaskRankRequirements)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="M27" s="54"/>
       <c r="N27" s="54" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="O27" s="54"/>
-      <c r="P27" s="54" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="91"/>
-      <c r="S27" t="s">
-        <v>490</v>
-      </c>
-      <c r="T27" s="52" t="str">
+      <c r="P27" s="91"/>
+      <c r="Q27" s="52" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="U27" s="53">
+      <c r="R27" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="S27" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="T27" s="54" t="s">
+        <v>446</v>
+      </c>
+      <c r="U27" s="54" t="s">
+        <v>399</v>
+      </c>
       <c r="V27" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="W27" s="91"/>
+      <c r="X27" s="54" t="s">
         <v>419</v>
       </c>
-      <c r="W27" s="54" t="s">
-        <v>446</v>
-      </c>
-      <c r="X27" s="54" t="s">
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="Y27" s="54" t="s">
-        <v>424</v>
-      </c>
-      <c r="Z27" s="91"/>
-      <c r="AA27" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="54" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="53"/>
-      <c r="AF27" s="53"/>
-      <c r="AG27" s="91"/>
-    </row>
-    <row r="28" spans="1:33">
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="91"/>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
         <v>474</v>
       </c>
@@ -32810,82 +32558,73 @@
         <v>433</v>
       </c>
       <c r="C28" s="98"/>
-      <c r="D28" t="s">
-        <v>490</v>
-      </c>
-      <c r="E28" s="52" t="str">
+      <c r="D28" s="52" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F28" s="53" t="str">
-        <f t="array" ref="F28">IF(E28="Y",MAX(IF(WnSAssignmentMoveShip=A28,TaskRankRequirements)),"")</f>
+      <c r="E28" s="53" t="str">
+        <f t="array" ref="E28">IF(D28="Y",MAX(IF(WnSAssignmentMoveShip=A28,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F28" s="54" t="s">
+        <v>418</v>
+      </c>
       <c r="G28" s="54" t="s">
-        <v>418</v>
-      </c>
-      <c r="H28" s="54" t="s">
         <v>400</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
-      <c r="K28" t="s">
-        <v>490</v>
-      </c>
-      <c r="L28" s="52" t="str">
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="M28" s="53">
-        <f t="array" ref="M28">IF(L28="Y",MAX(IF(WnSAssignmentHarbourCruise=$A28,TaskRankRequirements)),"")</f>
-        <v>0</v>
-      </c>
+      <c r="K28" s="53">
+        <f t="array" ref="K28">IF(J28="Y",MAX(IF(WnSAssignmentHarbourCruise=$A28,TaskRankRequirements)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="M28" s="54"/>
       <c r="N28" s="54" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="O28" s="54"/>
-      <c r="P28" s="54" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="91"/>
-      <c r="S28" t="s">
-        <v>490</v>
-      </c>
-      <c r="T28" s="52" t="str">
+      <c r="P28" s="91"/>
+      <c r="Q28" s="52" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="U28" s="53">
+      <c r="R28" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="S28" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="T28" s="54" t="s">
+        <v>445</v>
+      </c>
+      <c r="U28" s="54" t="s">
+        <v>400</v>
+      </c>
       <c r="V28" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="W28" s="91"/>
+      <c r="X28" s="54" t="s">
         <v>418</v>
       </c>
-      <c r="W28" s="54" t="s">
-        <v>445</v>
-      </c>
-      <c r="X28" s="54" t="s">
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="54" t="s">
         <v>400</v>
       </c>
-      <c r="Y28" s="54" t="s">
-        <v>424</v>
-      </c>
-      <c r="Z28" s="91"/>
-      <c r="AA28" s="54" t="s">
-        <v>418</v>
-      </c>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="54" t="s">
-        <v>400</v>
-      </c>
-      <c r="AD28" s="54"/>
-      <c r="AE28" s="53"/>
-      <c r="AF28" s="53"/>
-      <c r="AG28" s="91"/>
-    </row>
-    <row r="29" spans="1:33">
+      <c r="AA28" s="54"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="91"/>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
         <v>475</v>
       </c>
@@ -32893,82 +32632,73 @@
         <v>433</v>
       </c>
       <c r="C29" s="98"/>
-      <c r="D29" t="s">
-        <v>490</v>
-      </c>
-      <c r="E29" s="52" t="str">
+      <c r="D29" s="52" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F29" s="53" t="str">
-        <f t="array" ref="F29">IF(E29="Y",MAX(IF(WnSAssignmentMoveShip=A29,TaskRankRequirements)),"")</f>
+      <c r="E29" s="53" t="str">
+        <f t="array" ref="E29">IF(D29="Y",MAX(IF(WnSAssignmentMoveShip=A29,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F29" s="54" t="s">
+        <v>418</v>
+      </c>
       <c r="G29" s="54" t="s">
-        <v>418</v>
-      </c>
-      <c r="H29" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="I29" s="54"/>
-      <c r="J29" s="55"/>
-      <c r="K29" t="s">
-        <v>490</v>
-      </c>
-      <c r="L29" s="52" t="str">
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="M29" s="53">
-        <f t="array" ref="M29">IF(L29="Y",MAX(IF(WnSAssignmentHarbourCruise=$A29,TaskRankRequirements)),"")</f>
-        <v>0</v>
-      </c>
+      <c r="K29" s="53">
+        <f t="array" ref="K29">IF(J29="Y",MAX(IF(WnSAssignmentHarbourCruise=$A29,TaskRankRequirements)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="M29" s="54"/>
       <c r="N29" s="54" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="O29" s="54"/>
-      <c r="P29" s="54" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="91"/>
-      <c r="S29" t="s">
-        <v>490</v>
-      </c>
-      <c r="T29" s="52" t="str">
+      <c r="P29" s="91"/>
+      <c r="Q29" s="52" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="U29" s="53">
+      <c r="R29" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="S29" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="T29" s="54" t="s">
+        <v>446</v>
+      </c>
+      <c r="U29" s="54" t="s">
+        <v>401</v>
+      </c>
       <c r="V29" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="W29" s="91"/>
+      <c r="X29" s="54" t="s">
         <v>418</v>
       </c>
-      <c r="W29" s="54" t="s">
-        <v>446</v>
-      </c>
-      <c r="X29" s="54" t="s">
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="Y29" s="54" t="s">
-        <v>424</v>
-      </c>
-      <c r="Z29" s="91"/>
-      <c r="AA29" s="54" t="s">
-        <v>418</v>
-      </c>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="54" t="s">
-        <v>401</v>
-      </c>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="53"/>
-      <c r="AF29" s="53"/>
-      <c r="AG29" s="91"/>
-    </row>
-    <row r="30" spans="1:33">
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="53"/>
+      <c r="AD29" s="91"/>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
         <v>476</v>
       </c>
@@ -32978,31 +32708,31 @@
       <c r="C30" s="100" t="s">
         <v>369</v>
       </c>
-      <c r="D30" t="s">
-        <v>490</v>
-      </c>
-      <c r="E30" s="22" t="str">
+      <c r="D30" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F30" s="23" t="str">
-        <f t="array" ref="F30">IF(E30="Y",MAX(IF(WnSAssignmentMoveShip=A30,TaskRankRequirements)),"")</f>
+      <c r="E30" s="23" t="str">
+        <f t="array" ref="E30">IF(D30="Y",MAX(IF(WnSAssignmentMoveShip=A30,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="8"/>
-      <c r="K30" t="s">
-        <v>490</v>
-      </c>
-      <c r="L30" s="62" t="str">
+      <c r="I30" s="8"/>
+      <c r="J30" s="62" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="M30" s="63">
-        <f t="array" ref="M30">IF(L30="Y",MAX(IF(WnSAssignmentHarbourCruise=$A30,TaskRankRequirements)),"")</f>
-        <v>1</v>
+      <c r="K30" s="63">
+        <f t="array" ref="K30">IF(J30="Y",MAX(IF(WnSAssignmentHarbourCruise=$A30,TaskRankRequirements)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="L30" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="M30" s="64" t="s">
+        <v>403</v>
       </c>
       <c r="N30" s="64" t="s">
         <v>403</v>
@@ -33010,30 +32740,30 @@
       <c r="O30" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="P30" s="64" t="s">
+      <c r="P30" s="65" t="s">
         <v>403</v>
       </c>
-      <c r="Q30" s="64" t="s">
-        <v>403</v>
-      </c>
-      <c r="R30" s="65" t="s">
-        <v>403</v>
-      </c>
-      <c r="S30" t="s">
-        <v>490</v>
-      </c>
-      <c r="T30" s="62" t="str">
+      <c r="Q30" s="62" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="U30" s="63">
+      <c r="R30" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="S30" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="T30" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="U30" s="64" t="s">
+        <v>403</v>
       </c>
       <c r="V30" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="W30" s="64" t="s">
+      <c r="W30" s="65" t="s">
         <v>403</v>
       </c>
       <c r="X30" s="64" t="s">
@@ -33042,7 +32772,7 @@
       <c r="Y30" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="Z30" s="65" t="s">
+      <c r="Z30" s="64" t="s">
         <v>403</v>
       </c>
       <c r="AA30" s="64" t="s">
@@ -33051,19 +32781,10 @@
       <c r="AB30" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="AC30" s="64" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD30" s="64" t="s">
-        <v>403</v>
-      </c>
-      <c r="AE30" s="64" t="s">
-        <v>403</v>
-      </c>
-      <c r="AF30" s="64"/>
-      <c r="AG30" s="65"/>
-    </row>
-    <row r="31" spans="1:33">
+      <c r="AC30" s="64"/>
+      <c r="AD30" s="65"/>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
         <v>477</v>
       </c>
@@ -33073,74 +32794,65 @@
       <c r="C31" s="100" t="s">
         <v>388</v>
       </c>
-      <c r="D31" t="s">
-        <v>490</v>
-      </c>
-      <c r="E31" s="22" t="str">
+      <c r="D31" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F31" s="23" t="str">
-        <f t="array" ref="F31">IF(E31="Y",MAX(IF(WnSAssignmentMoveShip=A31,TaskRankRequirements)),"")</f>
+      <c r="E31" s="23" t="str">
+        <f t="array" ref="E31">IF(D31="Y",MAX(IF(WnSAssignmentMoveShip=A31,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="8"/>
-      <c r="K31" t="s">
-        <v>490</v>
-      </c>
-      <c r="L31" s="62" t="str">
+      <c r="I31" s="8"/>
+      <c r="J31" s="62" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="M31" s="63">
-        <f t="array" ref="M31">IF(L31="Y",MAX(IF(WnSAssignmentHarbourCruise=$A31,TaskRankRequirements)),"")</f>
+      <c r="K31" s="63">
+        <f t="array" ref="K31">IF(J31="Y",MAX(IF(WnSAssignmentHarbourCruise=$A31,TaskRankRequirements)),"")</f>
         <v>3</v>
       </c>
-      <c r="N31" s="64" t="s">
+      <c r="L31" s="64" t="s">
         <v>419</v>
       </c>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
       <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="65"/>
-      <c r="S31" t="s">
-        <v>490</v>
-      </c>
-      <c r="T31" s="62" t="str">
+      <c r="P31" s="65"/>
+      <c r="Q31" s="62" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="U31" s="63">
+      <c r="R31" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="S31" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="T31" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="U31" s="64" t="s">
+        <v>445</v>
+      </c>
       <c r="V31" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="W31" s="65"/>
+      <c r="X31" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="W31" s="64" t="s">
-        <v>445</v>
-      </c>
-      <c r="X31" s="64" t="s">
-        <v>445</v>
-      </c>
-      <c r="Y31" s="64" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="64" t="s">
-        <v>419</v>
-      </c>
+      <c r="Y31" s="64"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
       <c r="AB31" s="64"/>
       <c r="AC31" s="64"/>
-      <c r="AD31" s="64"/>
-      <c r="AE31" s="64"/>
-      <c r="AF31" s="64"/>
-      <c r="AG31" s="65"/>
-    </row>
-    <row r="32" spans="1:33">
+      <c r="AD31" s="65"/>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
         <v>478</v>
       </c>
@@ -33148,74 +32860,65 @@
         <v>434</v>
       </c>
       <c r="C32" s="100"/>
-      <c r="D32" t="s">
-        <v>490</v>
-      </c>
-      <c r="E32" s="22" t="str">
+      <c r="D32" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F32" s="23" t="str">
-        <f t="array" ref="F32">IF(E32="Y",MAX(IF(WnSAssignmentMoveShip=A32,TaskRankRequirements)),"")</f>
+      <c r="E32" s="23" t="str">
+        <f t="array" ref="E32">IF(D32="Y",MAX(IF(WnSAssignmentMoveShip=A32,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8"/>
-      <c r="K32" t="s">
-        <v>490</v>
-      </c>
-      <c r="L32" s="62" t="str">
+      <c r="I32" s="8"/>
+      <c r="J32" s="62" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="M32" s="63">
-        <f t="array" ref="M32">IF(L32="Y",MAX(IF(WnSAssignmentHarbourCruise=$A32,TaskRankRequirements)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="64" t="s">
+      <c r="K32" s="63">
+        <f t="array" ref="K32">IF(J32="Y",MAX(IF(WnSAssignmentHarbourCruise=$A32,TaskRankRequirements)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="64" t="s">
         <v>418</v>
       </c>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
       <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="65"/>
-      <c r="S32" t="s">
-        <v>490</v>
-      </c>
-      <c r="T32" s="62" t="str">
+      <c r="P32" s="65"/>
+      <c r="Q32" s="62" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="U32" s="63">
+      <c r="R32" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="S32" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="T32" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="U32" s="64" t="s">
+        <v>446</v>
+      </c>
       <c r="V32" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="W32" s="65"/>
+      <c r="X32" s="64" t="s">
         <v>418</v>
       </c>
-      <c r="W32" s="64" t="s">
-        <v>446</v>
-      </c>
-      <c r="X32" s="64" t="s">
-        <v>446</v>
-      </c>
-      <c r="Y32" s="64" t="s">
-        <v>446</v>
-      </c>
-      <c r="Z32" s="65"/>
-      <c r="AA32" s="64" t="s">
-        <v>418</v>
-      </c>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="64"/>
       <c r="AB32" s="64"/>
       <c r="AC32" s="64"/>
-      <c r="AD32" s="64"/>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="65"/>
-    </row>
-    <row r="33" spans="1:33">
+      <c r="AD32" s="65"/>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
         <v>370</v>
       </c>
@@ -33223,74 +32926,65 @@
         <v>434</v>
       </c>
       <c r="C33" s="100"/>
-      <c r="D33" t="s">
-        <v>490</v>
-      </c>
-      <c r="E33" s="22" t="str">
+      <c r="D33" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F33" s="23" t="str">
-        <f t="array" ref="F33">IF(E33="Y",MAX(IF(WnSAssignmentMoveShip=A33,TaskRankRequirements)),"")</f>
+      <c r="E33" s="23" t="str">
+        <f t="array" ref="E33">IF(D33="Y",MAX(IF(WnSAssignmentMoveShip=A33,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="8"/>
-      <c r="K33" t="s">
-        <v>490</v>
-      </c>
-      <c r="L33" s="62" t="str">
+      <c r="I33" s="8"/>
+      <c r="J33" s="62" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="M33" s="63">
-        <f t="array" ref="M33">IF(L33="Y",MAX(IF(WnSAssignmentHarbourCruise=$A33,TaskRankRequirements)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="64" t="s">
+      <c r="K33" s="63">
+        <f t="array" ref="K33">IF(J33="Y",MAX(IF(WnSAssignmentHarbourCruise=$A33,TaskRankRequirements)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="64" t="s">
         <v>414</v>
       </c>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
       <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="65"/>
-      <c r="S33" t="s">
-        <v>490</v>
-      </c>
-      <c r="T33" s="62" t="str">
+      <c r="P33" s="65"/>
+      <c r="Q33" s="62" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="U33" s="63">
+      <c r="R33" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="S33" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="T33" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="U33" s="64" t="s">
+        <v>445</v>
+      </c>
       <c r="V33" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="W33" s="65"/>
+      <c r="X33" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="W33" s="64" t="s">
-        <v>445</v>
-      </c>
-      <c r="X33" s="64" t="s">
-        <v>445</v>
-      </c>
-      <c r="Y33" s="64" t="s">
-        <v>445</v>
-      </c>
-      <c r="Z33" s="65"/>
-      <c r="AA33" s="64" t="s">
-        <v>414</v>
-      </c>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="64"/>
       <c r="AB33" s="64"/>
       <c r="AC33" s="64"/>
-      <c r="AD33" s="64"/>
-      <c r="AE33" s="64"/>
-      <c r="AF33" s="64"/>
-      <c r="AG33" s="65"/>
-    </row>
-    <row r="34" spans="1:33">
+      <c r="AD33" s="65"/>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
         <v>479</v>
       </c>
@@ -33298,74 +32992,65 @@
         <v>434</v>
       </c>
       <c r="C34" s="100"/>
-      <c r="D34" t="s">
-        <v>490</v>
-      </c>
-      <c r="E34" s="22" t="str">
+      <c r="D34" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F34" s="23" t="str">
-        <f t="array" ref="F34">IF(E34="Y",MAX(IF(WnSAssignmentMoveShip=A34,TaskRankRequirements)),"")</f>
+      <c r="E34" s="23" t="str">
+        <f t="array" ref="E34">IF(D34="Y",MAX(IF(WnSAssignmentMoveShip=A34,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="8"/>
-      <c r="K34" t="s">
-        <v>490</v>
-      </c>
-      <c r="L34" s="62" t="str">
+      <c r="I34" s="8"/>
+      <c r="J34" s="62" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="M34" s="63">
-        <f t="array" ref="M34">IF(L34="Y",MAX(IF(WnSAssignmentHarbourCruise=$A34,TaskRankRequirements)),"")</f>
-        <v>1</v>
-      </c>
-      <c r="N34" s="64" t="s">
+      <c r="K34" s="63">
+        <f t="array" ref="K34">IF(J34="Y",MAX(IF(WnSAssignmentHarbourCruise=$A34,TaskRankRequirements)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="L34" s="64" t="s">
         <v>414</v>
       </c>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
       <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="65"/>
-      <c r="S34" t="s">
-        <v>490</v>
-      </c>
-      <c r="T34" s="62" t="str">
+      <c r="P34" s="65"/>
+      <c r="Q34" s="62" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="U34" s="63">
+      <c r="R34" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="S34" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="T34" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="U34" s="64" t="s">
+        <v>446</v>
+      </c>
       <c r="V34" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="W34" s="65"/>
+      <c r="X34" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="W34" s="64" t="s">
-        <v>446</v>
-      </c>
-      <c r="X34" s="64" t="s">
-        <v>446</v>
-      </c>
-      <c r="Y34" s="64" t="s">
-        <v>446</v>
-      </c>
-      <c r="Z34" s="65"/>
-      <c r="AA34" s="64" t="s">
-        <v>414</v>
-      </c>
+      <c r="Y34" s="64"/>
+      <c r="Z34" s="64"/>
+      <c r="AA34" s="64"/>
       <c r="AB34" s="64"/>
       <c r="AC34" s="64"/>
-      <c r="AD34" s="64"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="65"/>
-    </row>
-    <row r="35" spans="1:33">
+      <c r="AD34" s="65"/>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
         <v>371</v>
       </c>
@@ -33375,31 +33060,31 @@
       <c r="C35" s="100" t="s">
         <v>374</v>
       </c>
-      <c r="D35" t="s">
-        <v>490</v>
-      </c>
-      <c r="E35" s="22" t="str">
+      <c r="D35" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F35" s="23" t="str">
-        <f t="array" ref="F35">IF(E35="Y",MAX(IF(WnSAssignmentMoveShip=A35,TaskRankRequirements)),"")</f>
+      <c r="E35" s="23" t="str">
+        <f t="array" ref="E35">IF(D35="Y",MAX(IF(WnSAssignmentMoveShip=A35,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="8"/>
-      <c r="K35" t="s">
-        <v>490</v>
-      </c>
-      <c r="L35" s="62" t="str">
+      <c r="I35" s="8"/>
+      <c r="J35" s="62" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="M35" s="63">
-        <f t="array" ref="M35">IF(L35="Y",MAX(IF(WnSAssignmentHarbourCruise=$A35,TaskRankRequirements)),"")</f>
-        <v>1</v>
+      <c r="K35" s="63">
+        <f t="array" ref="K35">IF(J35="Y",MAX(IF(WnSAssignmentHarbourCruise=$A35,TaskRankRequirements)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="L35" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="M35" s="64" t="s">
+        <v>374</v>
       </c>
       <c r="N35" s="64" t="s">
         <v>374</v>
@@ -33407,54 +33092,45 @@
       <c r="O35" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="P35" s="64" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q35" s="64" t="s">
-        <v>374</v>
-      </c>
-      <c r="R35" s="65"/>
-      <c r="S35" t="s">
-        <v>490</v>
-      </c>
-      <c r="T35" s="62" t="str">
+      <c r="P35" s="65"/>
+      <c r="Q35" s="62" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="U35" s="63">
+      <c r="R35" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="S35" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="T35" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="U35" s="64" t="s">
+        <v>374</v>
       </c>
       <c r="V35" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="W35" s="64" t="s">
-        <v>374</v>
-      </c>
+      <c r="W35" s="65"/>
       <c r="X35" s="64" t="s">
         <v>374</v>
       </c>
       <c r="Y35" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="Z35" s="65"/>
+      <c r="Z35" s="64" t="s">
+        <v>374</v>
+      </c>
       <c r="AA35" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="AB35" s="64" t="s">
-        <v>374</v>
-      </c>
-      <c r="AC35" s="64" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD35" s="64" t="s">
-        <v>374</v>
-      </c>
-      <c r="AE35" s="64"/>
-      <c r="AF35" s="64"/>
-      <c r="AG35" s="65"/>
-    </row>
-    <row r="36" spans="1:33">
+      <c r="AB35" s="64"/>
+      <c r="AC35" s="64"/>
+      <c r="AD35" s="65"/>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
         <v>372</v>
       </c>
@@ -33462,68 +33138,59 @@
         <v>434</v>
       </c>
       <c r="C36" s="99"/>
-      <c r="D36" t="s">
-        <v>490</v>
-      </c>
-      <c r="E36" s="22" t="str">
+      <c r="D36" s="22" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F36" s="23" t="str">
-        <f t="array" ref="F36">IF(E36="Y",MAX(IF(WnSAssignmentMoveShip=A36,TaskRankRequirements)),"")</f>
+      <c r="E36" s="23" t="str">
+        <f t="array" ref="E36">IF(D36="Y",MAX(IF(WnSAssignmentMoveShip=A36,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="8"/>
-      <c r="K36" t="s">
-        <v>490</v>
-      </c>
-      <c r="L36" s="22" t="str">
+      <c r="I36" s="8"/>
+      <c r="J36" s="22" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="M36" s="23" t="str">
-        <f t="array" ref="M36">IF(L36="Y",MAX(IF(WnSAssignmentHarbourCruise=$A36,TaskRankRequirements)),"")</f>
+      <c r="K36" s="23" t="str">
+        <f t="array" ref="K36">IF(J36="Y",MAX(IF(WnSAssignmentHarbourCruise=$A36,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="8"/>
-      <c r="S36" t="s">
-        <v>490</v>
-      </c>
-      <c r="T36" s="58" t="str">
+      <c r="P36" s="8"/>
+      <c r="Q36" s="58" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U36" s="60" t="str">
+      <c r="R36" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60" t="s">
+      <c r="S36" s="60"/>
+      <c r="T36" s="60" t="s">
         <v>445</v>
       </c>
-      <c r="X36" s="60" t="s">
+      <c r="U36" s="60" t="s">
         <v>445</v>
       </c>
-      <c r="Y36" s="60" t="s">
+      <c r="V36" s="60" t="s">
         <v>445</v>
       </c>
-      <c r="Z36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
       <c r="AA36" s="60"/>
       <c r="AB36" s="60"/>
       <c r="AC36" s="60"/>
-      <c r="AD36" s="60"/>
-      <c r="AE36" s="60"/>
-      <c r="AF36" s="60"/>
-      <c r="AG36" s="61"/>
-    </row>
-    <row r="37" spans="1:33">
+      <c r="AD36" s="61"/>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
         <v>359</v>
       </c>
@@ -33531,68 +33198,59 @@
         <v>434</v>
       </c>
       <c r="C37" s="99"/>
-      <c r="D37" t="s">
-        <v>490</v>
-      </c>
-      <c r="E37" s="22" t="str">
-        <f t="shared" ref="E37:E67" si="4">IF(COUNTIF(WnSAssignmentMoveShip,$A37)&gt;0,"Y","-")</f>
+      <c r="D37" s="22" t="str">
+        <f t="shared" ref="D37:D67" si="4">IF(COUNTIF(WnSAssignmentMoveShip,$A37)&gt;0,"Y","-")</f>
         <v>-</v>
       </c>
-      <c r="F37" s="23" t="str">
-        <f t="array" ref="F37">IF(E37="Y",MAX(IF(WnSAssignmentMoveShip=A37,TaskRankRequirements)),"")</f>
+      <c r="E37" s="23" t="str">
+        <f t="array" ref="E37">IF(D37="Y",MAX(IF(WnSAssignmentMoveShip=A37,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="8"/>
-      <c r="K37" t="s">
-        <v>490</v>
-      </c>
-      <c r="L37" s="22" t="str">
-        <f t="shared" ref="L37:L67" si="5">IF(COUNTIF(WnSAssignmentHarbourCruise,$A37)&gt;0,"Y","-")</f>
+      <c r="I37" s="8"/>
+      <c r="J37" s="22" t="str">
+        <f t="shared" ref="J37:J67" si="5">IF(COUNTIF(WnSAssignmentHarbourCruise,$A37)&gt;0,"Y","-")</f>
         <v>-</v>
       </c>
-      <c r="M37" s="23" t="str">
-        <f t="array" ref="M37">IF(L37="Y",MAX(IF(WnSAssignmentHarbourCruise=$A37,TaskRankRequirements)),"")</f>
+      <c r="K37" s="23" t="str">
+        <f t="array" ref="K37">IF(J37="Y",MAX(IF(WnSAssignmentHarbourCruise=$A37,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="8"/>
-      <c r="S37" t="s">
-        <v>490</v>
-      </c>
-      <c r="T37" s="58" t="str">
-        <f t="shared" ref="T37:T67" si="6">IF(COUNTIF(WnSAssignmentDaySail,$A37)&gt;0,"Y","-")</f>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="58" t="str">
+        <f t="shared" ref="Q37:Q67" si="6">IF(COUNTIF(WnSAssignmentDaySail,$A37)&gt;0,"Y","-")</f>
         <v>-</v>
       </c>
-      <c r="U37" s="60" t="str">
+      <c r="R37" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V37" s="60"/>
-      <c r="W37" s="60" t="s">
+      <c r="S37" s="60"/>
+      <c r="T37" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="X37" s="60" t="s">
+      <c r="U37" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="Y37" s="60" t="s">
+      <c r="V37" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="Z37" s="61"/>
+      <c r="W37" s="61"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
       <c r="AA37" s="60"/>
       <c r="AB37" s="60"/>
       <c r="AC37" s="60"/>
-      <c r="AD37" s="60"/>
-      <c r="AE37" s="60"/>
-      <c r="AF37" s="60"/>
-      <c r="AG37" s="61"/>
-    </row>
-    <row r="38" spans="1:33">
+      <c r="AD37" s="61"/>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
         <v>373</v>
       </c>
@@ -33600,68 +33258,59 @@
         <v>434</v>
       </c>
       <c r="C38" s="99"/>
-      <c r="D38" t="s">
-        <v>490</v>
-      </c>
-      <c r="E38" s="22" t="str">
+      <c r="D38" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="F38" s="23" t="str">
-        <f t="array" ref="F38">IF(E38="Y",MAX(IF(WnSAssignmentMoveShip=A38,TaskRankRequirements)),"")</f>
+      <c r="E38" s="23" t="str">
+        <f t="array" ref="E38">IF(D38="Y",MAX(IF(WnSAssignmentMoveShip=A38,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="8"/>
-      <c r="K38" t="s">
-        <v>490</v>
-      </c>
-      <c r="L38" s="22" t="str">
+      <c r="I38" s="8"/>
+      <c r="J38" s="22" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M38" s="23" t="str">
-        <f t="array" ref="M38">IF(L38="Y",MAX(IF(WnSAssignmentHarbourCruise=$A38,TaskRankRequirements)),"")</f>
+      <c r="K38" s="23" t="str">
+        <f t="array" ref="K38">IF(J38="Y",MAX(IF(WnSAssignmentHarbourCruise=$A38,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="8"/>
-      <c r="S38" t="s">
-        <v>490</v>
-      </c>
-      <c r="T38" s="58" t="str">
+      <c r="P38" s="8"/>
+      <c r="Q38" s="58" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U38" s="60" t="str">
+      <c r="R38" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V38" s="60"/>
-      <c r="W38" s="60" t="s">
+      <c r="S38" s="60"/>
+      <c r="T38" s="60" t="s">
         <v>445</v>
       </c>
-      <c r="X38" s="60" t="s">
+      <c r="U38" s="60" t="s">
         <v>445</v>
       </c>
-      <c r="Y38" s="60" t="s">
+      <c r="V38" s="60" t="s">
         <v>445</v>
       </c>
-      <c r="Z38" s="61"/>
+      <c r="W38" s="61"/>
+      <c r="X38" s="60"/>
+      <c r="Y38" s="60"/>
+      <c r="Z38" s="60"/>
       <c r="AA38" s="60"/>
       <c r="AB38" s="60"/>
       <c r="AC38" s="60"/>
-      <c r="AD38" s="60"/>
-      <c r="AE38" s="60"/>
-      <c r="AF38" s="60"/>
-      <c r="AG38" s="61"/>
-    </row>
-    <row r="39" spans="1:33">
+      <c r="AD38" s="61"/>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
         <v>360</v>
       </c>
@@ -33669,68 +33318,59 @@
         <v>434</v>
       </c>
       <c r="C39" s="99"/>
-      <c r="D39" t="s">
-        <v>490</v>
-      </c>
-      <c r="E39" s="22" t="str">
+      <c r="D39" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="F39" s="23" t="str">
-        <f t="array" ref="F39">IF(E39="Y",MAX(IF(WnSAssignmentMoveShip=A39,TaskRankRequirements)),"")</f>
+      <c r="E39" s="23" t="str">
+        <f t="array" ref="E39">IF(D39="Y",MAX(IF(WnSAssignmentMoveShip=A39,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="8"/>
-      <c r="K39" t="s">
-        <v>490</v>
-      </c>
-      <c r="L39" s="22" t="str">
+      <c r="I39" s="8"/>
+      <c r="J39" s="22" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M39" s="23" t="str">
-        <f t="array" ref="M39">IF(L39="Y",MAX(IF(WnSAssignmentHarbourCruise=$A39,TaskRankRequirements)),"")</f>
+      <c r="K39" s="23" t="str">
+        <f t="array" ref="K39">IF(J39="Y",MAX(IF(WnSAssignmentHarbourCruise=$A39,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="8"/>
-      <c r="S39" t="s">
-        <v>490</v>
-      </c>
-      <c r="T39" s="58" t="str">
+      <c r="P39" s="8"/>
+      <c r="Q39" s="58" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U39" s="60" t="str">
+      <c r="R39" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V39" s="60"/>
-      <c r="W39" s="60" t="s">
+      <c r="S39" s="60"/>
+      <c r="T39" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="X39" s="60" t="s">
+      <c r="U39" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="Y39" s="60" t="s">
+      <c r="V39" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="Z39" s="61"/>
+      <c r="W39" s="61"/>
+      <c r="X39" s="60"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="60"/>
       <c r="AA39" s="60"/>
       <c r="AB39" s="60"/>
       <c r="AC39" s="60"/>
-      <c r="AD39" s="60"/>
-      <c r="AE39" s="60"/>
-      <c r="AF39" s="60"/>
-      <c r="AG39" s="61"/>
-    </row>
-    <row r="40" spans="1:33">
+      <c r="AD39" s="61"/>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
         <v>459</v>
       </c>
@@ -33738,62 +33378,53 @@
         <v>434</v>
       </c>
       <c r="C40" s="79"/>
-      <c r="D40" t="s">
-        <v>490</v>
-      </c>
-      <c r="E40" s="22" t="str">
+      <c r="D40" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="F40" s="23" t="str">
-        <f t="array" ref="F40">IF(E40="Y",MAX(IF(WnSAssignmentMoveShip=A40,TaskRankRequirements)),"")</f>
+      <c r="E40" s="23" t="str">
+        <f t="array" ref="E40">IF(D40="Y",MAX(IF(WnSAssignmentMoveShip=A40,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="8"/>
-      <c r="K40" t="s">
-        <v>490</v>
-      </c>
-      <c r="L40" s="26" t="str">
+      <c r="I40" s="8"/>
+      <c r="J40" s="26" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M40" s="24" t="str">
-        <f t="array" ref="M40">IF(L40="Y",MAX(IF(WnSAssignmentHarbourCruise=$A40,TaskRankRequirements)),"")</f>
+      <c r="K40" s="24" t="str">
+        <f t="array" ref="K40">IF(J40="Y",MAX(IF(WnSAssignmentHarbourCruise=$A40,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
       <c r="N40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="66"/>
-      <c r="S40" t="s">
-        <v>490</v>
-      </c>
-      <c r="T40" s="26" t="str">
+      <c r="P40" s="66"/>
+      <c r="Q40" s="26" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U40" s="39" t="str">
+      <c r="R40" s="39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
       <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="56"/>
       <c r="AA40" s="56"/>
       <c r="AB40" s="56"/>
       <c r="AC40" s="56"/>
-      <c r="AD40" s="56"/>
-      <c r="AE40" s="56"/>
-      <c r="AF40" s="56"/>
-      <c r="AG40" s="57"/>
-    </row>
-    <row r="41" spans="1:33">
+      <c r="AD40" s="57"/>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
         <v>459</v>
       </c>
@@ -33801,62 +33432,53 @@
         <v>434</v>
       </c>
       <c r="C41" s="80"/>
-      <c r="D41" t="s">
-        <v>490</v>
-      </c>
-      <c r="E41" s="22" t="str">
+      <c r="D41" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="F41" s="23" t="str">
-        <f t="array" ref="F41">IF(E41="Y",MAX(IF(WnSAssignmentMoveShip=A41,TaskRankRequirements)),"")</f>
+      <c r="E41" s="23" t="str">
+        <f t="array" ref="E41">IF(D41="Y",MAX(IF(WnSAssignmentMoveShip=A41,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="8"/>
-      <c r="K41" t="s">
-        <v>490</v>
-      </c>
-      <c r="L41" s="22" t="str">
+      <c r="I41" s="8"/>
+      <c r="J41" s="22" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M41" s="23" t="str">
-        <f t="array" ref="M41">IF(L41="Y",MAX(IF(WnSAssignmentHarbourCruise=$A41,TaskRankRequirements)),"")</f>
+      <c r="K41" s="23" t="str">
+        <f t="array" ref="K41">IF(J41="Y",MAX(IF(WnSAssignmentHarbourCruise=$A41,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="8"/>
-      <c r="S41" t="s">
-        <v>490</v>
-      </c>
-      <c r="T41" s="22" t="str">
+      <c r="P41" s="8"/>
+      <c r="Q41" s="22" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U41" s="7" t="str">
+      <c r="R41" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
       <c r="V41" s="7"/>
-      <c r="W41" s="7"/>
+      <c r="W41" s="8"/>
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
-      <c r="Z41" s="8"/>
+      <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
       <c r="AC41" s="7"/>
-      <c r="AD41" s="7"/>
-      <c r="AE41" s="7"/>
-      <c r="AF41" s="7"/>
-      <c r="AG41" s="8"/>
-    </row>
-    <row r="42" spans="1:33">
+      <c r="AD41" s="8"/>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
         <v>459</v>
       </c>
@@ -33864,62 +33486,53 @@
         <v>434</v>
       </c>
       <c r="C42" s="80"/>
-      <c r="D42" t="s">
-        <v>490</v>
-      </c>
-      <c r="E42" s="22" t="str">
+      <c r="D42" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="F42" s="23" t="str">
-        <f t="array" ref="F42">IF(E42="Y",MAX(IF(WnSAssignmentMoveShip=A42,TaskRankRequirements)),"")</f>
+      <c r="E42" s="23" t="str">
+        <f t="array" ref="E42">IF(D42="Y",MAX(IF(WnSAssignmentMoveShip=A42,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="8"/>
-      <c r="K42" t="s">
-        <v>490</v>
-      </c>
-      <c r="L42" s="22" t="str">
+      <c r="I42" s="8"/>
+      <c r="J42" s="22" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M42" s="23" t="str">
-        <f t="array" ref="M42">IF(L42="Y",MAX(IF(WnSAssignmentHarbourCruise=$A42,TaskRankRequirements)),"")</f>
+      <c r="K42" s="23" t="str">
+        <f t="array" ref="K42">IF(J42="Y",MAX(IF(WnSAssignmentHarbourCruise=$A42,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="8"/>
-      <c r="S42" t="s">
-        <v>490</v>
-      </c>
-      <c r="T42" s="22" t="str">
+      <c r="P42" s="8"/>
+      <c r="Q42" s="22" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U42" s="7" t="str">
+      <c r="R42" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
       <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
+      <c r="W42" s="8"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
-      <c r="Z42" s="8"/>
+      <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
       <c r="AC42" s="7"/>
-      <c r="AD42" s="7"/>
-      <c r="AE42" s="7"/>
-      <c r="AF42" s="7"/>
-      <c r="AG42" s="8"/>
-    </row>
-    <row r="43" spans="1:33">
+      <c r="AD42" s="8"/>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
         <v>459</v>
       </c>
@@ -33927,62 +33540,53 @@
         <v>434</v>
       </c>
       <c r="C43" s="80"/>
-      <c r="D43" t="s">
-        <v>490</v>
-      </c>
-      <c r="E43" s="22" t="str">
+      <c r="D43" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="F43" s="23" t="str">
-        <f t="array" ref="F43">IF(E43="Y",MAX(IF(WnSAssignmentMoveShip=A43,TaskRankRequirements)),"")</f>
+      <c r="E43" s="23" t="str">
+        <f t="array" ref="E43">IF(D43="Y",MAX(IF(WnSAssignmentMoveShip=A43,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="8"/>
-      <c r="K43" t="s">
-        <v>490</v>
-      </c>
-      <c r="L43" s="22" t="str">
+      <c r="I43" s="8"/>
+      <c r="J43" s="22" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M43" s="23" t="str">
-        <f t="array" ref="M43">IF(L43="Y",MAX(IF(WnSAssignmentHarbourCruise=$A43,TaskRankRequirements)),"")</f>
+      <c r="K43" s="23" t="str">
+        <f t="array" ref="K43">IF(J43="Y",MAX(IF(WnSAssignmentHarbourCruise=$A43,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="8"/>
-      <c r="S43" t="s">
-        <v>490</v>
-      </c>
-      <c r="T43" s="22" t="str">
+      <c r="P43" s="8"/>
+      <c r="Q43" s="22" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U43" s="7" t="str">
+      <c r="R43" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
       <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
+      <c r="W43" s="8"/>
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
-      <c r="Z43" s="8"/>
+      <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
       <c r="AC43" s="7"/>
-      <c r="AD43" s="7"/>
-      <c r="AE43" s="7"/>
-      <c r="AF43" s="7"/>
-      <c r="AG43" s="8"/>
-    </row>
-    <row r="44" spans="1:33">
+      <c r="AD43" s="8"/>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
         <v>459</v>
       </c>
@@ -33990,62 +33594,53 @@
         <v>434</v>
       </c>
       <c r="C44" s="80"/>
-      <c r="D44" t="s">
-        <v>490</v>
-      </c>
-      <c r="E44" s="22" t="str">
+      <c r="D44" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="F44" s="23" t="str">
-        <f t="array" ref="F44">IF(E44="Y",MAX(IF(WnSAssignmentMoveShip=A44,TaskRankRequirements)),"")</f>
+      <c r="E44" s="23" t="str">
+        <f t="array" ref="E44">IF(D44="Y",MAX(IF(WnSAssignmentMoveShip=A44,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="8"/>
-      <c r="K44" t="s">
-        <v>490</v>
-      </c>
-      <c r="L44" s="22" t="str">
+      <c r="I44" s="8"/>
+      <c r="J44" s="22" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M44" s="23" t="str">
-        <f t="array" ref="M44">IF(L44="Y",MAX(IF(WnSAssignmentHarbourCruise=$A44,TaskRankRequirements)),"")</f>
+      <c r="K44" s="23" t="str">
+        <f t="array" ref="K44">IF(J44="Y",MAX(IF(WnSAssignmentHarbourCruise=$A44,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="8"/>
-      <c r="S44" t="s">
-        <v>490</v>
-      </c>
-      <c r="T44" s="22" t="str">
+      <c r="P44" s="8"/>
+      <c r="Q44" s="22" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U44" s="7" t="str">
+      <c r="R44" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
       <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
+      <c r="W44" s="8"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
-      <c r="Z44" s="8"/>
+      <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
       <c r="AC44" s="7"/>
-      <c r="AD44" s="7"/>
-      <c r="AE44" s="7"/>
-      <c r="AF44" s="7"/>
-      <c r="AG44" s="8"/>
-    </row>
-    <row r="45" spans="1:33">
+      <c r="AD44" s="8"/>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
         <v>459</v>
       </c>
@@ -34053,62 +33648,53 @@
         <v>434</v>
       </c>
       <c r="C45" s="80"/>
-      <c r="D45" t="s">
-        <v>490</v>
-      </c>
-      <c r="E45" s="22" t="str">
+      <c r="D45" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="F45" s="23" t="str">
-        <f t="array" ref="F45">IF(E45="Y",MAX(IF(WnSAssignmentMoveShip=A45,TaskRankRequirements)),"")</f>
+      <c r="E45" s="23" t="str">
+        <f t="array" ref="E45">IF(D45="Y",MAX(IF(WnSAssignmentMoveShip=A45,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="8"/>
-      <c r="K45" t="s">
-        <v>490</v>
-      </c>
-      <c r="L45" s="22" t="str">
+      <c r="I45" s="8"/>
+      <c r="J45" s="22" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M45" s="23" t="str">
-        <f t="array" ref="M45">IF(L45="Y",MAX(IF(WnSAssignmentHarbourCruise=$A45,TaskRankRequirements)),"")</f>
+      <c r="K45" s="23" t="str">
+        <f t="array" ref="K45">IF(J45="Y",MAX(IF(WnSAssignmentHarbourCruise=$A45,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="8"/>
-      <c r="S45" t="s">
-        <v>490</v>
-      </c>
-      <c r="T45" s="22" t="str">
+      <c r="P45" s="8"/>
+      <c r="Q45" s="22" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U45" s="7" t="str">
+      <c r="R45" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
       <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
+      <c r="W45" s="8"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
-      <c r="Z45" s="8"/>
+      <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
       <c r="AC45" s="7"/>
-      <c r="AD45" s="7"/>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="7"/>
-      <c r="AG45" s="8"/>
-    </row>
-    <row r="46" spans="1:33">
+      <c r="AD45" s="8"/>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
         <v>459</v>
       </c>
@@ -34116,62 +33702,53 @@
         <v>435</v>
       </c>
       <c r="C46" s="101"/>
-      <c r="D46" t="s">
-        <v>490</v>
-      </c>
-      <c r="E46" s="22" t="str">
+      <c r="D46" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="F46" s="23" t="str">
-        <f t="array" ref="F46">IF(E46="Y",MAX(IF(WnSAssignmentMoveShip=A46,TaskRankRequirements)),"")</f>
+      <c r="E46" s="23" t="str">
+        <f t="array" ref="E46">IF(D46="Y",MAX(IF(WnSAssignmentMoveShip=A46,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="8"/>
-      <c r="K46" t="s">
-        <v>490</v>
-      </c>
-      <c r="L46" s="22" t="str">
+      <c r="I46" s="8"/>
+      <c r="J46" s="22" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M46" s="23" t="str">
-        <f t="array" ref="M46">IF(L46="Y",MAX(IF(WnSAssignmentHarbourCruise=$A46,TaskRankRequirements)),"")</f>
+      <c r="K46" s="23" t="str">
+        <f t="array" ref="K46">IF(J46="Y",MAX(IF(WnSAssignmentHarbourCruise=$A46,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="8"/>
-      <c r="S46" t="s">
-        <v>490</v>
-      </c>
-      <c r="T46" s="22" t="str">
+      <c r="P46" s="8"/>
+      <c r="Q46" s="22" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U46" s="7" t="str">
+      <c r="R46" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
       <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
+      <c r="W46" s="8"/>
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
-      <c r="Z46" s="8"/>
+      <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
       <c r="AC46" s="7"/>
-      <c r="AD46" s="7"/>
-      <c r="AE46" s="7"/>
-      <c r="AF46" s="7"/>
-      <c r="AG46" s="8"/>
-    </row>
-    <row r="47" spans="1:33">
+      <c r="AD46" s="8"/>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
         <v>459</v>
       </c>
@@ -34179,62 +33756,53 @@
         <v>435</v>
       </c>
       <c r="C47" s="101"/>
-      <c r="D47" t="s">
-        <v>490</v>
-      </c>
-      <c r="E47" s="22" t="str">
+      <c r="D47" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="F47" s="23" t="str">
-        <f t="array" ref="F47">IF(E47="Y",MAX(IF(WnSAssignmentMoveShip=A47,TaskRankRequirements)),"")</f>
+      <c r="E47" s="23" t="str">
+        <f t="array" ref="E47">IF(D47="Y",MAX(IF(WnSAssignmentMoveShip=A47,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="8"/>
-      <c r="K47" t="s">
-        <v>490</v>
-      </c>
-      <c r="L47" s="22" t="str">
+      <c r="I47" s="8"/>
+      <c r="J47" s="22" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M47" s="23" t="str">
-        <f t="array" ref="M47">IF(L47="Y",MAX(IF(WnSAssignmentHarbourCruise=$A47,TaskRankRequirements)),"")</f>
+      <c r="K47" s="23" t="str">
+        <f t="array" ref="K47">IF(J47="Y",MAX(IF(WnSAssignmentHarbourCruise=$A47,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="8"/>
-      <c r="S47" t="s">
-        <v>490</v>
-      </c>
-      <c r="T47" s="22" t="str">
+      <c r="P47" s="8"/>
+      <c r="Q47" s="22" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U47" s="7" t="str">
+      <c r="R47" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
       <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
+      <c r="W47" s="8"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
-      <c r="Z47" s="8"/>
+      <c r="Z47" s="7"/>
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
       <c r="AC47" s="7"/>
-      <c r="AD47" s="7"/>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="7"/>
-      <c r="AG47" s="8"/>
-    </row>
-    <row r="48" spans="1:33">
+      <c r="AD47" s="8"/>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
         <v>459</v>
       </c>
@@ -34242,62 +33810,53 @@
         <v>435</v>
       </c>
       <c r="C48" s="101"/>
-      <c r="D48" t="s">
-        <v>490</v>
-      </c>
-      <c r="E48" s="22" t="str">
+      <c r="D48" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="F48" s="23" t="str">
-        <f t="array" ref="F48">IF(E48="Y",MAX(IF(WnSAssignmentMoveShip=A48,TaskRankRequirements)),"")</f>
+      <c r="E48" s="23" t="str">
+        <f t="array" ref="E48">IF(D48="Y",MAX(IF(WnSAssignmentMoveShip=A48,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="8"/>
-      <c r="K48" t="s">
-        <v>490</v>
-      </c>
-      <c r="L48" s="22" t="str">
+      <c r="I48" s="8"/>
+      <c r="J48" s="22" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M48" s="23" t="str">
-        <f t="array" ref="M48">IF(L48="Y",MAX(IF(WnSAssignmentHarbourCruise=$A48,TaskRankRequirements)),"")</f>
+      <c r="K48" s="23" t="str">
+        <f t="array" ref="K48">IF(J48="Y",MAX(IF(WnSAssignmentHarbourCruise=$A48,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="8"/>
-      <c r="S48" t="s">
-        <v>490</v>
-      </c>
-      <c r="T48" s="22" t="str">
+      <c r="P48" s="8"/>
+      <c r="Q48" s="22" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U48" s="7" t="str">
+      <c r="R48" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
       <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
+      <c r="W48" s="8"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
-      <c r="Z48" s="8"/>
+      <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
       <c r="AB48" s="7"/>
       <c r="AC48" s="7"/>
-      <c r="AD48" s="7"/>
-      <c r="AE48" s="7"/>
-      <c r="AF48" s="7"/>
-      <c r="AG48" s="8"/>
-    </row>
-    <row r="49" spans="1:33">
+      <c r="AD48" s="8"/>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
         <v>459</v>
       </c>
@@ -34305,123 +33864,105 @@
         <v>435</v>
       </c>
       <c r="C49" s="101"/>
-      <c r="D49" t="s">
-        <v>490</v>
-      </c>
-      <c r="E49" s="22" t="str">
+      <c r="D49" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="F49" s="23" t="str">
-        <f t="array" ref="F49">IF(E49="Y",MAX(IF(WnSAssignmentMoveShip=A49,TaskRankRequirements)),"")</f>
+      <c r="E49" s="23" t="str">
+        <f t="array" ref="E49">IF(D49="Y",MAX(IF(WnSAssignmentMoveShip=A49,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="8"/>
-      <c r="K49" t="s">
-        <v>490</v>
-      </c>
-      <c r="L49" s="22" t="str">
+      <c r="I49" s="8"/>
+      <c r="J49" s="22" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M49" s="23" t="str">
-        <f t="array" ref="M49">IF(L49="Y",MAX(IF(WnSAssignmentHarbourCruise=$A49,TaskRankRequirements)),"")</f>
+      <c r="K49" s="23" t="str">
+        <f t="array" ref="K49">IF(J49="Y",MAX(IF(WnSAssignmentHarbourCruise=$A49,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="8"/>
-      <c r="S49" t="s">
-        <v>490</v>
-      </c>
-      <c r="T49" s="22" t="str">
+      <c r="P49" s="8"/>
+      <c r="Q49" s="22" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U49" s="7" t="str">
+      <c r="R49" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
       <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
+      <c r="W49" s="8"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
-      <c r="Z49" s="8"/>
+      <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
       <c r="AC49" s="7"/>
-      <c r="AD49" s="7"/>
-      <c r="AE49" s="7"/>
-      <c r="AF49" s="7"/>
-      <c r="AG49" s="8"/>
-    </row>
-    <row r="50" spans="1:33">
+      <c r="AD49" s="8"/>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
         <v>459</v>
       </c>
       <c r="B50" s="76"/>
       <c r="C50" s="101"/>
-      <c r="D50" t="s">
-        <v>490</v>
-      </c>
-      <c r="E50" s="22" t="str">
+      <c r="D50" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="F50" s="23" t="str">
-        <f t="array" ref="F50">IF(E50="Y",MAX(IF(WnSAssignmentMoveShip=A50,TaskRankRequirements)),"")</f>
+      <c r="E50" s="23" t="str">
+        <f t="array" ref="E50">IF(D50="Y",MAX(IF(WnSAssignmentMoveShip=A50,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="8"/>
-      <c r="K50" t="s">
-        <v>490</v>
-      </c>
-      <c r="L50" s="22" t="str">
+      <c r="I50" s="8"/>
+      <c r="J50" s="22" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M50" s="23" t="str">
-        <f t="array" ref="M50">IF(L50="Y",MAX(IF(WnSAssignmentHarbourCruise=$A50,TaskRankRequirements)),"")</f>
+      <c r="K50" s="23" t="str">
+        <f t="array" ref="K50">IF(J50="Y",MAX(IF(WnSAssignmentHarbourCruise=$A50,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="8"/>
-      <c r="S50" t="s">
-        <v>490</v>
-      </c>
-      <c r="T50" s="22" t="str">
+      <c r="P50" s="8"/>
+      <c r="Q50" s="22" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U50" s="7" t="str">
+      <c r="R50" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
       <c r="V50" s="7"/>
-      <c r="W50" s="7"/>
+      <c r="W50" s="8"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="7"/>
-      <c r="Z50" s="8"/>
+      <c r="Z50" s="7"/>
       <c r="AA50" s="7"/>
       <c r="AB50" s="7"/>
       <c r="AC50" s="7"/>
-      <c r="AD50" s="7"/>
-      <c r="AE50" s="7"/>
-      <c r="AF50" s="7"/>
-      <c r="AG50" s="8"/>
-    </row>
-    <row r="51" spans="1:33">
+      <c r="AD50" s="8"/>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" s="42" t="s">
         <v>459</v>
       </c>
@@ -34429,62 +33970,53 @@
         <v>436</v>
       </c>
       <c r="C51" s="107"/>
-      <c r="D51" t="s">
-        <v>490</v>
-      </c>
-      <c r="E51" s="40" t="str">
+      <c r="D51" s="40" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="F51" s="41" t="str">
-        <f t="array" ref="F51">IF(E51="Y",MAX(IF(WnSAssignmentMoveShip=A51,TaskRankRequirements)),"")</f>
+      <c r="E51" s="41" t="str">
+        <f t="array" ref="E51">IF(D51="Y",MAX(IF(WnSAssignmentMoveShip=A51,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="F51" s="42"/>
       <c r="G51" s="42"/>
       <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="43"/>
-      <c r="K51" t="s">
-        <v>490</v>
-      </c>
-      <c r="L51" s="40" t="str">
+      <c r="I51" s="43"/>
+      <c r="J51" s="40" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M51" s="41" t="str">
-        <f t="array" ref="M51">IF(L51="Y",MAX(IF(WnSAssignmentHarbourCruise=$A51,TaskRankRequirements)),"")</f>
+      <c r="K51" s="41" t="str">
+        <f t="array" ref="K51">IF(J51="Y",MAX(IF(WnSAssignmentHarbourCruise=$A51,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
       <c r="N51" s="42"/>
       <c r="O51" s="42"/>
-      <c r="P51" s="42"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="43"/>
-      <c r="S51" t="s">
-        <v>490</v>
-      </c>
-      <c r="T51" s="40" t="str">
+      <c r="P51" s="43"/>
+      <c r="Q51" s="40" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U51" s="42" t="str">
+      <c r="R51" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="S51" s="42"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="42"/>
       <c r="V51" s="42"/>
-      <c r="W51" s="42"/>
+      <c r="W51" s="43"/>
       <c r="X51" s="42"/>
       <c r="Y51" s="42"/>
-      <c r="Z51" s="43"/>
+      <c r="Z51" s="42"/>
       <c r="AA51" s="42"/>
       <c r="AB51" s="42"/>
       <c r="AC51" s="42"/>
-      <c r="AD51" s="42"/>
-      <c r="AE51" s="42"/>
-      <c r="AF51" s="42"/>
-      <c r="AG51" s="43"/>
-    </row>
-    <row r="52" spans="1:33">
+      <c r="AD51" s="43"/>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
         <v>457</v>
       </c>
@@ -34492,34 +34024,34 @@
         <v>383</v>
       </c>
       <c r="C52" s="98"/>
-      <c r="D52" t="s">
-        <v>490</v>
-      </c>
-      <c r="E52" s="52" t="str">
+      <c r="D52" s="52" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="F52" s="53">
+      <c r="E52" s="53">
         <v>4</v>
       </c>
+      <c r="F52" s="54" t="s">
+        <v>411</v>
+      </c>
       <c r="G52" s="54" t="s">
-        <v>411</v>
-      </c>
-      <c r="H52" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="I52" s="54"/>
-      <c r="J52" s="55"/>
-      <c r="K52" t="s">
-        <v>490</v>
-      </c>
-      <c r="L52" s="52" t="str">
+      <c r="H52" s="54"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="52" t="str">
         <f t="shared" si="5"/>
         <v>Y</v>
       </c>
-      <c r="M52" s="53" t="e">
-        <f t="array" ref="M52">IF(L52="Y",MAX(IF(WnSAssignmentHarbourCruise=$A52,TaskRankRequirements)),"")</f>
+      <c r="K52" s="53" t="e">
+        <f t="array" ref="K52">IF(J52="Y",MAX(IF(WnSAssignmentHarbourCruise=$A52,TaskRankRequirements)),"")</f>
         <v>#N/A</v>
+      </c>
+      <c r="L52" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="M52" s="54" t="s">
+        <v>444</v>
       </c>
       <c r="N52" s="54" t="s">
         <v>444</v>
@@ -34527,43 +34059,34 @@
       <c r="O52" s="54" t="s">
         <v>444</v>
       </c>
-      <c r="P52" s="54" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q52" s="54" t="s">
-        <v>444</v>
-      </c>
-      <c r="R52" s="91"/>
-      <c r="S52" t="s">
-        <v>490</v>
-      </c>
-      <c r="T52" s="52" t="str">
+      <c r="P52" s="91"/>
+      <c r="Q52" s="52" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U52" s="53"/>
+      <c r="R52" s="53"/>
+      <c r="S52" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="T52" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="U52" s="54" t="s">
+        <v>444</v>
+      </c>
       <c r="V52" s="54" t="s">
         <v>444</v>
       </c>
-      <c r="W52" s="54" t="s">
-        <v>444</v>
-      </c>
-      <c r="X52" s="54" t="s">
-        <v>444</v>
-      </c>
-      <c r="Y52" s="54" t="s">
-        <v>444</v>
-      </c>
-      <c r="Z52" s="91"/>
+      <c r="W52" s="91"/>
+      <c r="X52" s="53"/>
+      <c r="Y52" s="53"/>
+      <c r="Z52" s="53"/>
       <c r="AA52" s="53"/>
       <c r="AB52" s="53"/>
       <c r="AC52" s="53"/>
-      <c r="AD52" s="53"/>
-      <c r="AE52" s="53"/>
-      <c r="AF52" s="53"/>
-      <c r="AG52" s="91"/>
-    </row>
-    <row r="53" spans="1:33">
+      <c r="AD52" s="91"/>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" t="s">
         <v>458</v>
       </c>
@@ -34571,28 +34094,28 @@
         <v>437</v>
       </c>
       <c r="C53" s="78"/>
-      <c r="D53" t="s">
-        <v>490</v>
-      </c>
-      <c r="E53" s="22" t="str">
+      <c r="D53" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="8"/>
-      <c r="K53" t="s">
-        <v>490</v>
-      </c>
-      <c r="L53" s="62" t="str">
+      <c r="I53" s="8"/>
+      <c r="J53" s="62" t="str">
         <f t="shared" si="5"/>
         <v>Y</v>
       </c>
-      <c r="M53" s="64" t="e">
-        <f t="array" ref="M53">IF(L53="Y",MAX(IF(WnSAssignmentHarbourCruise=$A53,TaskRankRequirements)),"")</f>
+      <c r="K53" s="64" t="e">
+        <f t="array" ref="K53">IF(J53="Y",MAX(IF(WnSAssignmentHarbourCruise=$A53,TaskRankRequirements)),"")</f>
         <v>#N/A</v>
+      </c>
+      <c r="L53" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="M53" s="64" t="s">
+        <v>411</v>
       </c>
       <c r="N53" s="64" t="s">
         <v>411</v>
@@ -34600,43 +34123,34 @@
       <c r="O53" s="64" t="s">
         <v>411</v>
       </c>
-      <c r="P53" s="64" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q53" s="64" t="s">
-        <v>411</v>
-      </c>
-      <c r="R53" s="65"/>
-      <c r="S53" t="s">
-        <v>490</v>
-      </c>
-      <c r="T53" s="62" t="str">
+      <c r="P53" s="65"/>
+      <c r="Q53" s="62" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U53" s="64"/>
+      <c r="R53" s="64"/>
+      <c r="S53" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="T53" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="U53" s="64" t="s">
+        <v>411</v>
+      </c>
       <c r="V53" s="64" t="s">
         <v>411</v>
       </c>
-      <c r="W53" s="64" t="s">
-        <v>411</v>
-      </c>
-      <c r="X53" s="64" t="s">
-        <v>411</v>
-      </c>
-      <c r="Y53" s="64" t="s">
-        <v>411</v>
-      </c>
-      <c r="Z53" s="65"/>
+      <c r="W53" s="65"/>
+      <c r="X53" s="64"/>
+      <c r="Y53" s="64"/>
+      <c r="Z53" s="64"/>
       <c r="AA53" s="64"/>
       <c r="AB53" s="64"/>
       <c r="AC53" s="64"/>
-      <c r="AD53" s="64"/>
-      <c r="AE53" s="64"/>
-      <c r="AF53" s="64"/>
-      <c r="AG53" s="65"/>
-    </row>
-    <row r="54" spans="1:33">
+      <c r="AD53" s="65"/>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" t="s">
         <v>459</v>
       </c>
@@ -34644,56 +34158,47 @@
         <v>438</v>
       </c>
       <c r="C54" s="79"/>
-      <c r="D54" t="s">
-        <v>490</v>
-      </c>
-      <c r="E54" s="22" t="str">
+      <c r="D54" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="8"/>
-      <c r="K54" t="s">
-        <v>490</v>
-      </c>
-      <c r="L54" s="26" t="str">
+      <c r="I54" s="8"/>
+      <c r="J54" s="26" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M54" s="39" t="str">
-        <f t="array" ref="M54">IF(L54="Y",MAX(IF(WnSAssignmentHarbourCruise=$A54,TaskRankRequirements)),"")</f>
+      <c r="K54" s="39" t="str">
+        <f t="array" ref="K54">IF(J54="Y",MAX(IF(WnSAssignmentHarbourCruise=$A54,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
       <c r="N54" s="39"/>
       <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="66"/>
-      <c r="S54" t="s">
-        <v>490</v>
-      </c>
-      <c r="T54" s="26" t="str">
+      <c r="P54" s="66"/>
+      <c r="Q54" s="26" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
       <c r="U54" s="39"/>
       <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
-      <c r="Z54" s="66"/>
+      <c r="W54" s="66"/>
+      <c r="X54" s="56"/>
+      <c r="Y54" s="56"/>
+      <c r="Z54" s="56"/>
       <c r="AA54" s="56"/>
       <c r="AB54" s="56"/>
       <c r="AC54" s="56"/>
-      <c r="AD54" s="56"/>
-      <c r="AE54" s="56"/>
-      <c r="AF54" s="56"/>
-      <c r="AG54" s="57"/>
-    </row>
-    <row r="55" spans="1:33">
+      <c r="AD54" s="57"/>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
         <v>459</v>
       </c>
@@ -34701,111 +34206,93 @@
         <v>438</v>
       </c>
       <c r="C55" s="80"/>
-      <c r="D55" t="s">
-        <v>490</v>
-      </c>
-      <c r="E55" s="22" t="str">
+      <c r="D55" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="8"/>
-      <c r="K55" t="s">
-        <v>490</v>
-      </c>
-      <c r="L55" s="22" t="str">
+      <c r="I55" s="8"/>
+      <c r="J55" s="22" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M55" s="7" t="str">
-        <f t="array" ref="M55">IF(L55="Y",MAX(IF(WnSAssignmentHarbourCruise=$A55,TaskRankRequirements)),"")</f>
+      <c r="K55" s="7" t="str">
+        <f t="array" ref="K55">IF(J55="Y",MAX(IF(WnSAssignmentHarbourCruise=$A55,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="8"/>
-      <c r="S55" t="s">
-        <v>490</v>
-      </c>
-      <c r="T55" s="22" t="str">
+      <c r="P55" s="8"/>
+      <c r="Q55" s="22" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
-      <c r="W55" s="7"/>
+      <c r="W55" s="8"/>
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
-      <c r="Z55" s="8"/>
+      <c r="Z55" s="7"/>
       <c r="AA55" s="7"/>
       <c r="AB55" s="7"/>
       <c r="AC55" s="7"/>
-      <c r="AD55" s="7"/>
-      <c r="AE55" s="7"/>
-      <c r="AF55" s="7"/>
-      <c r="AG55" s="8"/>
-    </row>
-    <row r="56" spans="1:33">
+      <c r="AD55" s="8"/>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" t="s">
         <v>459</v>
       </c>
       <c r="B56" s="70"/>
       <c r="C56" s="81"/>
-      <c r="D56" t="s">
-        <v>490</v>
-      </c>
-      <c r="E56" s="22" t="str">
+      <c r="D56" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="8"/>
-      <c r="K56" t="s">
-        <v>490</v>
-      </c>
-      <c r="L56" s="22" t="str">
+      <c r="I56" s="8"/>
+      <c r="J56" s="22" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M56" s="7" t="str">
-        <f t="array" ref="M56">IF(L56="Y",MAX(IF(WnSAssignmentHarbourCruise=$A56,TaskRankRequirements)),"")</f>
+      <c r="K56" s="7" t="str">
+        <f t="array" ref="K56">IF(J56="Y",MAX(IF(WnSAssignmentHarbourCruise=$A56,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="8"/>
-      <c r="S56" t="s">
-        <v>490</v>
-      </c>
-      <c r="T56" s="22" t="str">
+      <c r="P56" s="8"/>
+      <c r="Q56" s="22" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
-      <c r="W56" s="7"/>
+      <c r="W56" s="8"/>
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
-      <c r="Z56" s="8"/>
+      <c r="Z56" s="7"/>
       <c r="AA56" s="7"/>
       <c r="AB56" s="7"/>
       <c r="AC56" s="7"/>
-      <c r="AD56" s="7"/>
-      <c r="AE56" s="7"/>
-      <c r="AF56" s="7"/>
-      <c r="AG56" s="8"/>
-    </row>
-    <row r="57" spans="1:33">
+      <c r="AD56" s="8"/>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" s="42" t="s">
         <v>459</v>
       </c>
@@ -34813,56 +34300,47 @@
         <v>439</v>
       </c>
       <c r="C57" s="106"/>
-      <c r="D57" t="s">
-        <v>490</v>
-      </c>
-      <c r="E57" s="40" t="str">
+      <c r="D57" s="40" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="E57" s="42"/>
       <c r="F57" s="42"/>
       <c r="G57" s="42"/>
       <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="43"/>
-      <c r="K57" t="s">
-        <v>490</v>
-      </c>
-      <c r="L57" s="40" t="str">
+      <c r="I57" s="43"/>
+      <c r="J57" s="40" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M57" s="42" t="str">
-        <f t="array" ref="M57">IF(L57="Y",MAX(IF(WnSAssignmentHarbourCruise=$A57,TaskRankRequirements)),"")</f>
+      <c r="K57" s="42" t="str">
+        <f t="array" ref="K57">IF(J57="Y",MAX(IF(WnSAssignmentHarbourCruise=$A57,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
       <c r="N57" s="42"/>
       <c r="O57" s="42"/>
-      <c r="P57" s="42"/>
-      <c r="Q57" s="42"/>
-      <c r="R57" s="43"/>
-      <c r="S57" t="s">
-        <v>490</v>
-      </c>
-      <c r="T57" s="40" t="str">
+      <c r="P57" s="43"/>
+      <c r="Q57" s="40" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
+      <c r="R57" s="42"/>
+      <c r="S57" s="42"/>
+      <c r="T57" s="42"/>
       <c r="U57" s="42"/>
       <c r="V57" s="42"/>
-      <c r="W57" s="42"/>
+      <c r="W57" s="43"/>
       <c r="X57" s="42"/>
       <c r="Y57" s="42"/>
-      <c r="Z57" s="43"/>
+      <c r="Z57" s="42"/>
       <c r="AA57" s="42"/>
       <c r="AB57" s="42"/>
       <c r="AC57" s="42"/>
-      <c r="AD57" s="42"/>
-      <c r="AE57" s="42"/>
-      <c r="AF57" s="42"/>
-      <c r="AG57" s="43"/>
-    </row>
-    <row r="58" spans="1:33">
+      <c r="AD57" s="43"/>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" t="s">
         <v>362</v>
       </c>
@@ -34870,64 +34348,55 @@
         <v>408</v>
       </c>
       <c r="C58" s="78"/>
-      <c r="D58" t="s">
-        <v>490</v>
-      </c>
-      <c r="E58" s="22" t="str">
+      <c r="D58" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="8"/>
-      <c r="K58" t="s">
-        <v>490</v>
-      </c>
-      <c r="L58" s="62" t="str">
+      <c r="I58" s="8"/>
+      <c r="J58" s="62" t="str">
         <f t="shared" si="5"/>
         <v>Y</v>
       </c>
-      <c r="M58" s="64" t="e">
-        <f t="array" ref="M58">IF(L58="Y",MAX(IF(WnSAssignmentHarbourCruise=$A58,TaskRankRequirements)),"")</f>
+      <c r="K58" s="64" t="e">
+        <f t="array" ref="K58">IF(J58="Y",MAX(IF(WnSAssignmentHarbourCruise=$A58,TaskRankRequirements)),"")</f>
         <v>#N/A</v>
       </c>
+      <c r="L58" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="M58" s="64"/>
       <c r="N58" s="64" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="O58" s="64"/>
-      <c r="P58" s="64" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q58" s="64"/>
-      <c r="R58" s="65"/>
-      <c r="S58" t="s">
-        <v>490</v>
-      </c>
-      <c r="T58" s="62" t="str">
+      <c r="P58" s="65"/>
+      <c r="Q58" s="62" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U58" s="64"/>
-      <c r="V58" s="64" t="s">
+      <c r="R58" s="64"/>
+      <c r="S58" s="64" t="s">
         <v>423</v>
       </c>
-      <c r="W58" s="64"/>
-      <c r="X58" s="64" t="s">
+      <c r="T58" s="64"/>
+      <c r="U58" s="64" t="s">
         <v>409</v>
       </c>
+      <c r="V58" s="64"/>
+      <c r="W58" s="65"/>
+      <c r="X58" s="64"/>
       <c r="Y58" s="64"/>
-      <c r="Z58" s="65"/>
+      <c r="Z58" s="64"/>
       <c r="AA58" s="64"/>
       <c r="AB58" s="64"/>
       <c r="AC58" s="64"/>
-      <c r="AD58" s="64"/>
-      <c r="AE58" s="64"/>
-      <c r="AF58" s="64"/>
-      <c r="AG58" s="65"/>
-    </row>
-    <row r="59" spans="1:33">
+      <c r="AD58" s="65"/>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" t="s">
         <v>459</v>
       </c>
@@ -34935,56 +34404,47 @@
         <v>367</v>
       </c>
       <c r="C59" s="80"/>
-      <c r="D59" t="s">
-        <v>490</v>
-      </c>
-      <c r="E59" s="22" t="str">
+      <c r="D59" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="8"/>
-      <c r="K59" t="s">
-        <v>490</v>
-      </c>
-      <c r="L59" s="22" t="str">
+      <c r="I59" s="8"/>
+      <c r="J59" s="22" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M59" s="7" t="str">
-        <f t="array" ref="M59">IF(L59="Y",MAX(IF(WnSAssignmentHarbourCruise=$A59,TaskRankRequirements)),"")</f>
+      <c r="K59" s="7" t="str">
+        <f t="array" ref="K59">IF(J59="Y",MAX(IF(WnSAssignmentHarbourCruise=$A59,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="8"/>
-      <c r="S59" t="s">
-        <v>490</v>
-      </c>
-      <c r="T59" s="22" t="str">
+      <c r="P59" s="8"/>
+      <c r="Q59" s="22" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
-      <c r="W59" s="7"/>
+      <c r="W59" s="8"/>
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
-      <c r="Z59" s="8"/>
+      <c r="Z59" s="7"/>
       <c r="AA59" s="7"/>
       <c r="AB59" s="7"/>
       <c r="AC59" s="7"/>
-      <c r="AD59" s="7"/>
-      <c r="AE59" s="7"/>
-      <c r="AF59" s="7"/>
-      <c r="AG59" s="8"/>
-    </row>
-    <row r="60" spans="1:33">
+      <c r="AD59" s="8"/>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" t="s">
         <v>363</v>
       </c>
@@ -34992,60 +34452,51 @@
         <v>364</v>
       </c>
       <c r="C60" s="78"/>
-      <c r="D60" t="s">
-        <v>490</v>
-      </c>
-      <c r="E60" s="22" t="str">
+      <c r="D60" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="8"/>
-      <c r="K60" t="s">
-        <v>490</v>
-      </c>
-      <c r="L60" s="62" t="str">
+      <c r="I60" s="8"/>
+      <c r="J60" s="62" t="str">
         <f t="shared" si="5"/>
         <v>Y</v>
       </c>
-      <c r="M60" s="64" t="e">
-        <f t="array" ref="M60">IF(L60="Y",MAX(IF(WnSAssignmentHarbourCruise=$A60,TaskRankRequirements)),"")</f>
+      <c r="K60" s="64" t="e">
+        <f t="array" ref="K60">IF(J60="Y",MAX(IF(WnSAssignmentHarbourCruise=$A60,TaskRankRequirements)),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64" t="s">
+        <v>410</v>
+      </c>
       <c r="O60" s="64"/>
-      <c r="P60" s="64" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q60" s="64"/>
-      <c r="R60" s="65"/>
-      <c r="S60" t="s">
-        <v>490</v>
-      </c>
-      <c r="T60" s="62" t="str">
+      <c r="P60" s="65"/>
+      <c r="Q60" s="62" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U60" s="64"/>
+      <c r="R60" s="64"/>
+      <c r="S60" s="64"/>
+      <c r="T60" s="64"/>
+      <c r="U60" s="64" t="s">
+        <v>410</v>
+      </c>
       <c r="V60" s="64"/>
-      <c r="W60" s="64"/>
-      <c r="X60" s="64" t="s">
-        <v>410</v>
-      </c>
+      <c r="W60" s="65"/>
+      <c r="X60" s="64"/>
       <c r="Y60" s="64"/>
-      <c r="Z60" s="65"/>
+      <c r="Z60" s="64"/>
       <c r="AA60" s="64"/>
       <c r="AB60" s="64"/>
       <c r="AC60" s="64"/>
-      <c r="AD60" s="64"/>
-      <c r="AE60" s="64"/>
-      <c r="AF60" s="64"/>
-      <c r="AG60" s="65"/>
-    </row>
-    <row r="61" spans="1:33">
+      <c r="AD60" s="65"/>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" t="s">
         <v>365</v>
       </c>
@@ -35053,59 +34504,50 @@
         <v>364</v>
       </c>
       <c r="C61" s="78"/>
-      <c r="D61" t="s">
-        <v>490</v>
-      </c>
-      <c r="E61" s="22" t="str">
+      <c r="D61" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="8"/>
-      <c r="K61" t="s">
-        <v>490</v>
-      </c>
-      <c r="L61" s="62" t="s">
+      <c r="I61" s="8"/>
+      <c r="J61" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="M61" s="64">
-        <f t="array" ref="M61">IF(L61="Y",MAX(IF(WnSAssignmentHarbourCruise=$A61,TaskRankRequirements)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N61" s="64"/>
+      <c r="K61" s="64">
+        <f t="array" ref="K61">IF(J61="Y",MAX(IF(WnSAssignmentHarbourCruise=$A61,TaskRankRequirements)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64" t="s">
+        <v>410</v>
+      </c>
       <c r="O61" s="64"/>
-      <c r="P61" s="64" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q61" s="64"/>
-      <c r="R61" s="65"/>
-      <c r="S61" t="s">
-        <v>490</v>
-      </c>
-      <c r="T61" s="62" t="str">
+      <c r="P61" s="65"/>
+      <c r="Q61" s="62" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U61" s="64"/>
+      <c r="R61" s="64"/>
+      <c r="S61" s="64"/>
+      <c r="T61" s="64"/>
+      <c r="U61" s="64" t="s">
+        <v>410</v>
+      </c>
       <c r="V61" s="64"/>
-      <c r="W61" s="64"/>
-      <c r="X61" s="64" t="s">
-        <v>410</v>
-      </c>
+      <c r="W61" s="65"/>
+      <c r="X61" s="64"/>
       <c r="Y61" s="64"/>
-      <c r="Z61" s="65"/>
+      <c r="Z61" s="64"/>
       <c r="AA61" s="64"/>
       <c r="AB61" s="64"/>
       <c r="AC61" s="64"/>
-      <c r="AD61" s="64"/>
-      <c r="AE61" s="64"/>
-      <c r="AF61" s="64"/>
-      <c r="AG61" s="65"/>
-    </row>
-    <row r="62" spans="1:33">
+      <c r="AD61" s="65"/>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" t="s">
         <v>366</v>
       </c>
@@ -35113,58 +34555,49 @@
         <v>364</v>
       </c>
       <c r="C62" s="82"/>
-      <c r="D62" t="s">
-        <v>490</v>
-      </c>
-      <c r="E62" s="22" t="str">
+      <c r="D62" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="8"/>
-      <c r="K62" t="s">
-        <v>490</v>
-      </c>
-      <c r="L62" s="22" t="str">
+      <c r="I62" s="8"/>
+      <c r="J62" s="22" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M62" s="7" t="str">
-        <f t="array" ref="M62">IF(L62="Y",MAX(IF(WnSAssignmentHarbourCruise=$A62,TaskRankRequirements)),"")</f>
+      <c r="K62" s="7" t="str">
+        <f t="array" ref="K62">IF(J62="Y",MAX(IF(WnSAssignmentHarbourCruise=$A62,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="8"/>
-      <c r="S62" t="s">
-        <v>490</v>
-      </c>
-      <c r="T62" s="58" t="str">
+      <c r="P62" s="8"/>
+      <c r="Q62" s="58" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="U62" s="60"/>
+      <c r="R62" s="60"/>
+      <c r="S62" s="60"/>
+      <c r="T62" s="60"/>
+      <c r="U62" s="60" t="s">
+        <v>410</v>
+      </c>
       <c r="V62" s="60"/>
-      <c r="W62" s="60"/>
-      <c r="X62" s="60" t="s">
-        <v>410</v>
-      </c>
+      <c r="W62" s="61"/>
+      <c r="X62" s="60"/>
       <c r="Y62" s="60"/>
-      <c r="Z62" s="61"/>
+      <c r="Z62" s="60"/>
       <c r="AA62" s="60"/>
       <c r="AB62" s="60"/>
       <c r="AC62" s="60"/>
-      <c r="AD62" s="60"/>
-      <c r="AE62" s="60"/>
-      <c r="AF62" s="60"/>
-      <c r="AG62" s="61"/>
-    </row>
-    <row r="63" spans="1:33">
+      <c r="AD62" s="61"/>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" t="s">
         <v>459</v>
       </c>
@@ -35172,56 +34605,47 @@
         <v>364</v>
       </c>
       <c r="C63" s="83"/>
-      <c r="D63" t="s">
-        <v>490</v>
-      </c>
-      <c r="E63" s="22" t="str">
+      <c r="D63" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="8"/>
-      <c r="K63" t="s">
-        <v>490</v>
-      </c>
-      <c r="L63" s="26" t="str">
+      <c r="I63" s="8"/>
+      <c r="J63" s="26" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M63" s="39" t="str">
-        <f t="array" ref="M63">IF(L63="Y",MAX(IF(WnSAssignmentHarbourCruise=$A63,TaskRankRequirements)),"")</f>
+      <c r="K63" s="39" t="str">
+        <f t="array" ref="K63">IF(J63="Y",MAX(IF(WnSAssignmentHarbourCruise=$A63,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
       <c r="N63" s="39"/>
       <c r="O63" s="39"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="66"/>
-      <c r="S63" t="s">
-        <v>490</v>
-      </c>
-      <c r="T63" s="26" t="str">
+      <c r="P63" s="66"/>
+      <c r="Q63" s="26" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
       <c r="U63" s="39"/>
       <c r="V63" s="39"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39"/>
-      <c r="Y63" s="39"/>
-      <c r="Z63" s="66"/>
+      <c r="W63" s="66"/>
+      <c r="X63" s="56"/>
+      <c r="Y63" s="56"/>
+      <c r="Z63" s="56"/>
       <c r="AA63" s="56"/>
       <c r="AB63" s="56"/>
       <c r="AC63" s="56"/>
-      <c r="AD63" s="56"/>
-      <c r="AE63" s="56"/>
-      <c r="AF63" s="56"/>
-      <c r="AG63" s="57"/>
-    </row>
-    <row r="64" spans="1:33">
+      <c r="AD63" s="57"/>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" t="s">
         <v>459</v>
       </c>
@@ -35229,56 +34653,47 @@
         <v>364</v>
       </c>
       <c r="C64" s="83"/>
-      <c r="D64" t="s">
-        <v>490</v>
-      </c>
-      <c r="E64" s="22" t="str">
+      <c r="D64" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="8"/>
-      <c r="K64" t="s">
-        <v>490</v>
-      </c>
-      <c r="L64" s="26" t="str">
+      <c r="I64" s="8"/>
+      <c r="J64" s="26" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M64" s="39" t="str">
-        <f t="array" ref="M64">IF(L64="Y",MAX(IF(WnSAssignmentHarbourCruise=$A64,TaskRankRequirements)),"")</f>
+      <c r="K64" s="39" t="str">
+        <f t="array" ref="K64">IF(J64="Y",MAX(IF(WnSAssignmentHarbourCruise=$A64,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
       <c r="N64" s="39"/>
       <c r="O64" s="39"/>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="66"/>
-      <c r="S64" t="s">
-        <v>490</v>
-      </c>
-      <c r="T64" s="26" t="str">
+      <c r="P64" s="66"/>
+      <c r="Q64" s="26" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
       <c r="U64" s="39"/>
       <c r="V64" s="39"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
-      <c r="Z64" s="66"/>
+      <c r="W64" s="66"/>
+      <c r="X64" s="56"/>
+      <c r="Y64" s="56"/>
+      <c r="Z64" s="56"/>
       <c r="AA64" s="56"/>
       <c r="AB64" s="56"/>
       <c r="AC64" s="56"/>
-      <c r="AD64" s="56"/>
-      <c r="AE64" s="56"/>
-      <c r="AF64" s="56"/>
-      <c r="AG64" s="57"/>
-    </row>
-    <row r="65" spans="1:33">
+      <c r="AD64" s="57"/>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" t="s">
         <v>459</v>
       </c>
@@ -35286,56 +34701,47 @@
         <v>440</v>
       </c>
       <c r="C65" s="93"/>
-      <c r="D65" t="s">
-        <v>490</v>
-      </c>
-      <c r="E65" s="22" t="str">
+      <c r="D65" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="8"/>
-      <c r="K65" t="s">
-        <v>490</v>
-      </c>
-      <c r="L65" s="22" t="str">
+      <c r="I65" s="8"/>
+      <c r="J65" s="22" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M65" s="7" t="str">
-        <f t="array" ref="M65">IF(L65="Y",MAX(IF(WnSAssignmentHarbourCruise=$A65,TaskRankRequirements)),"")</f>
+      <c r="K65" s="7" t="str">
+        <f t="array" ref="K65">IF(J65="Y",MAX(IF(WnSAssignmentHarbourCruise=$A65,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="8"/>
-      <c r="S65" t="s">
-        <v>490</v>
-      </c>
-      <c r="T65" s="22" t="str">
+      <c r="P65" s="8"/>
+      <c r="Q65" s="22" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
-      <c r="W65" s="7"/>
+      <c r="W65" s="8"/>
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
-      <c r="Z65" s="8"/>
+      <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
       <c r="AC65" s="7"/>
-      <c r="AD65" s="7"/>
-      <c r="AE65" s="7"/>
-      <c r="AF65" s="7"/>
-      <c r="AG65" s="8"/>
-    </row>
-    <row r="66" spans="1:33">
+      <c r="AD65" s="8"/>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" s="39" t="s">
         <v>459</v>
       </c>
@@ -35343,56 +34749,47 @@
         <v>441</v>
       </c>
       <c r="C66" s="81"/>
-      <c r="D66" t="s">
-        <v>490</v>
-      </c>
-      <c r="E66" s="22" t="str">
+      <c r="D66" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="8"/>
-      <c r="K66" t="s">
-        <v>490</v>
-      </c>
-      <c r="L66" s="22" t="str">
+      <c r="I66" s="8"/>
+      <c r="J66" s="22" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M66" s="7" t="str">
-        <f t="array" ref="M66">IF(L66="Y",MAX(IF(WnSAssignmentHarbourCruise=$A66,TaskRankRequirements)),"")</f>
+      <c r="K66" s="7" t="str">
+        <f t="array" ref="K66">IF(J66="Y",MAX(IF(WnSAssignmentHarbourCruise=$A66,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="8"/>
-      <c r="S66" t="s">
-        <v>490</v>
-      </c>
-      <c r="T66" s="22" t="str">
+      <c r="P66" s="8"/>
+      <c r="Q66" s="22" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
-      <c r="W66" s="7"/>
+      <c r="W66" s="8"/>
       <c r="X66" s="7"/>
       <c r="Y66" s="7"/>
-      <c r="Z66" s="8"/>
+      <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
       <c r="AB66" s="7"/>
       <c r="AC66" s="7"/>
-      <c r="AD66" s="7"/>
-      <c r="AE66" s="7"/>
-      <c r="AF66" s="7"/>
-      <c r="AG66" s="8"/>
-    </row>
-    <row r="67" spans="1:33">
+      <c r="AD66" s="8"/>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" s="39" t="s">
         <v>459</v>
       </c>
@@ -35400,68 +34797,59 @@
         <v>442</v>
       </c>
       <c r="C67" s="94"/>
-      <c r="D67" t="s">
-        <v>490</v>
-      </c>
-      <c r="E67" s="40" t="str">
+      <c r="D67" s="40" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="E67" s="42"/>
       <c r="F67" s="42"/>
       <c r="G67" s="42"/>
       <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="43"/>
-      <c r="K67" t="s">
-        <v>490</v>
-      </c>
-      <c r="L67" s="40" t="str">
+      <c r="I67" s="43"/>
+      <c r="J67" s="40" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="M67" s="42" t="str">
-        <f t="array" ref="M67">IF(L67="Y",MAX(IF(WnSAssignmentHarbourCruise=$A67,TaskRankRequirements)),"")</f>
+      <c r="K67" s="42" t="str">
+        <f t="array" ref="K67">IF(J67="Y",MAX(IF(WnSAssignmentHarbourCruise=$A67,TaskRankRequirements)),"")</f>
         <v/>
       </c>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
       <c r="N67" s="42"/>
       <c r="O67" s="42"/>
-      <c r="P67" s="42"/>
-      <c r="Q67" s="42"/>
-      <c r="R67" s="43"/>
-      <c r="S67" t="s">
-        <v>490</v>
-      </c>
-      <c r="T67" s="40" t="str">
+      <c r="P67" s="43"/>
+      <c r="Q67" s="40" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
+      <c r="R67" s="42"/>
+      <c r="S67" s="42"/>
+      <c r="T67" s="42"/>
       <c r="U67" s="42"/>
       <c r="V67" s="42"/>
-      <c r="W67" s="42"/>
+      <c r="W67" s="43"/>
       <c r="X67" s="42"/>
       <c r="Y67" s="42"/>
-      <c r="Z67" s="43"/>
+      <c r="Z67" s="42"/>
       <c r="AA67" s="42"/>
       <c r="AB67" s="42"/>
       <c r="AC67" s="42"/>
-      <c r="AD67" s="42"/>
-      <c r="AE67" s="42"/>
-      <c r="AF67" s="42"/>
-      <c r="AG67" s="43"/>
+      <c r="AD67" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="AA1:AG1"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="X1:AD1"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="S3:W3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A67">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -35475,13 +34863,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -35493,7 +34881,7 @@
     <col min="6" max="9" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18">
+    <row r="1" spans="1:9" ht="18">
       <c r="D1" s="125" t="s">
         <v>378</v>
       </c>
@@ -35503,7 +34891,7 @@
       <c r="H1" s="126"/>
       <c r="I1" s="127"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="C2" s="38" t="s">
         <v>391</v>
       </c>
@@ -35517,7 +34905,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="22"/>
@@ -35530,11 +34918,8 @@
       <c r="G3" s="123"/>
       <c r="H3" s="123"/>
       <c r="I3" s="124"/>
-      <c r="J3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>376</v>
       </c>
@@ -35559,9 +34944,9 @@
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B5" s="84" t="s">
         <v>381</v>
@@ -35586,9 +34971,9 @@
       <c r="H5" s="87"/>
       <c r="I5" s="88"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>382</v>
@@ -35613,7 +34998,7 @@
       <c r="H6" s="54"/>
       <c r="I6" s="55"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="A7" s="39" t="s">
         <v>459</v>
       </c>
@@ -35636,7 +35021,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9">
       <c r="A8" s="39" t="s">
         <v>459</v>
       </c>
@@ -35656,7 +35041,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:9">
       <c r="A9" s="39" t="s">
         <v>459</v>
       </c>
@@ -35679,7 +35064,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:9">
       <c r="A10" s="108" t="s">
         <v>459</v>
       </c>
@@ -35700,9 +35085,9 @@
       <c r="H10" s="42"/>
       <c r="I10" s="43"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>380</v>
@@ -35731,9 +35116,9 @@
         <v>425</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B12" s="67" t="s">
         <v>429</v>
@@ -35758,7 +35143,7 @@
       <c r="H12" s="54"/>
       <c r="I12" s="55"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>459</v>
       </c>
@@ -35781,7 +35166,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>459</v>
       </c>
@@ -35804,9 +35189,9 @@
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B15" s="67" t="s">
         <v>430</v>
@@ -35835,9 +35220,9 @@
         <v>403</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B16" s="72" t="s">
         <v>431</v>
@@ -35902,7 +35287,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B19" s="72" t="s">
         <v>432</v>
@@ -35925,7 +35310,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B20" s="72" t="s">
         <v>432</v>
@@ -35946,7 +35331,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B21" s="72" t="s">
         <v>432</v>
@@ -36051,7 +35436,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B26" s="67" t="s">
         <v>433</v>
@@ -36076,7 +35461,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B27" s="67" t="s">
         <v>433</v>
@@ -36101,7 +35486,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B28" s="67" t="s">
         <v>433</v>
@@ -36126,7 +35511,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>433</v>
@@ -36913,7 +36298,7 @@
     <mergeCell ref="F3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A67">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -38527,6 +37912,1675 @@
     <mergeCell ref="F3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A67">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="2" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20">
+      <c r="D1" s="120" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="122"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="22">
+        <f>COUNTIF(D5:D67,"Y")</f>
+        <v>14</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="123" t="s">
+        <v>393</v>
+      </c>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="124"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5" s="85" t="str">
+        <f t="shared" ref="D5:D67" si="0">IF(COUNTIF(WnSAssignmentDaySail,$A5)&gt;0,"Y","-")</f>
+        <v>-</v>
+      </c>
+      <c r="E5" s="87" t="str">
+        <f t="shared" ref="E5:E9" si="1">IF(D5="Y",MAX(IF(WnSAssignmentHarbourCruise=$A5,TaskRankRequirements)),"")</f>
+        <v/>
+      </c>
+      <c r="F5" s="87" t="s">
+        <v>306</v>
+      </c>
+      <c r="G5" s="87" t="s">
+        <v>306</v>
+      </c>
+      <c r="H5" s="87" t="s">
+        <v>306</v>
+      </c>
+      <c r="I5" s="86" t="s">
+        <v>306</v>
+      </c>
+      <c r="J5" s="111" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E6" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="91"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>426</v>
+      </c>
+      <c r="D7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="66"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>427</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>427</v>
+      </c>
+      <c r="D8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E8" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>428</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>428</v>
+      </c>
+      <c r="D9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E9" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="108" t="s">
+        <v>459</v>
+      </c>
+      <c r="B10" s="109" t="s">
+        <v>460</v>
+      </c>
+      <c r="C10" s="110"/>
+      <c r="D10" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>380</v>
+      </c>
+      <c r="D11" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E11" s="54" t="str">
+        <f t="shared" ref="E11:E51" si="2">IF(D11="Y",MAX(IF(WnSAssignmentHarbourCruise=$A11,TaskRankRequirements)),"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>425</v>
+      </c>
+      <c r="J11" s="91" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>429</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>452</v>
+      </c>
+      <c r="D12" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E12" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>448</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>450</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>449</v>
+      </c>
+      <c r="J12" s="91"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>467</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>429</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>453</v>
+      </c>
+      <c r="D13" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E13" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>412</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>447</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>447</v>
+      </c>
+      <c r="I13" s="60" t="s">
+        <v>447</v>
+      </c>
+      <c r="J13" s="61"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>459</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>429</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>454</v>
+      </c>
+      <c r="D14" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E14" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="66"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>468</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>430</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>368</v>
+      </c>
+      <c r="D15" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E15" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>448</v>
+      </c>
+      <c r="J15" s="91"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>431</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>455</v>
+      </c>
+      <c r="D16" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E16" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60" t="s">
+        <v>421</v>
+      </c>
+      <c r="J16" s="61"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>459</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="C17" s="79"/>
+      <c r="D17" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E17" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="66"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>459</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="C18" s="79"/>
+      <c r="D18" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E18" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="66"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>469</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>432</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>358</v>
+      </c>
+      <c r="D19" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E19" s="60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="I19" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="J19" s="61"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>470</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>432</v>
+      </c>
+      <c r="C20" s="99"/>
+      <c r="D20" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E20" s="60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="H20" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="I20" s="60" t="s">
+        <v>456</v>
+      </c>
+      <c r="J20" s="61"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>471</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>432</v>
+      </c>
+      <c r="C21" s="99"/>
+      <c r="D21" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E21" s="60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="H21" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="I21" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="J21" s="61"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>459</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>432</v>
+      </c>
+      <c r="C22" s="79"/>
+      <c r="D22" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E22" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="66"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>459</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>432</v>
+      </c>
+      <c r="C23" s="79"/>
+      <c r="D23" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E23" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="66"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>459</v>
+      </c>
+      <c r="B24" s="74" t="s">
+        <v>432</v>
+      </c>
+      <c r="C24" s="80"/>
+      <c r="D24" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E24" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>459</v>
+      </c>
+      <c r="B25" s="74" t="s">
+        <v>432</v>
+      </c>
+      <c r="C25" s="80"/>
+      <c r="D25" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E25" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>472</v>
+      </c>
+      <c r="B26" s="67" t="s">
+        <v>433</v>
+      </c>
+      <c r="C26" s="98"/>
+      <c r="D26" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E26" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>445</v>
+      </c>
+      <c r="H26" s="54" t="s">
+        <v>398</v>
+      </c>
+      <c r="I26" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="J26" s="91"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>473</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>433</v>
+      </c>
+      <c r="C27" s="98"/>
+      <c r="D27" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E27" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="G27" s="54" t="s">
+        <v>446</v>
+      </c>
+      <c r="H27" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="J27" s="91"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>474</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>433</v>
+      </c>
+      <c r="C28" s="98"/>
+      <c r="D28" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E28" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>445</v>
+      </c>
+      <c r="H28" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="I28" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="J28" s="91"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>475</v>
+      </c>
+      <c r="B29" s="67" t="s">
+        <v>433</v>
+      </c>
+      <c r="C29" s="98"/>
+      <c r="D29" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E29" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>446</v>
+      </c>
+      <c r="H29" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="I29" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="J29" s="91"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>476</v>
+      </c>
+      <c r="B30" s="75" t="s">
+        <v>434</v>
+      </c>
+      <c r="C30" s="100" t="s">
+        <v>369</v>
+      </c>
+      <c r="D30" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E30" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="H30" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="I30" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="J30" s="65" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>477</v>
+      </c>
+      <c r="B31" s="75" t="s">
+        <v>434</v>
+      </c>
+      <c r="C31" s="100" t="s">
+        <v>388</v>
+      </c>
+      <c r="D31" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E31" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="G31" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="H31" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="I31" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="J31" s="65"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>478</v>
+      </c>
+      <c r="B32" s="75" t="s">
+        <v>434</v>
+      </c>
+      <c r="C32" s="100"/>
+      <c r="D32" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E32" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="H32" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="I32" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="J32" s="65"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>370</v>
+      </c>
+      <c r="B33" s="75" t="s">
+        <v>434</v>
+      </c>
+      <c r="C33" s="100"/>
+      <c r="D33" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E33" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="H33" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="I33" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="J33" s="65"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>479</v>
+      </c>
+      <c r="B34" s="75" t="s">
+        <v>434</v>
+      </c>
+      <c r="C34" s="100"/>
+      <c r="D34" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E34" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="G34" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="H34" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="I34" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="J34" s="65"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>371</v>
+      </c>
+      <c r="B35" s="75" t="s">
+        <v>434</v>
+      </c>
+      <c r="C35" s="100" t="s">
+        <v>374</v>
+      </c>
+      <c r="D35" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E35" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="G35" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="H35" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="I35" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="J35" s="65"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>372</v>
+      </c>
+      <c r="B36" s="72" t="s">
+        <v>434</v>
+      </c>
+      <c r="C36" s="99"/>
+      <c r="D36" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E36" s="60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="H36" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="I36" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="J36" s="61"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>359</v>
+      </c>
+      <c r="B37" s="72" t="s">
+        <v>434</v>
+      </c>
+      <c r="C37" s="99"/>
+      <c r="D37" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E37" s="60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="H37" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="I37" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="J37" s="61"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>373</v>
+      </c>
+      <c r="B38" s="72" t="s">
+        <v>434</v>
+      </c>
+      <c r="C38" s="99"/>
+      <c r="D38" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E38" s="60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="H38" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="I38" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="J38" s="61"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>360</v>
+      </c>
+      <c r="B39" s="72" t="s">
+        <v>434</v>
+      </c>
+      <c r="C39" s="99"/>
+      <c r="D39" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E39" s="60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="H39" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="I39" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="J39" s="61"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>459</v>
+      </c>
+      <c r="B40" s="73" t="s">
+        <v>434</v>
+      </c>
+      <c r="C40" s="79"/>
+      <c r="D40" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E40" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="66"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B41" s="74" t="s">
+        <v>434</v>
+      </c>
+      <c r="C41" s="80"/>
+      <c r="D41" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E41" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>459</v>
+      </c>
+      <c r="B42" s="74" t="s">
+        <v>434</v>
+      </c>
+      <c r="C42" s="80"/>
+      <c r="D42" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E42" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>459</v>
+      </c>
+      <c r="B43" s="74" t="s">
+        <v>434</v>
+      </c>
+      <c r="C43" s="80"/>
+      <c r="D43" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E43" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>459</v>
+      </c>
+      <c r="B44" s="74" t="s">
+        <v>434</v>
+      </c>
+      <c r="C44" s="80"/>
+      <c r="D44" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E44" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>459</v>
+      </c>
+      <c r="B45" s="74" t="s">
+        <v>434</v>
+      </c>
+      <c r="C45" s="80"/>
+      <c r="D45" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E45" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>459</v>
+      </c>
+      <c r="B46" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="C46" s="101"/>
+      <c r="D46" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E46" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>459</v>
+      </c>
+      <c r="B47" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="C47" s="101"/>
+      <c r="D47" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E47" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>459</v>
+      </c>
+      <c r="B48" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="C48" s="101"/>
+      <c r="D48" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E48" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>459</v>
+      </c>
+      <c r="B49" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="C49" s="101"/>
+      <c r="D49" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E49" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>459</v>
+      </c>
+      <c r="B50" s="76"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E50" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="B51" s="77" t="s">
+        <v>436</v>
+      </c>
+      <c r="C51" s="107"/>
+      <c r="D51" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E51" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="43"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>457</v>
+      </c>
+      <c r="B52" s="67" t="s">
+        <v>383</v>
+      </c>
+      <c r="C52" s="98"/>
+      <c r="D52" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E52" s="53"/>
+      <c r="F52" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="G52" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="H52" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="I52" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="J52" s="91"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>458</v>
+      </c>
+      <c r="B53" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="C53" s="78"/>
+      <c r="D53" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="G53" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="H53" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="I53" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="J53" s="65"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>459</v>
+      </c>
+      <c r="B54" s="73" t="s">
+        <v>438</v>
+      </c>
+      <c r="C54" s="79"/>
+      <c r="D54" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="66"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>459</v>
+      </c>
+      <c r="B55" s="74" t="s">
+        <v>438</v>
+      </c>
+      <c r="C55" s="80"/>
+      <c r="D55" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>459</v>
+      </c>
+      <c r="B56" s="70"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="B57" s="105" t="s">
+        <v>439</v>
+      </c>
+      <c r="C57" s="106"/>
+      <c r="D57" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="43"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>362</v>
+      </c>
+      <c r="B58" s="102" t="s">
+        <v>408</v>
+      </c>
+      <c r="C58" s="78"/>
+      <c r="D58" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="I58" s="64"/>
+      <c r="J58" s="65"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>459</v>
+      </c>
+      <c r="B59" s="74" t="s">
+        <v>367</v>
+      </c>
+      <c r="C59" s="80"/>
+      <c r="D59" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>363</v>
+      </c>
+      <c r="B60" s="102" t="s">
+        <v>364</v>
+      </c>
+      <c r="C60" s="78"/>
+      <c r="D60" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="I60" s="64"/>
+      <c r="J60" s="65"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>365</v>
+      </c>
+      <c r="B61" s="102" t="s">
+        <v>364</v>
+      </c>
+      <c r="C61" s="78"/>
+      <c r="D61" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="I61" s="64"/>
+      <c r="J61" s="65"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>366</v>
+      </c>
+      <c r="B62" s="103" t="s">
+        <v>364</v>
+      </c>
+      <c r="C62" s="82"/>
+      <c r="D62" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60" t="s">
+        <v>410</v>
+      </c>
+      <c r="I62" s="60"/>
+      <c r="J62" s="61"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>459</v>
+      </c>
+      <c r="B63" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="C63" s="83"/>
+      <c r="D63" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="66"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>459</v>
+      </c>
+      <c r="B64" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="C64" s="83"/>
+      <c r="D64" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="66"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>459</v>
+      </c>
+      <c r="B65" s="92" t="s">
+        <v>440</v>
+      </c>
+      <c r="C65" s="93"/>
+      <c r="D65" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="B66" s="70" t="s">
+        <v>441</v>
+      </c>
+      <c r="C66" s="81"/>
+      <c r="D66" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="B67" s="104" t="s">
+        <v>442</v>
+      </c>
+      <c r="C67" s="94"/>
+      <c r="D67" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="F3:J3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A5:A67">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -38539,7 +39593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H200"/>
   <sheetViews>
@@ -43670,9 +44724,9 @@
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
         <v>0</v>
       </c>
-      <c r="G151" t="str">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-F18</v>
+      <c r="G151">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>0</v>
       </c>
       <c r="H151" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -43704,9 +44758,9 @@
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
         <v>0</v>
       </c>
-      <c r="G152" t="str">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-F18</v>
+      <c r="G152">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>0</v>
       </c>
       <c r="H152" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -43738,9 +44792,9 @@
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
         <v>0</v>
       </c>
-      <c r="G153" t="str">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-F18</v>
+      <c r="G153">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>0</v>
       </c>
       <c r="H153" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -43772,9 +44826,9 @@
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
         <v>0</v>
       </c>
-      <c r="G154" t="str">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-F18</v>
+      <c r="G154">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>0</v>
       </c>
       <c r="H154" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45362,7 +46416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E86"/>
   <sheetViews>
@@ -46073,7 +47127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:B64"/>
   <sheetViews>

--- a/poc/jc_skills_grid.xlsx
+++ b/poc/jc_skills_grid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr date1904="1" showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38300" windowHeight="25300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="38300" windowHeight="25300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Skills Grid" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="506">
   <si>
     <t>Respond to an MOB</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1714,9 +1714,6 @@
   </si>
   <si>
     <t>MS-M4</t>
-  </si>
-  <si>
-    <t>MS-M9</t>
   </si>
   <si>
     <t>MS-F1</t>
@@ -4258,11 +4255,11 @@
   </sheetPr>
   <dimension ref="A1:JJ132"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="DT4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="EN9" sqref="EN9"/>
+      <selection pane="bottomRight" activeCell="FC7" sqref="FC7:FG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -7218,35 +7215,25 @@
       <c r="EZ7" s="14"/>
       <c r="FA7" s="9"/>
       <c r="FB7" s="10"/>
-      <c r="FC7" s="9" t="s">
+      <c r="FC7" s="9"/>
+      <c r="FD7" s="9"/>
+      <c r="FE7" s="9"/>
+      <c r="FF7" s="9"/>
+      <c r="FG7" s="9"/>
+      <c r="FH7" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="FD7" s="9" t="s">
+      <c r="FI7" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="FE7" s="9" t="s">
+      <c r="FJ7" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="FF7" s="9" t="s">
+      <c r="FK7" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="FG7" s="9" t="s">
+      <c r="FL7" s="9" t="s">
         <v>491</v>
-      </c>
-      <c r="FH7" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="FI7" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="FJ7" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="FK7" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="FL7" s="9" t="s">
-        <v>492</v>
       </c>
       <c r="FM7" s="9"/>
       <c r="FN7" s="9"/>
@@ -7259,7 +7246,7 @@
       <c r="FU7" s="9"/>
       <c r="FV7" s="9"/>
       <c r="FW7" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="FX7" s="9"/>
       <c r="FY7" s="9"/>
@@ -7273,17 +7260,17 @@
       <c r="GG7" s="9"/>
       <c r="GH7" s="9"/>
       <c r="GI7" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="GJ7" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="GK7" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="GL7" s="9"/>
       <c r="GM7" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="GN7" s="9"/>
       <c r="GO7" s="9"/>
@@ -7302,16 +7289,16 @@
       <c r="HB7" s="9"/>
       <c r="HC7" s="9"/>
       <c r="HD7" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="HH7" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="HH7" s="2" t="s">
+      <c r="HK7" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="HK7" s="2" t="s">
-        <v>500</v>
-      </c>
       <c r="HN7" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:270" s="31" customFormat="1" ht="14">
@@ -30899,11 +30886,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q1:Q1048576"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -34869,7 +34856,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -34897,7 +34884,7 @@
       </c>
       <c r="D2" s="16">
         <f>COUNTIF(D5:D67,"Y")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -34946,7 +34933,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B5" s="84" t="s">
         <v>381</v>
@@ -34973,7 +34960,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>382</v>
@@ -35087,7 +35074,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>380</v>
@@ -35118,7 +35105,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B12" s="67" t="s">
         <v>429</v>
@@ -35222,7 +35209,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B16" s="72" t="s">
         <v>431</v>
@@ -35287,7 +35274,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B19" s="72" t="s">
         <v>432</v>
@@ -35310,7 +35297,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B20" s="72" t="s">
         <v>432</v>
@@ -35331,7 +35318,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B21" s="72" t="s">
         <v>432</v>
@@ -35436,7 +35423,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B26" s="67" t="s">
         <v>433</v>
@@ -35461,7 +35448,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B27" s="67" t="s">
         <v>433</v>
@@ -35486,7 +35473,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B28" s="67" t="s">
         <v>433</v>
@@ -35511,7 +35498,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>433</v>
@@ -36002,7 +35989,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
       <c r="B52" s="67" t="s">
         <v>383</v>
@@ -36010,7 +35997,7 @@
       <c r="C52" s="98"/>
       <c r="D52" s="52" t="str">
         <f t="array" ref="D52">IF(OR(ISNUMBER(SEARCH(","&amp;$A52&amp;",",","&amp;WnSAssignmentMoveShip&amp;","))),"Y","-")</f>
-        <v>-</v>
+        <v>Y</v>
       </c>
       <c r="E52" s="53">
         <v>4</v>
@@ -44962,9 +44949,9 @@
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
         <v>0</v>
       </c>
-      <c r="G158" t="str">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-M9</v>
+      <c r="G158">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>0</v>
       </c>
       <c r="H158" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -44996,9 +44983,9 @@
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
         <v>0</v>
       </c>
-      <c r="G159" t="str">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-M9</v>
+      <c r="G159">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>0</v>
       </c>
       <c r="H159" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45030,9 +45017,9 @@
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
         <v>0</v>
       </c>
-      <c r="G160" t="str">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-M9</v>
+      <c r="G160">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>0</v>
       </c>
       <c r="H160" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45064,9 +45051,9 @@
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
         <v>0</v>
       </c>
-      <c r="G161" t="str">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-M9</v>
+      <c r="G161">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>0</v>
       </c>
       <c r="H161" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45098,9 +45085,9 @@
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
         <v>0</v>
       </c>
-      <c r="G162" t="str">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-M9</v>
+      <c r="G162">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>0</v>
       </c>
       <c r="H162" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>

--- a/poc/jc_skills_grid.xlsx
+++ b/poc/jc_skills_grid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr date1904="1" showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38300" windowHeight="25300" tabRatio="500"/>
+    <workbookView xWindow="12460" yWindow="40" windowWidth="38300" windowHeight="25300" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Skills Grid" sheetId="2" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="BillAssignmentRef">'Skills Grid'!$C$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Skills Grid'!$EN$5:$HB$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Skills Grid'!$EN$5:$GZ$90</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Skills Grid'!$A:$D,'Skills Grid'!$1:$3</definedName>
     <definedName name="SkillsRef">'Skills Grid'!$A$12</definedName>
-    <definedName name="TaskRankRequirements">'Skills Grid'!$E$5:$HA$5</definedName>
+    <definedName name="TaskRankRequirements">'Skills Grid'!$E$5:$GY$5</definedName>
     <definedName name="TasksRef">'Skills Grid'!$C$1</definedName>
-    <definedName name="WnSAssignmentDaySail">'Skills Grid'!$E$11:$HA$11</definedName>
-    <definedName name="WnSAssignmentHarbourCruise">'Skills Grid'!$E$9:$JJ$9</definedName>
-    <definedName name="WnSAssignmentMoveShip">'Skills Grid'!$E$7:$IZ$7</definedName>
+    <definedName name="WnSAssignmentDaySail">'Skills Grid'!$E$11:$GY$11</definedName>
+    <definedName name="WnSAssignmentHarbourCruise">'Skills Grid'!$E$9:$JH$9</definedName>
+    <definedName name="WnSAssignmentMoveShip">'Skills Grid'!$E$7:$IX$7</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="529">
   <si>
     <t>Respond to an MOB</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1395,9 +1395,6 @@
     <t>Chief Engineer</t>
   </si>
   <si>
-    <t>Seaboat Coxain</t>
-  </si>
-  <si>
     <t>Prepare the seaboat</t>
   </si>
   <si>
@@ -1713,52 +1710,124 @@
     <t>Harbour Cruise</t>
   </si>
   <si>
-    <t>MS-M4</t>
-  </si>
-  <si>
-    <t>MS-F1</t>
-  </si>
-  <si>
-    <t>MS-M3</t>
-  </si>
-  <si>
-    <t>MS-M3,MS-F1</t>
-  </si>
-  <si>
-    <t>MS-M6</t>
-  </si>
-  <si>
-    <t>MS-F6</t>
-  </si>
-  <si>
-    <t>MS-M7</t>
-  </si>
-  <si>
-    <t>MS-M1</t>
-  </si>
-  <si>
-    <t>MS-M20</t>
-  </si>
-  <si>
-    <t>MS-F2</t>
-  </si>
-  <si>
-    <t>MS-M14</t>
-  </si>
-  <si>
-    <t>MS-F4</t>
-  </si>
-  <si>
-    <t>MS-M5</t>
-  </si>
-  <si>
-    <t>MS-F5</t>
-  </si>
-  <si>
-    <t>MS-F7</t>
-  </si>
-  <si>
-    <t>MS-F6,MS-F7</t>
+    <t>Seaboat Coxain &amp; Crew</t>
+  </si>
+  <si>
+    <t>mM4</t>
+  </si>
+  <si>
+    <t>mF1</t>
+  </si>
+  <si>
+    <t>mM3,mF1</t>
+  </si>
+  <si>
+    <t>mM6</t>
+  </si>
+  <si>
+    <t>mM3</t>
+  </si>
+  <si>
+    <t>mF6,mF7</t>
+  </si>
+  <si>
+    <t>mM7</t>
+  </si>
+  <si>
+    <t>mM1</t>
+  </si>
+  <si>
+    <t>mM20</t>
+  </si>
+  <si>
+    <t>mF2</t>
+  </si>
+  <si>
+    <t>mF6</t>
+  </si>
+  <si>
+    <t>mF7</t>
+  </si>
+  <si>
+    <t>hM1</t>
+  </si>
+  <si>
+    <t>hM8</t>
+  </si>
+  <si>
+    <t>hF18</t>
+  </si>
+  <si>
+    <t>hM11</t>
+  </si>
+  <si>
+    <t>hF1</t>
+  </si>
+  <si>
+    <t>hM4</t>
+  </si>
+  <si>
+    <t>hF9</t>
+  </si>
+  <si>
+    <t>hM10</t>
+  </si>
+  <si>
+    <t>hM3</t>
+  </si>
+  <si>
+    <t>hM9</t>
+  </si>
+  <si>
+    <t>hF8</t>
+  </si>
+  <si>
+    <t>hM20</t>
+  </si>
+  <si>
+    <t>hF2</t>
+  </si>
+  <si>
+    <t>hM21</t>
+  </si>
+  <si>
+    <t>hF20</t>
+  </si>
+  <si>
+    <t>hF21</t>
+  </si>
+  <si>
+    <t>hM6</t>
+  </si>
+  <si>
+    <t>hM7</t>
+  </si>
+  <si>
+    <t>hF6</t>
+  </si>
+  <si>
+    <t>hF7</t>
+  </si>
+  <si>
+    <t>hF22</t>
+  </si>
+  <si>
+    <t>hF9,HM10</t>
+  </si>
+  <si>
+    <t>F09,M10</t>
+  </si>
+  <si>
+    <t>hM9,hF8</t>
+  </si>
+  <si>
+    <t>sM9,sF8</t>
+  </si>
+  <si>
+    <t>hM9,hM6,hF6,hM7,hF7</t>
+  </si>
+  <si>
+    <t>hF21,hF22</t>
   </si>
 </sst>
 </file>
@@ -1968,8 +2037,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="313">
+  <cellStyleXfs count="333">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2599,7 +2688,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="313">
+  <cellStyles count="333">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2756,6 +2845,16 @@
     <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2912,9 +3011,215 @@
     <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.249977111117893"/>
@@ -2922,6 +3227,52 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -4253,13 +4604,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:JJ132"/>
+  <dimension ref="A1:JH132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="DT4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="FF4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="FC7" sqref="FC7:FG7"/>
+      <selection pane="bottomRight" activeCell="HR10" sqref="HR10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4347,23 +4698,23 @@
     <col min="164" max="165" width="3.140625" customWidth="1"/>
     <col min="166" max="174" width="3.140625" style="7" customWidth="1"/>
     <col min="175" max="175" width="3.140625" style="16" customWidth="1"/>
-    <col min="176" max="186" width="3.140625" style="7" customWidth="1"/>
-    <col min="187" max="187" width="3.140625" style="16" customWidth="1"/>
-    <col min="188" max="190" width="3.140625" style="7" customWidth="1"/>
-    <col min="191" max="191" width="3.140625" style="16"/>
-    <col min="192" max="193" width="3.140625" style="7"/>
-    <col min="194" max="194" width="3.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="195" max="197" width="3.140625" style="7"/>
-    <col min="198" max="198" width="3.140625" style="16"/>
-    <col min="199" max="204" width="3.140625" style="7"/>
-    <col min="205" max="205" width="3.140625" style="16"/>
-    <col min="206" max="208" width="3.140625" style="7"/>
-    <col min="209" max="209" width="3.140625" style="16"/>
-    <col min="210" max="211" width="3.140625" style="7"/>
-    <col min="212" max="212" width="3.140625" style="16"/>
+    <col min="176" max="184" width="3.140625" style="7" customWidth="1"/>
+    <col min="185" max="185" width="3.140625" style="16" customWidth="1"/>
+    <col min="186" max="188" width="3.140625" style="7" customWidth="1"/>
+    <col min="189" max="189" width="3.140625" style="16"/>
+    <col min="190" max="191" width="3.140625" style="7"/>
+    <col min="192" max="192" width="3.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="193" max="195" width="3.140625" style="7"/>
+    <col min="196" max="196" width="3.140625" style="16"/>
+    <col min="197" max="202" width="3.140625" style="7"/>
+    <col min="203" max="203" width="3.140625" style="16"/>
+    <col min="204" max="206" width="3.140625" style="7"/>
+    <col min="207" max="207" width="3.140625" style="16"/>
+    <col min="208" max="209" width="3.140625" style="7"/>
+    <col min="210" max="210" width="3.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" ht="18">
+    <row r="1" spans="1:268" ht="18">
       <c r="C1" t="s">
         <v>224</v>
       </c>
@@ -4395,20 +4746,20 @@
       <c r="FS1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="GI1" s="13" t="s">
+      <c r="GG1" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="HD1" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="HN1" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="HS1" s="13" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="2" spans="1:270" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="HB1" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="HL1" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="HQ1" s="13" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:268" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="C2" s="30" t="s">
         <v>273</v>
       </c>
@@ -4638,12 +4989,12 @@
       <c r="FK2" s="116"/>
       <c r="FL2" s="116"/>
       <c r="FM2" s="116" t="s">
-        <v>384</v>
+        <v>489</v>
       </c>
       <c r="FN2" s="116"/>
       <c r="FO2" s="116"/>
       <c r="FP2" s="116" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="FQ2" s="116"/>
       <c r="FR2" s="116"/>
@@ -4658,67 +5009,65 @@
       <c r="FY2" s="118"/>
       <c r="FZ2" s="118"/>
       <c r="GA2" s="118"/>
-      <c r="GB2" s="118"/>
-      <c r="GC2" s="118"/>
-      <c r="GD2" s="49"/>
-      <c r="GE2" s="118" t="s">
+      <c r="GB2" s="49"/>
+      <c r="GC2" s="118" t="s">
         <v>276</v>
       </c>
+      <c r="GD2" s="118"/>
+      <c r="GE2" s="118"/>
       <c r="GF2" s="118"/>
-      <c r="GG2" s="118"/>
+      <c r="GG2" s="118" t="s">
+        <v>252</v>
+      </c>
       <c r="GH2" s="118"/>
-      <c r="GI2" s="118" t="s">
-        <v>252</v>
-      </c>
+      <c r="GI2" s="118"/>
       <c r="GJ2" s="118"/>
       <c r="GK2" s="118"/>
       <c r="GL2" s="118"/>
       <c r="GM2" s="118"/>
-      <c r="GN2" s="118"/>
+      <c r="GN2" s="118" t="s">
+        <v>259</v>
+      </c>
       <c r="GO2" s="118"/>
-      <c r="GP2" s="118" t="s">
-        <v>259</v>
-      </c>
+      <c r="GP2" s="118"/>
       <c r="GQ2" s="118"/>
       <c r="GR2" s="118"/>
       <c r="GS2" s="118"/>
       <c r="GT2" s="118"/>
-      <c r="GU2" s="118"/>
+      <c r="GU2" s="118" t="s">
+        <v>267</v>
+      </c>
       <c r="GV2" s="118"/>
-      <c r="GW2" s="118" t="s">
-        <v>267</v>
-      </c>
+      <c r="GW2" s="118"/>
       <c r="GX2" s="118"/>
-      <c r="GY2" s="118"/>
+      <c r="GY2" s="118" t="s">
+        <v>272</v>
+      </c>
       <c r="GZ2" s="118"/>
-      <c r="HA2" s="118" t="s">
-        <v>272</v>
-      </c>
-      <c r="HB2" s="118"/>
+      <c r="HA2" s="118"/>
+      <c r="HB2" s="119" t="s">
+        <v>460</v>
+      </c>
       <c r="HC2" s="118"/>
-      <c r="HD2" s="119" t="s">
-        <v>461</v>
-      </c>
+      <c r="HD2" s="118"/>
       <c r="HE2" s="118"/>
-      <c r="HF2" s="118"/>
-      <c r="HG2" s="118"/>
-      <c r="HH2" s="116" t="s">
+      <c r="HF2" s="116" t="s">
         <v>383</v>
       </c>
-      <c r="HI2" s="116"/>
+      <c r="HG2" s="116"/>
+      <c r="HH2" s="116"/>
+      <c r="HI2" s="116" t="s">
+        <v>380</v>
+      </c>
       <c r="HJ2" s="116"/>
-      <c r="HK2" s="116" t="s">
-        <v>380</v>
-      </c>
-      <c r="HL2" s="116"/>
+      <c r="HK2" s="116"/>
+      <c r="HL2" s="116" t="s">
+        <v>480</v>
+      </c>
       <c r="HM2" s="116"/>
-      <c r="HN2" s="116" t="s">
-        <v>481</v>
-      </c>
-      <c r="HO2" s="116"/>
-      <c r="HP2" s="116"/>
-    </row>
-    <row r="3" spans="1:270" s="2" customFormat="1" ht="188" customHeight="1">
+      <c r="HN2" s="116"/>
+    </row>
+    <row r="3" spans="1:268" s="2" customFormat="1" ht="188" customHeight="1">
       <c r="C3" s="48" t="s">
         <v>251</v>
       </c>
@@ -5204,16 +5553,16 @@
         <v>220</v>
       </c>
       <c r="FM3" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="FN3" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="FN3" s="9" t="s">
+      <c r="FO3" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="FO3" s="9" t="s">
-        <v>387</v>
-      </c>
       <c r="FP3" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="FQ3" s="9"/>
       <c r="FR3" s="9"/>
@@ -5227,120 +5576,114 @@
         <v>279</v>
       </c>
       <c r="FV3" s="9" t="s">
-        <v>279</v>
+        <v>388</v>
       </c>
       <c r="FW3" s="9" t="s">
         <v>389</v>
       </c>
       <c r="FX3" s="9" t="s">
-        <v>390</v>
+        <v>226</v>
       </c>
       <c r="FY3" s="9" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="FZ3" s="9" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="GA3" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="GB3" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="GC3" s="9" t="s">
         <v>281</v>
       </c>
+      <c r="GC3" s="14" t="s">
+        <v>221</v>
+      </c>
       <c r="GD3" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="GE3" s="14" t="s">
-        <v>221</v>
+        <v>277</v>
+      </c>
+      <c r="GE3" s="9" t="s">
+        <v>299</v>
       </c>
       <c r="GF3" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="GG3" s="9" t="s">
-        <v>299</v>
+        <v>278</v>
+      </c>
+      <c r="GG3" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="GH3" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="GI3" s="14" t="s">
-        <v>253</v>
+        <v>249</v>
+      </c>
+      <c r="GI3" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="GJ3" s="9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="GK3" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="GL3" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="GM3" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="GN3" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="GN3" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="GO3" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="GP3" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="GP3" s="9" t="s">
+        <v>262</v>
       </c>
       <c r="GQ3" s="9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="GR3" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="GS3" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="GT3" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="GU3" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="GU3" s="14" t="s">
+        <v>268</v>
       </c>
       <c r="GV3" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="GW3" s="14" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="GW3" s="9" t="s">
+        <v>270</v>
       </c>
       <c r="GX3" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="GY3" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="GY3" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="GZ3" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="HA3" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="HB3" s="9"/>
-      <c r="HC3" s="9"/>
-      <c r="HD3" s="14"/>
-      <c r="HN3" s="2" t="s">
+      <c r="GZ3" s="9"/>
+      <c r="HA3" s="9"/>
+      <c r="HB3" s="14"/>
+      <c r="HL3" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="HM3" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="HO3" s="2" t="s">
+      <c r="HQ3" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="HS3" s="2" t="s">
+      <c r="HR3" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="HT3" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="4" spans="1:270" s="2" customFormat="1" ht="27" customHeight="1">
+    </row>
+    <row r="4" spans="1:268" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="C4" s="48" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="14">
@@ -5863,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="FV4" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FW4" s="9">
         <v>1</v>
@@ -5887,31 +6230,31 @@
         <v>1</v>
       </c>
       <c r="GD4" s="9">
+        <v>1</v>
+      </c>
+      <c r="GE4" s="9">
+        <v>1</v>
+      </c>
+      <c r="GF4" s="9">
+        <v>1</v>
+      </c>
+      <c r="GG4" s="9">
+        <v>1</v>
+      </c>
+      <c r="GH4" s="9">
+        <v>1</v>
+      </c>
+      <c r="GI4" s="9">
+        <v>1</v>
+      </c>
+      <c r="GJ4" s="9">
         <v>2</v>
       </c>
-      <c r="GE4" s="9">
-        <v>1</v>
-      </c>
-      <c r="GF4" s="9">
-        <v>1</v>
-      </c>
-      <c r="GG4" s="9">
-        <v>1</v>
-      </c>
-      <c r="GH4" s="9">
-        <v>1</v>
-      </c>
-      <c r="GI4" s="9">
-        <v>1</v>
-      </c>
-      <c r="GJ4" s="9">
-        <v>1</v>
-      </c>
       <c r="GK4" s="9">
         <v>1</v>
       </c>
       <c r="GL4" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GM4" s="9">
         <v>1</v>
@@ -5958,13 +6301,13 @@
       <c r="HA4" s="9">
         <v>1</v>
       </c>
-      <c r="HB4" s="9">
-        <v>1</v>
-      </c>
-      <c r="HC4" s="9">
-        <v>1</v>
-      </c>
-      <c r="HD4" s="14">
+      <c r="HB4" s="14">
+        <v>1</v>
+      </c>
+      <c r="HC4" s="2">
+        <v>1</v>
+      </c>
+      <c r="HD4" s="2">
         <v>1</v>
       </c>
       <c r="HE4" s="2">
@@ -6009,17 +6352,11 @@
       <c r="HR4" s="2">
         <v>1</v>
       </c>
-      <c r="HS4" s="2">
-        <v>1</v>
-      </c>
-      <c r="HT4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:270" s="2" customFormat="1" ht="24" customHeight="1">
+    </row>
+    <row r="5" spans="1:268" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E5" s="14">
         <f t="array" ref="E5">MAX(IF(E14:E74="Y",$C14:$C74))</f>
@@ -6711,7 +7048,7 @@
       </c>
       <c r="FV5" s="9">
         <f t="array" ref="FV5">MAX(IF(FV14:FV74="Y",$C14:$C74))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="FW5" s="9">
         <f t="array" ref="FW5">MAX(IF(FW14:FW74="Y",$C14:$C74))</f>
@@ -6719,11 +7056,11 @@
       </c>
       <c r="FX5" s="9">
         <f t="array" ref="FX5">MAX(IF(FX14:FX74="Y",$C14:$C74))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="FY5" s="9">
         <f t="array" ref="FY5">MAX(IF(FY14:FY74="Y",$C14:$C74))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="FZ5" s="9">
         <f t="array" ref="FZ5">MAX(IF(FZ14:FZ74="Y",$C14:$C74))</f>
@@ -6731,7 +7068,7 @@
       </c>
       <c r="GA5" s="9">
         <f t="array" ref="GA5">MAX(IF(GA14:GA74="Y",$C14:$C74))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GB5" s="9">
         <f t="array" ref="GB5">MAX(IF(GB14:GB74="Y",$C14:$C74))</f>
@@ -6759,7 +7096,7 @@
       </c>
       <c r="GH5" s="9">
         <f t="array" ref="GH5">MAX(IF(GH14:GH74="Y",$C14:$C74))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="GI5" s="9">
         <f t="array" ref="GI5">MAX(IF(GI14:GI74="Y",$C14:$C74))</f>
@@ -6767,7 +7104,7 @@
       </c>
       <c r="GJ5" s="9">
         <f t="array" ref="GJ5">MAX(IF(GJ14:GJ74="Y",$C14:$C74))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="GK5" s="9">
         <f t="array" ref="GK5">MAX(IF(GK14:GK74="Y",$C14:$C74))</f>
@@ -6775,7 +7112,7 @@
       </c>
       <c r="GL5" s="9">
         <f t="array" ref="GL5">MAX(IF(GL14:GL74="Y",$C14:$C74))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GM5" s="9">
         <f t="array" ref="GM5">MAX(IF(GM14:GM74="Y",$C14:$C74))</f>
@@ -6783,7 +7120,7 @@
       </c>
       <c r="GN5" s="9">
         <f t="array" ref="GN5">MAX(IF(GN14:GN74="Y",$C14:$C74))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GO5" s="9">
         <f t="array" ref="GO5">MAX(IF(GO14:GO74="Y",$C14:$C74))</f>
@@ -6829,19 +7166,11 @@
         <f t="array" ref="GY5">MAX(IF(GY14:GY74="Y",$C14:$C74))</f>
         <v>0</v>
       </c>
-      <c r="GZ5" s="9">
-        <f t="array" ref="GZ5">MAX(IF(GZ14:GZ74="Y",$C14:$C74))</f>
-        <v>0</v>
-      </c>
-      <c r="HA5" s="9">
-        <f t="array" ref="HA5">MAX(IF(HA14:HA74="Y",$C14:$C74))</f>
-        <v>0</v>
-      </c>
-      <c r="HB5" s="9"/>
-      <c r="HC5" s="9"/>
-      <c r="HD5" s="14"/>
-    </row>
-    <row r="6" spans="1:270" s="2" customFormat="1" ht="27">
+      <c r="GZ5" s="9"/>
+      <c r="HA5" s="9"/>
+      <c r="HB5" s="14"/>
+    </row>
+    <row r="6" spans="1:268" s="2" customFormat="1" ht="27">
       <c r="B6" s="31"/>
       <c r="C6" s="38" t="s">
         <v>297</v>
@@ -7020,8 +7349,12 @@
       <c r="GD6" s="9"/>
       <c r="GE6" s="9"/>
       <c r="GF6" s="9"/>
-      <c r="GG6" s="9"/>
-      <c r="GH6" s="9"/>
+      <c r="GG6" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="GH6" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="GI6" s="9" t="s">
         <v>210</v>
       </c>
@@ -7034,32 +7367,26 @@
       <c r="GL6" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="GM6" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="GN6" s="9" t="s">
-        <v>210</v>
-      </c>
+      <c r="GM6" s="9"/>
+      <c r="GN6" s="9"/>
       <c r="GO6" s="9"/>
       <c r="GP6" s="9"/>
       <c r="GQ6" s="9"/>
       <c r="GR6" s="9"/>
       <c r="GS6" s="9"/>
       <c r="GT6" s="9"/>
-      <c r="GU6" s="9"/>
+      <c r="GU6" s="14"/>
       <c r="GV6" s="9"/>
-      <c r="GW6" s="14"/>
+      <c r="GW6" s="9"/>
       <c r="GX6" s="9"/>
-      <c r="GY6" s="9"/>
+      <c r="GY6" s="14"/>
       <c r="GZ6" s="9"/>
-      <c r="HA6" s="14"/>
-      <c r="HB6" s="9"/>
-      <c r="HC6" s="9"/>
-      <c r="HD6" s="14" t="s">
+      <c r="HA6" s="9"/>
+      <c r="HB6" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:270" s="2" customFormat="1" ht="78">
+    <row r="7" spans="1:268" s="2" customFormat="1" ht="58">
       <c r="B7" s="3"/>
       <c r="C7" s="38" t="s">
         <v>298</v>
@@ -7244,10 +7571,10 @@
       <c r="FS7" s="9"/>
       <c r="FT7" s="9"/>
       <c r="FU7" s="9"/>
-      <c r="FV7" s="9"/>
-      <c r="FW7" s="9" t="s">
-        <v>493</v>
-      </c>
+      <c r="FV7" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="FW7" s="9"/>
       <c r="FX7" s="9"/>
       <c r="FY7" s="9"/>
       <c r="FZ7" s="9"/>
@@ -7257,21 +7584,21 @@
       <c r="GD7" s="9"/>
       <c r="GE7" s="9"/>
       <c r="GF7" s="9"/>
-      <c r="GG7" s="9"/>
-      <c r="GH7" s="9"/>
+      <c r="GG7" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="GH7" s="9" t="s">
+        <v>494</v>
+      </c>
       <c r="GI7" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="GJ7" s="9" t="s">
-        <v>492</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="GJ7" s="9"/>
       <c r="GK7" s="9" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="GL7" s="9"/>
-      <c r="GM7" s="9" t="s">
-        <v>496</v>
-      </c>
+      <c r="GM7" s="9"/>
       <c r="GN7" s="9"/>
       <c r="GO7" s="9"/>
       <c r="GP7" s="9"/>
@@ -7279,29 +7606,27 @@
       <c r="GR7" s="9"/>
       <c r="GS7" s="9"/>
       <c r="GT7" s="9"/>
-      <c r="GU7" s="9"/>
+      <c r="GU7" s="14"/>
       <c r="GV7" s="9"/>
-      <c r="GW7" s="14"/>
+      <c r="GW7" s="9"/>
       <c r="GX7" s="9"/>
-      <c r="GY7" s="9"/>
+      <c r="GY7" s="14"/>
       <c r="GZ7" s="9"/>
-      <c r="HA7" s="14"/>
-      <c r="HB7" s="9"/>
-      <c r="HC7" s="9"/>
-      <c r="HD7" s="14" t="s">
+      <c r="HA7" s="9"/>
+      <c r="HB7" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="HH7" s="2" t="s">
+      <c r="HF7" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="HK7" s="2" t="s">
+      <c r="HI7" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="HN7" s="2" t="s">
+      <c r="HL7" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="8" spans="1:270" s="31" customFormat="1" ht="14">
+    <row r="8" spans="1:268" s="31" customFormat="1" ht="14">
       <c r="B8" s="3"/>
       <c r="C8" s="38" t="s">
         <v>295</v>
@@ -7523,15 +7848,17 @@
       <c r="FU8" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="FV8" s="46" t="s">
+      <c r="FV8" s="46"/>
+      <c r="FW8" s="46"/>
+      <c r="FX8" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="FW8" s="46"/>
-      <c r="FX8" s="46"/>
       <c r="FY8" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="FZ8" s="46"/>
+      <c r="FZ8" s="46" t="s">
+        <v>210</v>
+      </c>
       <c r="GA8" s="46" t="s">
         <v>210</v>
       </c>
@@ -7568,13 +7895,13 @@
       <c r="GL8" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="GM8" s="46" t="s">
-        <v>210</v>
-      </c>
+      <c r="GM8" s="46"/>
       <c r="GN8" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="GO8" s="46"/>
+      <c r="GO8" s="46" t="s">
+        <v>210</v>
+      </c>
       <c r="GP8" s="46" t="s">
         <v>210</v>
       </c>
@@ -7590,38 +7917,34 @@
       <c r="GT8" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="GU8" s="46" t="s">
+      <c r="GU8" s="14" t="s">
         <v>210</v>
       </c>
       <c r="GV8" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="GW8" s="14" t="s">
+      <c r="GW8" s="46" t="s">
         <v>210</v>
       </c>
       <c r="GX8" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="GY8" s="46" t="s">
+      <c r="GY8" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="GZ8" s="46" t="s">
+      <c r="GZ8" s="9"/>
+      <c r="HA8" s="9"/>
+      <c r="HB8" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="HA8" s="47" t="s">
+      <c r="HC8" s="2"/>
+      <c r="HD8" s="2"/>
+      <c r="HE8" s="2"/>
+      <c r="HF8" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="HB8" s="9"/>
-      <c r="HC8" s="9"/>
-      <c r="HD8" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="HE8" s="2"/>
-      <c r="HF8" s="2"/>
       <c r="HG8" s="2"/>
-      <c r="HH8" s="2" t="s">
-        <v>210</v>
-      </c>
+      <c r="HH8" s="2"/>
       <c r="HI8" s="2"/>
       <c r="HJ8" s="2"/>
       <c r="HK8" s="2"/>
@@ -7674,10 +7997,8 @@
       <c r="JF8" s="2"/>
       <c r="JG8" s="2"/>
       <c r="JH8" s="2"/>
-      <c r="JI8" s="2"/>
-      <c r="JJ8" s="2"/>
-    </row>
-    <row r="9" spans="1:270" s="31" customFormat="1" ht="36" customHeight="1">
+    </row>
+    <row r="9" spans="1:268" s="31" customFormat="1" ht="63" customHeight="1">
       <c r="B9" s="3"/>
       <c r="C9" s="38" t="s">
         <v>285</v>
@@ -7822,67 +8143,67 @@
       <c r="EL9" s="9"/>
       <c r="EM9" s="10"/>
       <c r="EN9" s="37" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="EO9" s="37" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="EP9" s="9"/>
       <c r="EQ9" s="9"/>
       <c r="ER9" s="9"/>
       <c r="ES9" s="37" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="ET9" s="37" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="EU9" s="37" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="EV9" s="14" t="s">
-        <v>361</v>
+        <v>504</v>
       </c>
       <c r="EW9" s="14" t="s">
-        <v>361</v>
+        <v>504</v>
       </c>
       <c r="EX9" s="14" t="s">
-        <v>361</v>
+        <v>504</v>
       </c>
       <c r="EY9" s="14" t="s">
-        <v>361</v>
+        <v>504</v>
       </c>
       <c r="EZ9" s="14"/>
       <c r="FA9" s="9"/>
       <c r="FB9" s="10"/>
       <c r="FC9" s="9" t="s">
-        <v>371</v>
+        <v>505</v>
       </c>
       <c r="FD9" s="9" t="s">
-        <v>371</v>
+        <v>505</v>
       </c>
       <c r="FE9" s="9" t="s">
-        <v>371</v>
+        <v>505</v>
       </c>
       <c r="FF9" s="9" t="s">
-        <v>371</v>
+        <v>505</v>
       </c>
       <c r="FG9" s="9" t="s">
-        <v>371</v>
+        <v>505</v>
       </c>
       <c r="FH9" s="9" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="FI9" s="9" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="FJ9" s="9" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="FK9" s="9" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="FL9" s="9" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="FM9" s="9"/>
       <c r="FN9" s="9"/>
@@ -7891,68 +8212,68 @@
       <c r="FQ9" s="9"/>
       <c r="FR9" s="9"/>
       <c r="FS9" s="9" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="FT9" s="9" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="FU9" s="9" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="FV9" s="9" t="s">
-        <v>370</v>
+        <v>510</v>
       </c>
       <c r="FW9" s="9" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="FX9" s="9" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="FY9" s="9" t="s">
-        <v>477</v>
+        <v>527</v>
       </c>
       <c r="FZ9" s="9" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
       <c r="GA9" s="9" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="GB9" s="9" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="GC9" s="9" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="GD9" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="GE9" s="9" t="s">
         <v>282</v>
       </c>
+      <c r="GE9" s="9"/>
       <c r="GF9" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="GG9" s="9"/>
+      <c r="GG9" s="9" t="s">
+        <v>471</v>
+      </c>
       <c r="GH9" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="GI9" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="GJ9" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="GK9" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="GL9" s="9"/>
+      <c r="GM9" s="9"/>
+      <c r="GN9" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="GI9" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="GJ9" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="GK9" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="GL9" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="GM9" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="GN9" s="9"/>
-      <c r="GO9" s="9"/>
+      <c r="GO9" s="9" t="s">
+        <v>282</v>
+      </c>
       <c r="GP9" s="9" t="s">
         <v>282</v>
       </c>
@@ -7968,58 +8289,56 @@
       <c r="GT9" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="GU9" s="9" t="s">
+      <c r="GU9" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="GV9" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="GW9" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="GV9" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="GW9" s="14" t="s">
+      <c r="GX9" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="GX9" s="46" t="s">
+      <c r="GY9" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="GY9" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="GZ9" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="HA9" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="HB9" s="9"/>
-      <c r="HC9" s="9"/>
-      <c r="HD9" s="14" t="s">
-        <v>463</v>
-      </c>
+      <c r="GZ9" s="9"/>
+      <c r="HA9" s="9"/>
+      <c r="HB9" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="HC9" s="2"/>
+      <c r="HD9" s="2"/>
       <c r="HE9" s="2"/>
-      <c r="HF9" s="2"/>
+      <c r="HF9" s="2" t="s">
+        <v>513</v>
+      </c>
       <c r="HG9" s="2"/>
-      <c r="HH9" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="HI9" s="2"/>
+      <c r="HH9" s="2"/>
+      <c r="HI9" s="2" t="s">
+        <v>514</v>
+      </c>
       <c r="HJ9" s="2"/>
-      <c r="HK9" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="HL9" s="2"/>
-      <c r="HM9" s="2"/>
-      <c r="HN9" s="2" t="s">
-        <v>458</v>
-      </c>
+      <c r="HK9" s="2"/>
+      <c r="HL9" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="HM9" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="HN9" s="2"/>
       <c r="HO9" s="2"/>
       <c r="HP9" s="2"/>
-      <c r="HQ9" s="2"/>
-      <c r="HR9" s="2"/>
-      <c r="HS9" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="HT9" s="2" t="s">
-        <v>363</v>
-      </c>
+      <c r="HQ9" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="HR9" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="HS9" s="2"/>
+      <c r="HT9" s="2"/>
       <c r="HU9" s="2"/>
       <c r="HV9" s="2"/>
       <c r="HW9" s="2"/>
@@ -8060,10 +8379,8 @@
       <c r="JF9" s="2"/>
       <c r="JG9" s="2"/>
       <c r="JH9" s="2"/>
-      <c r="JI9" s="2"/>
-      <c r="JJ9" s="2"/>
-    </row>
-    <row r="10" spans="1:270" s="31" customFormat="1" ht="14">
+    </row>
+    <row r="10" spans="1:268" s="31" customFormat="1" ht="14">
       <c r="B10" s="3"/>
       <c r="C10" s="38" t="s">
         <v>294</v>
@@ -8266,24 +8583,24 @@
       <c r="GR10" s="9"/>
       <c r="GS10" s="9"/>
       <c r="GT10" s="9"/>
-      <c r="GU10" s="9"/>
-      <c r="GV10" s="9"/>
-      <c r="GW10" s="14"/>
+      <c r="GU10" s="14"/>
+      <c r="GV10" s="46"/>
+      <c r="GW10" s="46"/>
       <c r="GX10" s="46"/>
-      <c r="GY10" s="46"/>
-      <c r="GZ10" s="46"/>
-      <c r="HA10" s="47"/>
-      <c r="HB10" s="9"/>
-      <c r="HC10" s="9"/>
-      <c r="HD10" s="14" t="s">
+      <c r="GY10" s="47"/>
+      <c r="GZ10" s="9"/>
+      <c r="HA10" s="9"/>
+      <c r="HB10" s="14" t="s">
         <v>210</v>
       </c>
+      <c r="HC10" s="2"/>
+      <c r="HD10" s="2"/>
       <c r="HE10" s="2"/>
-      <c r="HF10" s="2"/>
+      <c r="HF10" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="HG10" s="2"/>
-      <c r="HH10" s="2" t="s">
-        <v>210</v>
-      </c>
+      <c r="HH10" s="2"/>
       <c r="HI10" s="2"/>
       <c r="HJ10" s="2"/>
       <c r="HK10" s="2"/>
@@ -8336,10 +8653,8 @@
       <c r="JF10" s="2"/>
       <c r="JG10" s="2"/>
       <c r="JH10" s="2"/>
-      <c r="JI10" s="2"/>
-      <c r="JJ10" s="2"/>
-    </row>
-    <row r="11" spans="1:270" s="31" customFormat="1" ht="36" customHeight="1">
+    </row>
+    <row r="11" spans="1:268" s="31" customFormat="1" ht="64" customHeight="1">
       <c r="B11" s="3"/>
       <c r="C11" s="38" t="s">
         <v>286</v>
@@ -8484,22 +8799,22 @@
       <c r="EL11" s="9"/>
       <c r="EM11" s="10"/>
       <c r="EN11" s="37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="EO11" s="37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="EP11" s="9"/>
       <c r="EQ11" s="9"/>
       <c r="ER11" s="9"/>
       <c r="ES11" s="37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="ET11" s="37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="EU11" s="37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="EV11" s="14" t="s">
         <v>361</v>
@@ -8532,19 +8847,19 @@
         <v>371</v>
       </c>
       <c r="FH11" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="FI11" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="FJ11" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="FK11" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="FL11" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="FM11" s="9" t="s">
         <v>375</v>
@@ -8556,73 +8871,73 @@
         <v>375</v>
       </c>
       <c r="FP11" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="FQ11" s="9"/>
       <c r="FR11" s="9"/>
       <c r="FS11" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="FT11" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="FU11" s="9" t="s">
-        <v>479</v>
+        <v>524</v>
       </c>
       <c r="FV11" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="FW11" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="FX11" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="FY11" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FZ11" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="GA11" s="9" t="s">
         <v>370</v>
-      </c>
-      <c r="FW11" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="FX11" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="FY11" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="FZ11" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GA11" s="9" t="s">
-        <v>477</v>
       </c>
       <c r="GB11" s="9" t="s">
         <v>478</v>
       </c>
       <c r="GC11" s="9" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="GD11" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="GE11" s="9" t="s">
         <v>282</v>
       </c>
+      <c r="GE11" s="9"/>
       <c r="GF11" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="GG11" s="9"/>
+      <c r="GG11" s="9" t="s">
+        <v>471</v>
+      </c>
       <c r="GH11" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="GI11" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="GJ11" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="GK11" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="GL11" s="9"/>
+      <c r="GM11" s="9"/>
+      <c r="GN11" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="GI11" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="GJ11" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="GK11" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="GL11" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="GM11" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="GN11" s="9"/>
-      <c r="GO11" s="9"/>
+      <c r="GO11" s="9" t="s">
+        <v>282</v>
+      </c>
       <c r="GP11" s="9" t="s">
         <v>282</v>
       </c>
@@ -8638,58 +8953,54 @@
       <c r="GT11" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="GU11" s="9" t="s">
+      <c r="GU11" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="GV11" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="GW11" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="GV11" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="GW11" s="14" t="s">
+      <c r="GX11" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="GX11" s="46" t="s">
+      <c r="GY11" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="GY11" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="GZ11" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="HA11" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="HB11" s="9"/>
-      <c r="HC11" s="9"/>
-      <c r="HD11" s="14" t="s">
-        <v>463</v>
-      </c>
+      <c r="GZ11" s="9"/>
+      <c r="HA11" s="9"/>
+      <c r="HB11" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="HC11" s="2"/>
+      <c r="HD11" s="2"/>
       <c r="HE11" s="2"/>
-      <c r="HF11" s="2"/>
+      <c r="HF11" s="2" t="s">
+        <v>456</v>
+      </c>
       <c r="HG11" s="2"/>
-      <c r="HH11" s="2" t="s">
+      <c r="HH11" s="2"/>
+      <c r="HI11" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="HJ11" s="2"/>
+      <c r="HK11" s="2"/>
+      <c r="HL11" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="HI11" s="2"/>
-      <c r="HJ11" s="2"/>
-      <c r="HK11" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="HL11" s="2"/>
       <c r="HM11" s="2"/>
-      <c r="HN11" s="2" t="s">
-        <v>458</v>
-      </c>
+      <c r="HN11" s="2"/>
       <c r="HO11" s="2"/>
       <c r="HP11" s="2"/>
-      <c r="HQ11" s="2"/>
-      <c r="HR11" s="2"/>
-      <c r="HS11" s="2" t="s">
+      <c r="HQ11" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="HT11" s="2" t="s">
-        <v>486</v>
-      </c>
+      <c r="HR11" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="HS11" s="2"/>
+      <c r="HT11" s="2"/>
       <c r="HU11" s="2"/>
       <c r="HV11" s="2"/>
       <c r="HW11" s="2"/>
@@ -8730,10 +9041,8 @@
       <c r="JF11" s="2"/>
       <c r="JG11" s="2"/>
       <c r="JH11" s="2"/>
-      <c r="JI11" s="2"/>
-      <c r="JJ11" s="2"/>
-    </row>
-    <row r="12" spans="1:270" s="6" customFormat="1" ht="18">
+    </row>
+    <row r="12" spans="1:268" s="6" customFormat="1" ht="18">
       <c r="A12" s="17" t="s">
         <v>133</v>
       </c>
@@ -9210,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="DT12" s="11">
-        <f t="shared" ref="DT12:FU12" si="2">COUNTIF(DT14:DT74,"Y")</f>
+        <f t="shared" ref="DT12:GB12" si="2">COUNTIF(DT14:DT74,"Y")</f>
         <v>0</v>
       </c>
       <c r="DU12" s="11">
@@ -9407,43 +9716,62 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="FV12" s="11"/>
-      <c r="FW12" s="11"/>
-      <c r="FX12" s="11"/>
-      <c r="FY12" s="11"/>
-      <c r="FZ12" s="11"/>
-      <c r="GA12" s="11"/>
-      <c r="GB12" s="11"/>
-      <c r="GC12" s="11"/>
+      <c r="FV12" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="FW12" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="FX12" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="FY12" s="11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="FZ12" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GA12" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="GB12" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GC12" s="15"/>
       <c r="GD12" s="11"/>
-      <c r="GE12" s="15"/>
+      <c r="GE12" s="11"/>
       <c r="GF12" s="11"/>
-      <c r="GG12" s="11"/>
+      <c r="GG12" s="15"/>
       <c r="GH12" s="11"/>
-      <c r="GI12" s="15"/>
+      <c r="GI12" s="11"/>
       <c r="GJ12" s="11"/>
       <c r="GK12" s="11"/>
       <c r="GL12" s="11"/>
       <c r="GM12" s="11"/>
-      <c r="GN12" s="11"/>
+      <c r="GN12" s="15"/>
       <c r="GO12" s="11"/>
-      <c r="GP12" s="15"/>
+      <c r="GP12" s="11"/>
       <c r="GQ12" s="11"/>
       <c r="GR12" s="11"/>
       <c r="GS12" s="11"/>
       <c r="GT12" s="11"/>
-      <c r="GU12" s="11"/>
+      <c r="GU12" s="15"/>
       <c r="GV12" s="11"/>
-      <c r="GW12" s="15"/>
+      <c r="GW12" s="11"/>
       <c r="GX12" s="11"/>
-      <c r="GY12" s="11"/>
+      <c r="GY12" s="15"/>
       <c r="GZ12" s="11"/>
-      <c r="HA12" s="15"/>
-      <c r="HB12" s="11"/>
-      <c r="HC12" s="11"/>
-      <c r="HD12" s="15"/>
-    </row>
-    <row r="13" spans="1:270" s="6" customFormat="1">
+      <c r="HA12" s="11"/>
+      <c r="HB12" s="15"/>
+    </row>
+    <row r="13" spans="1:268" s="6" customFormat="1">
       <c r="A13" s="6" t="s">
         <v>180</v>
       </c>
@@ -9661,11 +9989,9 @@
       <c r="GY13" s="11"/>
       <c r="GZ13" s="11"/>
       <c r="HA13" s="11"/>
-      <c r="HB13" s="11"/>
-      <c r="HC13" s="11"/>
-      <c r="HD13" s="15"/>
-    </row>
-    <row r="14" spans="1:270">
+      <c r="HB13" s="15"/>
+    </row>
+    <row r="14" spans="1:268">
       <c r="A14" t="s">
         <v>289</v>
       </c>
@@ -9676,7 +10002,7 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <f>COUNTA(E14:JF14)</f>
+        <f>COUNTA(E14:JD14)</f>
         <v>1</v>
       </c>
       <c r="E14" s="22"/>
@@ -9834,11 +10160,11 @@
       <c r="FA14" s="23"/>
       <c r="FB14" s="25"/>
       <c r="FC14" s="22"/>
-      <c r="FY14" s="7" t="s">
+      <c r="FX14" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:270" ht="26">
+    <row r="15" spans="1:268" ht="26">
       <c r="A15" t="s">
         <v>289</v>
       </c>
@@ -9849,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D79" si="3">COUNTA(E15:JF15)</f>
+        <f>COUNTA(E15:JD15)</f>
         <v>5</v>
       </c>
       <c r="E15" s="22"/>
@@ -10019,7 +10345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:270">
+    <row r="16" spans="1:268">
       <c r="A16" t="s">
         <v>289</v>
       </c>
@@ -10030,7 +10356,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E16:JD16)</f>
         <v>1</v>
       </c>
       <c r="E16" s="22"/>
@@ -10188,11 +10514,11 @@
       <c r="FA16" s="23"/>
       <c r="FB16" s="25"/>
       <c r="FC16" s="22"/>
-      <c r="GC16" s="7" t="s">
+      <c r="GA16" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:196">
+    <row r="17" spans="1:194">
       <c r="A17" t="s">
         <v>289</v>
       </c>
@@ -10203,7 +10529,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E17:JD17)</f>
         <v>4</v>
       </c>
       <c r="E17" s="22"/>
@@ -10373,7 +10699,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:196" ht="26">
+    <row r="18" spans="1:194" ht="26">
       <c r="A18" t="s">
         <v>289</v>
       </c>
@@ -10384,7 +10710,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E18:JD18)</f>
         <v>1</v>
       </c>
       <c r="E18" s="22"/>
@@ -10546,7 +10872,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:196">
+    <row r="19" spans="1:194">
       <c r="A19" t="s">
         <v>289</v>
       </c>
@@ -10557,7 +10883,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E19:JD19)</f>
         <v>0</v>
       </c>
       <c r="E19" s="22"/>
@@ -10717,7 +11043,7 @@
       <c r="FC19" s="22"/>
       <c r="FH19" s="23"/>
     </row>
-    <row r="20" spans="1:196" ht="26">
+    <row r="20" spans="1:194" ht="26">
       <c r="A20" t="s">
         <v>289</v>
       </c>
@@ -10728,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E20:JD20)</f>
         <v>1</v>
       </c>
       <c r="E20" s="22"/>
@@ -10890,7 +11216,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:196">
+    <row r="21" spans="1:194">
       <c r="A21" t="s">
         <v>289</v>
       </c>
@@ -10901,7 +11227,7 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E21:JD21)</f>
         <v>5</v>
       </c>
       <c r="E21" s="22"/>
@@ -11068,11 +11394,11 @@
       <c r="FH21" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="GN21" s="7" t="s">
+      <c r="GL21" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:196">
+    <row r="22" spans="1:194">
       <c r="A22" t="s">
         <v>289</v>
       </c>
@@ -11083,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E22:JD22)</f>
         <v>5</v>
       </c>
       <c r="E22" s="22"/>
@@ -11255,7 +11581,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:196" ht="26">
+    <row r="23" spans="1:194" ht="26">
       <c r="A23" t="s">
         <v>291</v>
       </c>
@@ -11266,7 +11592,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E23:JD23)</f>
         <v>1</v>
       </c>
       <c r="E23" s="22"/>
@@ -11429,7 +11755,7 @@
       </c>
       <c r="FH23" s="23"/>
     </row>
-    <row r="24" spans="1:196">
+    <row r="24" spans="1:194">
       <c r="A24" t="s">
         <v>178</v>
       </c>
@@ -11440,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E24:JD24)</f>
         <v>111</v>
       </c>
       <c r="E24" s="22" t="s">
@@ -11821,7 +12147,7 @@
       <c r="FB24" s="25"/>
       <c r="FC24" s="22"/>
     </row>
-    <row r="25" spans="1:196">
+    <row r="25" spans="1:194">
       <c r="A25" t="s">
         <v>178</v>
       </c>
@@ -11832,7 +12158,7 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E25:JD25)</f>
         <v>19</v>
       </c>
       <c r="E25" s="22"/>
@@ -12022,17 +12348,17 @@
       <c r="FA25" s="23"/>
       <c r="FB25" s="25"/>
       <c r="FC25" s="22"/>
+      <c r="FV25" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="FW25" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="FX25" s="7" t="s">
+      <c r="GH25" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="GJ25" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:196">
+    </row>
+    <row r="26" spans="1:194">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -12043,7 +12369,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E26:JD26)</f>
         <v>8</v>
       </c>
       <c r="E26" s="22"/>
@@ -12221,7 +12547,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:196">
+    <row r="27" spans="1:194">
       <c r="A27" t="s">
         <v>178</v>
       </c>
@@ -12232,7 +12558,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E27:JD27)</f>
         <v>113</v>
       </c>
       <c r="E27" s="22" t="s">
@@ -12619,7 +12945,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:196" ht="26">
+    <row r="28" spans="1:194" ht="26">
       <c r="A28" t="s">
         <v>287</v>
       </c>
@@ -12630,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E28:JD28)</f>
         <v>2</v>
       </c>
       <c r="E28" s="22"/>
@@ -12793,7 +13119,7 @@
       <c r="FB28" s="25"/>
       <c r="FC28" s="22"/>
     </row>
-    <row r="29" spans="1:196">
+    <row r="29" spans="1:194">
       <c r="A29" t="s">
         <v>293</v>
       </c>
@@ -12804,7 +13130,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E29:JD29)</f>
         <v>0</v>
       </c>
       <c r="E29" s="22"/>
@@ -12963,7 +13289,7 @@
       <c r="FB29" s="25"/>
       <c r="FC29" s="22"/>
     </row>
-    <row r="30" spans="1:196">
+    <row r="30" spans="1:194">
       <c r="A30" t="s">
         <v>293</v>
       </c>
@@ -12974,7 +13300,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E30:JD30)</f>
         <v>0</v>
       </c>
       <c r="E30" s="22"/>
@@ -13133,7 +13459,7 @@
       <c r="FB30" s="25"/>
       <c r="FC30" s="22"/>
     </row>
-    <row r="31" spans="1:196">
+    <row r="31" spans="1:194">
       <c r="A31" t="s">
         <v>293</v>
       </c>
@@ -13144,7 +13470,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E31:JD31)</f>
         <v>0</v>
       </c>
       <c r="E31" s="22"/>
@@ -13303,7 +13629,7 @@
       <c r="FB31" s="25"/>
       <c r="FC31" s="22"/>
     </row>
-    <row r="32" spans="1:196">
+    <row r="32" spans="1:194">
       <c r="A32" t="s">
         <v>293</v>
       </c>
@@ -13314,7 +13640,7 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E32:JD32)</f>
         <v>0</v>
       </c>
       <c r="E32" s="22"/>
@@ -13473,7 +13799,7 @@
       <c r="FB32" s="25"/>
       <c r="FC32" s="22"/>
     </row>
-    <row r="33" spans="1:183">
+    <row r="33" spans="1:181">
       <c r="A33" t="s">
         <v>238</v>
       </c>
@@ -13484,7 +13810,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E33:JD33)</f>
         <v>0</v>
       </c>
       <c r="E33" s="22"/>
@@ -13643,7 +13969,7 @@
       <c r="FB33" s="25"/>
       <c r="FC33" s="22"/>
     </row>
-    <row r="34" spans="1:183" ht="26">
+    <row r="34" spans="1:181" ht="26">
       <c r="A34" t="s">
         <v>240</v>
       </c>
@@ -13654,7 +13980,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E34:JD34)</f>
         <v>0</v>
       </c>
       <c r="E34" s="22"/>
@@ -13813,7 +14139,7 @@
       <c r="FB34" s="25"/>
       <c r="FC34" s="22"/>
     </row>
-    <row r="35" spans="1:183" ht="26">
+    <row r="35" spans="1:181" ht="26">
       <c r="A35" t="s">
         <v>240</v>
       </c>
@@ -13824,7 +14150,7 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E35:JD35)</f>
         <v>0</v>
       </c>
       <c r="E35" s="22"/>
@@ -13983,7 +14309,7 @@
       <c r="FB35" s="25"/>
       <c r="FC35" s="22"/>
     </row>
-    <row r="36" spans="1:183">
+    <row r="36" spans="1:181">
       <c r="A36" t="s">
         <v>240</v>
       </c>
@@ -13994,7 +14320,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E36:JD36)</f>
         <v>0</v>
       </c>
       <c r="E36" s="22"/>
@@ -14153,7 +14479,7 @@
       <c r="FB36" s="25"/>
       <c r="FC36" s="22"/>
     </row>
-    <row r="37" spans="1:183" ht="26">
+    <row r="37" spans="1:181" ht="26">
       <c r="A37" t="s">
         <v>292</v>
       </c>
@@ -14164,7 +14490,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E37:JD37)</f>
         <v>2</v>
       </c>
       <c r="E37" s="22"/>
@@ -14327,12 +14653,12 @@
       <c r="FB37" s="25"/>
       <c r="FC37" s="22"/>
     </row>
-    <row r="38" spans="1:183" ht="26">
+    <row r="38" spans="1:181" ht="26">
       <c r="A38" t="s">
         <v>292</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="23"/>
@@ -14492,7 +14818,7 @@
       <c r="FB38" s="25"/>
       <c r="FC38" s="22"/>
     </row>
-    <row r="39" spans="1:183">
+    <row r="39" spans="1:181">
       <c r="A39" t="s">
         <v>230</v>
       </c>
@@ -14503,7 +14829,7 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E39:JD39)</f>
         <v>0</v>
       </c>
       <c r="E39" s="22"/>
@@ -14662,7 +14988,7 @@
       <c r="FB39" s="25"/>
       <c r="FC39" s="22"/>
     </row>
-    <row r="40" spans="1:183">
+    <row r="40" spans="1:181">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -14673,7 +14999,7 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E40:JD40)</f>
         <v>30</v>
       </c>
       <c r="E40" s="22"/>
@@ -14892,7 +15218,7 @@
       <c r="FB40" s="25"/>
       <c r="FC40" s="22"/>
     </row>
-    <row r="41" spans="1:183">
+    <row r="41" spans="1:181">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -14903,7 +15229,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E41:JD41)</f>
         <v>1</v>
       </c>
       <c r="E41" s="22"/>
@@ -15064,7 +15390,7 @@
       <c r="FB41" s="25"/>
       <c r="FC41" s="22"/>
     </row>
-    <row r="42" spans="1:183">
+    <row r="42" spans="1:181">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -15075,7 +15401,7 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E42:JD42)</f>
         <v>35</v>
       </c>
       <c r="E42" s="22" t="s">
@@ -15304,7 +15630,7 @@
       <c r="FB42" s="25"/>
       <c r="FC42" s="22"/>
     </row>
-    <row r="43" spans="1:183">
+    <row r="43" spans="1:181">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -15315,7 +15641,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E43:JD43)</f>
         <v>59</v>
       </c>
       <c r="E43" s="22" t="s">
@@ -15592,7 +15918,7 @@
       <c r="FB43" s="25"/>
       <c r="FC43" s="22"/>
     </row>
-    <row r="44" spans="1:183">
+    <row r="44" spans="1:181">
       <c r="A44" t="s">
         <v>227</v>
       </c>
@@ -15603,7 +15929,7 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E44:JD44)</f>
         <v>1</v>
       </c>
       <c r="E44" s="22"/>
@@ -15761,11 +16087,11 @@
       <c r="FA44" s="23"/>
       <c r="FB44" s="25"/>
       <c r="FC44" s="22"/>
-      <c r="GA44" s="7" t="s">
+      <c r="FY44" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="1:183">
+    <row r="45" spans="1:181">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -15776,7 +16102,7 @@
         <v>3</v>
       </c>
       <c r="D45">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E45:JD45)</f>
         <v>3</v>
       </c>
       <c r="E45" s="22"/>
@@ -15941,7 +16267,7 @@
       <c r="FB45" s="25"/>
       <c r="FC45" s="22"/>
     </row>
-    <row r="46" spans="1:183">
+    <row r="46" spans="1:181">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -15952,7 +16278,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E46:JD46)</f>
         <v>8</v>
       </c>
       <c r="E46" s="22"/>
@@ -16127,7 +16453,7 @@
       <c r="FB46" s="25"/>
       <c r="FC46" s="22"/>
     </row>
-    <row r="47" spans="1:183">
+    <row r="47" spans="1:181">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -16138,7 +16464,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E47:JD47)</f>
         <v>18</v>
       </c>
       <c r="E47" s="22"/>
@@ -16333,7 +16659,7 @@
       <c r="FB47" s="25"/>
       <c r="FC47" s="22"/>
     </row>
-    <row r="48" spans="1:183">
+    <row r="48" spans="1:181">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -16344,7 +16670,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E48:JD48)</f>
         <v>56</v>
       </c>
       <c r="E48" s="22" t="s">
@@ -16615,7 +16941,7 @@
       <c r="FB48" s="25"/>
       <c r="FC48" s="22"/>
     </row>
-    <row r="49" spans="1:183">
+    <row r="49" spans="1:181">
       <c r="A49" t="s">
         <v>227</v>
       </c>
@@ -16626,7 +16952,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E49:JD49)</f>
         <v>1</v>
       </c>
       <c r="E49" s="22"/>
@@ -16788,7 +17114,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:183">
+    <row r="50" spans="1:181">
       <c r="A50" t="s">
         <v>234</v>
       </c>
@@ -16799,7 +17125,7 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E50:JD50)</f>
         <v>1</v>
       </c>
       <c r="E50" s="22"/>
@@ -16961,7 +17287,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:183">
+    <row r="51" spans="1:181">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -16972,7 +17298,7 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E51:JD51)</f>
         <v>26</v>
       </c>
       <c r="E51" s="22" t="s">
@@ -17183,7 +17509,7 @@
       <c r="FB51" s="25"/>
       <c r="FC51" s="22"/>
     </row>
-    <row r="52" spans="1:183">
+    <row r="52" spans="1:181">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -17194,7 +17520,7 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E52:JD52)</f>
         <v>4</v>
       </c>
       <c r="E52" s="22"/>
@@ -17361,7 +17687,7 @@
       <c r="FB52" s="25"/>
       <c r="FC52" s="22"/>
     </row>
-    <row r="53" spans="1:183">
+    <row r="53" spans="1:181">
       <c r="A53" t="s">
         <v>227</v>
       </c>
@@ -17372,7 +17698,7 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E53:JD53)</f>
         <v>0</v>
       </c>
       <c r="E53" s="22"/>
@@ -17531,7 +17857,7 @@
       <c r="FB53" s="25"/>
       <c r="FC53" s="22"/>
     </row>
-    <row r="54" spans="1:183" ht="26">
+    <row r="54" spans="1:181" ht="26">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -17542,7 +17868,7 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E54:JD54)</f>
         <v>4</v>
       </c>
       <c r="E54" s="22"/>
@@ -17706,11 +18032,11 @@
       <c r="FA54" s="23"/>
       <c r="FB54" s="25"/>
       <c r="FC54" s="22"/>
-      <c r="GA54" s="7" t="s">
+      <c r="FY54" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="1:183">
+    <row r="55" spans="1:181">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -17721,7 +18047,7 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E55:JD55)</f>
         <v>29</v>
       </c>
       <c r="E55" s="22"/>
@@ -17938,7 +18264,7 @@
       <c r="FB55" s="25"/>
       <c r="FC55" s="22"/>
     </row>
-    <row r="56" spans="1:183">
+    <row r="56" spans="1:181">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -17949,7 +18275,7 @@
         <v>2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E56:JD56)</f>
         <v>6</v>
       </c>
       <c r="E56" s="22"/>
@@ -18121,7 +18447,7 @@
       <c r="FC56" s="22"/>
       <c r="FH56" s="16"/>
     </row>
-    <row r="57" spans="1:183">
+    <row r="57" spans="1:181">
       <c r="A57" t="s">
         <v>227</v>
       </c>
@@ -18129,7 +18455,7 @@
         <v>228</v>
       </c>
       <c r="D57">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E57:JD57)</f>
         <v>2</v>
       </c>
       <c r="E57" s="22"/>
@@ -18291,11 +18617,11 @@
       <c r="FU57" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="GA57" s="7" t="s">
+      <c r="FY57" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:183">
+    <row r="58" spans="1:181">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -18306,7 +18632,7 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E58:JD58)</f>
         <v>3</v>
       </c>
       <c r="E58" s="22"/>
@@ -18472,7 +18798,7 @@
       <c r="FC58" s="22"/>
       <c r="FH58" s="16"/>
     </row>
-    <row r="59" spans="1:183">
+    <row r="59" spans="1:181">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -18483,7 +18809,7 @@
         <v>2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E59:JD59)</f>
         <v>8</v>
       </c>
       <c r="E59" s="22"/>
@@ -18659,7 +18985,7 @@
       <c r="FC59" s="22"/>
       <c r="FH59" s="16"/>
     </row>
-    <row r="60" spans="1:183">
+    <row r="60" spans="1:181">
       <c r="A60" t="s">
         <v>227</v>
       </c>
@@ -18670,7 +18996,7 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E60:JD60)</f>
         <v>0</v>
       </c>
       <c r="E60" s="22"/>
@@ -18830,7 +19156,7 @@
       <c r="FC60" s="22"/>
       <c r="FH60" s="16"/>
     </row>
-    <row r="61" spans="1:183">
+    <row r="61" spans="1:181">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -18841,7 +19167,7 @@
         <v>2</v>
       </c>
       <c r="D61">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E61:JD61)</f>
         <v>6</v>
       </c>
       <c r="E61" s="22"/>
@@ -19013,7 +19339,7 @@
       <c r="FC61" s="22"/>
       <c r="FH61" s="16"/>
     </row>
-    <row r="62" spans="1:183">
+    <row r="62" spans="1:181">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -19024,7 +19350,7 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E62:JD62)</f>
         <v>27</v>
       </c>
       <c r="E62" s="22"/>
@@ -19238,7 +19564,7 @@
       <c r="FC62" s="22"/>
       <c r="FH62" s="16"/>
     </row>
-    <row r="63" spans="1:183">
+    <row r="63" spans="1:181">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -19246,7 +19572,7 @@
         <v>35</v>
       </c>
       <c r="D63">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E63:JD63)</f>
         <v>1</v>
       </c>
       <c r="E63" s="22"/>
@@ -19408,7 +19734,7 @@
       <c r="FC63" s="22"/>
       <c r="FH63" s="16"/>
     </row>
-    <row r="64" spans="1:183">
+    <row r="64" spans="1:181">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -19419,7 +19745,7 @@
         <v>3</v>
       </c>
       <c r="D64">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E64:JD64)</f>
         <v>8</v>
       </c>
       <c r="E64" s="22"/>
@@ -19605,7 +19931,7 @@
         <v>2</v>
       </c>
       <c r="D65">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E65:JD65)</f>
         <v>7</v>
       </c>
       <c r="E65" s="22"/>
@@ -19789,7 +20115,7 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E66:JD66)</f>
         <v>22</v>
       </c>
       <c r="E66" s="22" t="s">
@@ -20003,7 +20329,7 @@
         <v>2</v>
       </c>
       <c r="D67">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E67:JD67)</f>
         <v>5</v>
       </c>
       <c r="E67" s="22"/>
@@ -20183,7 +20509,7 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E68:JD68)</f>
         <v>13</v>
       </c>
       <c r="E68" s="22"/>
@@ -20379,7 +20705,7 @@
         <v>2</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E69:JD69)</f>
         <v>36</v>
       </c>
       <c r="E69" s="22"/>
@@ -20621,7 +20947,7 @@
         <v>2</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E70:JD70)</f>
         <v>7</v>
       </c>
       <c r="E70" s="22"/>
@@ -20805,7 +21131,7 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E71:JD71)</f>
         <v>3</v>
       </c>
       <c r="E71" s="22"/>
@@ -20981,7 +21307,7 @@
         <v>216</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E72:JD72)</f>
         <v>1</v>
       </c>
       <c r="E72" s="22"/>
@@ -21151,7 +21477,7 @@
         <v>217</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E73:JD73)</f>
         <v>1</v>
       </c>
       <c r="E73" s="22"/>
@@ -21321,7 +21647,7 @@
         <v>218</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E74:JD74)</f>
         <v>1</v>
       </c>
       <c r="E74" s="22"/>
@@ -21491,7 +21817,7 @@
         <v>219</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E75:JD75)</f>
         <v>1</v>
       </c>
       <c r="E75" s="22"/>
@@ -21664,7 +21990,7 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E76:JD76)</f>
         <v>1</v>
       </c>
       <c r="E76" s="22"/>
@@ -21836,7 +22162,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E77:JD77)</f>
         <v>1</v>
       </c>
       <c r="E77" s="22"/>
@@ -22008,7 +22334,7 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E78:JD78)</f>
         <v>1</v>
       </c>
       <c r="E78" s="22"/>
@@ -22180,7 +22506,7 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f>COUNTA(E79:JD79)</f>
         <v>1</v>
       </c>
       <c r="E79" s="22"/>
@@ -22349,7 +22675,7 @@
         <v>247</v>
       </c>
       <c r="D80">
-        <f t="shared" ref="D80:D85" si="4">COUNTA(E80:JF80)</f>
+        <f t="shared" ref="D80:D85" si="3">COUNTA(E80:JD80)</f>
         <v>0</v>
       </c>
       <c r="E80" s="22"/>
@@ -22508,7 +22834,7 @@
       <c r="FB80" s="25"/>
       <c r="FC80" s="22"/>
     </row>
-    <row r="81" spans="1:197" ht="26">
+    <row r="81" spans="1:195" ht="26">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -22519,7 +22845,7 @@
         <v>2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E81" s="22"/>
@@ -22692,7 +23018,7 @@
       <c r="FB81" s="25"/>
       <c r="FC81" s="22"/>
     </row>
-    <row r="82" spans="1:197" ht="26">
+    <row r="82" spans="1:195" ht="26">
       <c r="A82" t="s">
         <v>170</v>
       </c>
@@ -22703,7 +23029,7 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E82" s="22"/>
@@ -22864,7 +23190,7 @@
       <c r="FB82" s="25"/>
       <c r="FC82" s="22"/>
     </row>
-    <row r="83" spans="1:197">
+    <row r="83" spans="1:195">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -22872,7 +23198,7 @@
         <v>25</v>
       </c>
       <c r="D83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E83" s="22"/>
@@ -23041,7 +23367,7 @@
       <c r="FB83" s="25"/>
       <c r="FC83" s="22"/>
     </row>
-    <row r="84" spans="1:197">
+    <row r="84" spans="1:195">
       <c r="A84" t="s">
         <v>170</v>
       </c>
@@ -23052,7 +23378,7 @@
         <v>3</v>
       </c>
       <c r="D84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E84" s="22"/>
@@ -23217,12 +23543,12 @@
       <c r="FB84" s="25"/>
       <c r="FC84" s="22"/>
     </row>
-    <row r="85" spans="1:197">
+    <row r="85" spans="1:195">
       <c r="B85" s="3" t="s">
         <v>179</v>
       </c>
       <c r="D85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E85" s="22"/>
@@ -23381,12 +23707,12 @@
       <c r="FB85" s="25"/>
       <c r="FC85" s="22"/>
     </row>
-    <row r="86" spans="1:197">
+    <row r="86" spans="1:195">
       <c r="A86" t="s">
+        <v>404</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="E86" s="22"/>
       <c r="F86" s="23"/>
@@ -23543,13 +23869,19 @@
       <c r="FA86" s="23"/>
       <c r="FB86" s="25"/>
       <c r="FC86" s="22"/>
-      <c r="GI86" s="16" t="s">
+      <c r="GG86" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="GJ86" s="7" t="s">
+      <c r="GH86" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="GK86" s="7" t="s">
+      <c r="GI86" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="GJ86" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="GK86" s="39" t="s">
         <v>210</v>
       </c>
       <c r="GL86" s="39" t="s">
@@ -23558,16 +23890,10 @@
       <c r="GM86" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="GN86" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="GO86" s="39" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="87" spans="1:197" ht="26">
+    </row>
+    <row r="87" spans="1:195" ht="26">
       <c r="A87" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>186</v>
@@ -23730,9 +24056,9 @@
       <c r="FB87" s="25"/>
       <c r="FC87" s="22"/>
     </row>
-    <row r="88" spans="1:197">
+    <row r="88" spans="1:195">
       <c r="A88" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>153</v>
@@ -23899,9 +24225,9 @@
       <c r="FB88" s="25"/>
       <c r="FC88" s="22"/>
     </row>
-    <row r="89" spans="1:197" ht="26">
+    <row r="89" spans="1:195" ht="26">
       <c r="A89" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>160</v>
@@ -24065,7 +24391,7 @@
       <c r="FB89" s="25"/>
       <c r="FC89" s="22"/>
     </row>
-    <row r="90" spans="1:197">
+    <row r="90" spans="1:195">
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="22"/>
@@ -24224,7 +24550,7 @@
       <c r="FB90" s="25"/>
       <c r="FC90" s="22"/>
     </row>
-    <row r="91" spans="1:197">
+    <row r="91" spans="1:195">
       <c r="E91" s="22"/>
       <c r="F91" s="23"/>
       <c r="G91" s="23"/>
@@ -24381,7 +24707,7 @@
       <c r="FB91" s="25"/>
       <c r="FC91" s="22"/>
     </row>
-    <row r="92" spans="1:197">
+    <row r="92" spans="1:195">
       <c r="E92" s="22"/>
       <c r="F92" s="23"/>
       <c r="G92" s="23"/>
@@ -24538,7 +24864,7 @@
       <c r="FB92" s="25"/>
       <c r="FC92" s="22"/>
     </row>
-    <row r="93" spans="1:197">
+    <row r="93" spans="1:195">
       <c r="E93" s="22"/>
       <c r="F93" s="23"/>
       <c r="G93" s="23"/>
@@ -24695,7 +25021,7 @@
       <c r="FB93" s="25"/>
       <c r="FC93" s="22"/>
     </row>
-    <row r="94" spans="1:197">
+    <row r="94" spans="1:195">
       <c r="E94" s="22"/>
       <c r="F94" s="23"/>
       <c r="G94" s="23"/>
@@ -24852,7 +25178,7 @@
       <c r="FB94" s="25"/>
       <c r="FC94" s="22"/>
     </row>
-    <row r="95" spans="1:197">
+    <row r="95" spans="1:195">
       <c r="E95" s="22"/>
       <c r="F95" s="23"/>
       <c r="G95" s="23"/>
@@ -25009,7 +25335,7 @@
       <c r="FB95" s="25"/>
       <c r="FC95" s="22"/>
     </row>
-    <row r="96" spans="1:197">
+    <row r="96" spans="1:195">
       <c r="E96" s="22"/>
       <c r="F96" s="23"/>
       <c r="G96" s="23"/>
@@ -30825,20 +31151,20 @@
     <sortCondition ref="C13:C84"/>
   </sortState>
   <mergeCells count="42">
-    <mergeCell ref="HN2:HP2"/>
-    <mergeCell ref="GI2:GO2"/>
-    <mergeCell ref="GP2:GV2"/>
-    <mergeCell ref="GW2:GZ2"/>
-    <mergeCell ref="HA2:HC2"/>
+    <mergeCell ref="HL2:HN2"/>
+    <mergeCell ref="GG2:GM2"/>
+    <mergeCell ref="GN2:GT2"/>
+    <mergeCell ref="GU2:GX2"/>
+    <mergeCell ref="GY2:HA2"/>
     <mergeCell ref="FC2:FG2"/>
     <mergeCell ref="FM2:FO2"/>
-    <mergeCell ref="HD2:HG2"/>
-    <mergeCell ref="HH2:HJ2"/>
-    <mergeCell ref="HK2:HM2"/>
+    <mergeCell ref="HB2:HE2"/>
+    <mergeCell ref="HF2:HH2"/>
+    <mergeCell ref="HI2:HK2"/>
     <mergeCell ref="BT2:BX2"/>
     <mergeCell ref="CM2:CO2"/>
-    <mergeCell ref="GE2:GH2"/>
-    <mergeCell ref="FS2:GC2"/>
+    <mergeCell ref="GC2:GF2"/>
+    <mergeCell ref="FS2:GA2"/>
     <mergeCell ref="ED2:EI2"/>
     <mergeCell ref="EJ2:EM2"/>
     <mergeCell ref="CU2:CZ2"/>
@@ -30919,7 +31245,7 @@
       <c r="H1" s="126"/>
       <c r="I1" s="127"/>
       <c r="J1" s="120" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K1" s="121"/>
       <c r="L1" s="121"/>
@@ -30937,7 +31263,7 @@
       <c r="V1" s="121"/>
       <c r="W1" s="122"/>
       <c r="X1" s="120" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Y1" s="121"/>
       <c r="Z1" s="121"/>
@@ -30948,7 +31274,7 @@
     </row>
     <row r="2" spans="1:30">
       <c r="C2" s="38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D2" s="16">
         <f>COUNTIF(D5:D67,"Y")</f>
@@ -30961,7 +31287,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="22">
         <f>COUNTIF(J5:J67,"Y")</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -30998,7 +31324,7 @@
         <v>301</v>
       </c>
       <c r="F3" s="123" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G3" s="123"/>
       <c r="H3" s="123"/>
@@ -31006,7 +31332,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="7"/>
       <c r="L3" s="123" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M3" s="123"/>
       <c r="N3" s="123"/>
@@ -31015,7 +31341,7 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="7"/>
       <c r="S3" s="123" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="T3" s="123"/>
       <c r="U3" s="123"/>
@@ -31024,7 +31350,7 @@
       <c r="X3" s="22"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="123" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AA3" s="123"/>
       <c r="AB3" s="123"/>
@@ -31036,7 +31362,7 @@
         <v>376</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C4" t="s">
         <v>377</v>
@@ -31044,72 +31370,72 @@
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
       <c r="F4" s="44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G4" s="44" t="s">
         <v>293</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J4" s="50"/>
       <c r="K4" s="51"/>
       <c r="L4" s="44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M4" s="44" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>293</v>
       </c>
       <c r="O4" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P4" s="45" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q4" s="50"/>
       <c r="R4" s="51"/>
       <c r="S4" s="44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="T4" s="44" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="U4" s="44" t="s">
         <v>293</v>
       </c>
       <c r="V4" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="W4" s="45" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="X4" s="50"/>
       <c r="Y4" s="51"/>
       <c r="Z4" s="44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA4" s="44" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AB4" s="44" t="s">
         <v>293</v>
       </c>
       <c r="AC4" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AD4" s="45" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B5" s="84" t="s">
         <v>381</v>
@@ -31129,17 +31455,17 @@
         <v>306</v>
       </c>
       <c r="G5" s="87" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H5" s="87"/>
       <c r="I5" s="88"/>
       <c r="J5" s="85" t="str">
         <f t="shared" ref="J5:J36" si="1">IF(COUNTIF(WnSAssignmentHarbourCruise,$A5)&gt;0,"Y","-")</f>
-        <v>Y</v>
-      </c>
-      <c r="K5" s="86" t="e">
+        <v>-</v>
+      </c>
+      <c r="K5" s="86" t="str">
         <f t="array" ref="K5">IF(J5="Y",MAX(IF(WnSAssignmentHarbourCruise=$A5,TaskRankRequirements)),"")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="L5" s="87" t="s">
         <v>306</v>
@@ -31189,7 +31515,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>382</v>
@@ -31206,29 +31532,29 @@
         <v/>
       </c>
       <c r="F6" s="54" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H6" s="54"/>
       <c r="I6" s="55"/>
       <c r="J6" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-      <c r="K6" s="53">
+        <v>-</v>
+      </c>
+      <c r="K6" s="53" t="str">
         <f t="array" ref="K6">IF(J6="Y",MAX(IF(WnSAssignmentHarbourCruise=$A6,TaskRankRequirements)),"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="L6" s="54" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M6" s="54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N6" s="54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O6" s="54"/>
       <c r="P6" s="91"/>
@@ -31241,13 +31567,13 @@
         <v>0</v>
       </c>
       <c r="S6" s="54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T6" s="54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U6" s="54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="V6" s="53"/>
       <c r="W6" s="91"/>
@@ -31261,13 +31587,13 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D7" s="22" t="str">
         <f t="shared" si="0"/>
@@ -31317,13 +31643,13 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D8" s="22" t="str">
         <f t="shared" si="0"/>
@@ -31370,13 +31696,13 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D9" s="22" t="str">
         <f t="shared" si="0"/>
@@ -31426,10 +31752,10 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="108" t="s">
+        <v>458</v>
+      </c>
+      <c r="B10" s="109" t="s">
         <v>459</v>
-      </c>
-      <c r="B10" s="109" t="s">
-        <v>460</v>
       </c>
       <c r="C10" s="110"/>
       <c r="D10" s="40" t="str">
@@ -31477,7 +31803,7 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>380</v>
@@ -31494,39 +31820,39 @@
         <v/>
       </c>
       <c r="F11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J11" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-      <c r="K11" s="53" t="e">
+        <v>-</v>
+      </c>
+      <c r="K11" s="53" t="str">
         <f t="array" ref="K11">IF(J11="Y",MAX(IF(WnSAssignmentHarbourCruise=$A11,TaskRankRequirements)),"")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="L11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P11" s="91" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q11" s="52" t="str">
         <f t="shared" si="2"/>
@@ -31537,19 +31863,19 @@
         <v/>
       </c>
       <c r="S11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="V11" s="53" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="W11" s="91" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="X11" s="53"/>
       <c r="Y11" s="53"/>
@@ -31561,13 +31887,13 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D12" s="52" t="str">
         <f t="shared" si="0"/>
@@ -31578,23 +31904,23 @@
         <v/>
       </c>
       <c r="F12" s="54" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H12" s="54"/>
       <c r="I12" s="55"/>
       <c r="J12" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-      <c r="K12" s="53">
+        <v>-</v>
+      </c>
+      <c r="K12" s="53" t="str">
         <f t="array" ref="K12">IF(J12="Y",MAX(IF(WnSAssignmentHarbourCruise=$A12,TaskRankRequirements)),"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="L12" s="54" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M12" s="54"/>
       <c r="N12" s="54"/>
@@ -31609,16 +31935,16 @@
         <v>0</v>
       </c>
       <c r="S12" s="54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="T12" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="U12" s="54" t="s">
+        <v>449</v>
+      </c>
+      <c r="V12" s="53" t="s">
         <v>448</v>
-      </c>
-      <c r="U12" s="54" t="s">
-        <v>450</v>
-      </c>
-      <c r="V12" s="53" t="s">
-        <v>449</v>
       </c>
       <c r="W12" s="91"/>
       <c r="X12" s="53"/>
@@ -31631,13 +31957,13 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C13" s="99" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D13" s="22" t="str">
         <f t="shared" si="0"/>
@@ -31673,16 +31999,16 @@
         <v/>
       </c>
       <c r="S13" s="60" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="T13" s="60" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U13" s="60" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="V13" s="60" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="W13" s="61"/>
       <c r="X13" s="60"/>
@@ -31695,13 +32021,13 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D14" s="22" t="str">
         <f t="shared" si="0"/>
@@ -31751,10 +32077,10 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C15" s="98" t="s">
         <v>368</v>
@@ -31768,16 +32094,16 @@
         <v/>
       </c>
       <c r="F15" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H15" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J15" s="52" t="str">
         <f t="shared" si="1"/>
@@ -31788,11 +32114,11 @@
         <v>4</v>
       </c>
       <c r="L15" s="54" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M15" s="54"/>
       <c r="N15" s="54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O15" s="54"/>
       <c r="P15" s="91"/>
@@ -31805,14 +32131,14 @@
         <v>0</v>
       </c>
       <c r="S15" s="54" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T15" s="54"/>
       <c r="U15" s="54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="V15" s="53" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="W15" s="91"/>
       <c r="X15" s="53"/>
@@ -31828,10 +32154,10 @@
         <v>375</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C16" s="99" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D16" s="22" t="str">
         <f t="shared" si="0"/>
@@ -31868,11 +32194,11 @@
       </c>
       <c r="S16" s="60"/>
       <c r="T16" s="60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U16" s="60"/>
       <c r="V16" s="60" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W16" s="61"/>
       <c r="X16" s="60"/>
@@ -31885,10 +32211,10 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="22" t="str">
@@ -31939,10 +32265,10 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="22" t="str">
@@ -31993,10 +32319,10 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C19" s="99" t="s">
         <v>358</v>
@@ -32036,13 +32362,13 @@
       </c>
       <c r="S19" s="60"/>
       <c r="T19" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U19" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V19" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="W19" s="61"/>
       <c r="X19" s="60"/>
@@ -32055,10 +32381,10 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C20" s="99"/>
       <c r="D20" s="22" t="str">
@@ -32096,13 +32422,13 @@
       </c>
       <c r="S20" s="60"/>
       <c r="T20" s="60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U20" s="60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="V20" s="60" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W20" s="61"/>
       <c r="X20" s="60"/>
@@ -32115,10 +32441,10 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C21" s="99"/>
       <c r="D21" s="22" t="str">
@@ -32156,13 +32482,13 @@
       </c>
       <c r="S21" s="60"/>
       <c r="T21" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U21" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V21" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="W21" s="61"/>
       <c r="X21" s="60"/>
@@ -32175,10 +32501,10 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="22" t="str">
@@ -32229,10 +32555,10 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B23" s="73" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="22" t="str">
@@ -32283,10 +32609,10 @@
     </row>
     <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="22" t="str">
@@ -32337,10 +32663,10 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C25" s="80"/>
       <c r="D25" s="22" t="str">
@@ -32391,10 +32717,10 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C26" s="98"/>
       <c r="D26" s="52" t="str">
@@ -32406,10 +32732,10 @@
         <v/>
       </c>
       <c r="F26" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H26" s="54"/>
       <c r="I26" s="55"/>
@@ -32422,11 +32748,11 @@
         <v>0</v>
       </c>
       <c r="L26" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M26" s="54"/>
       <c r="N26" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O26" s="54"/>
       <c r="P26" s="91"/>
@@ -32439,24 +32765,24 @@
         <v>0</v>
       </c>
       <c r="S26" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="T26" s="54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U26" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="V26" s="54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="W26" s="91"/>
       <c r="X26" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Y26" s="54"/>
       <c r="Z26" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA26" s="54"/>
       <c r="AB26" s="53"/>
@@ -32465,10 +32791,10 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C27" s="98"/>
       <c r="D27" s="52" t="str">
@@ -32480,10 +32806,10 @@
         <v/>
       </c>
       <c r="F27" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G27" s="54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H27" s="54"/>
       <c r="I27" s="55"/>
@@ -32496,11 +32822,11 @@
         <v>0</v>
       </c>
       <c r="L27" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M27" s="54"/>
       <c r="N27" s="54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O27" s="54"/>
       <c r="P27" s="91"/>
@@ -32513,24 +32839,24 @@
         <v>0</v>
       </c>
       <c r="S27" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="T27" s="54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U27" s="54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="V27" s="54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="W27" s="91"/>
       <c r="X27" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Y27" s="54"/>
       <c r="Z27" s="54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AA27" s="54"/>
       <c r="AB27" s="53"/>
@@ -32539,10 +32865,10 @@
     </row>
     <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B28" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C28" s="98"/>
       <c r="D28" s="52" t="str">
@@ -32554,10 +32880,10 @@
         <v/>
       </c>
       <c r="F28" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G28" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H28" s="54"/>
       <c r="I28" s="55"/>
@@ -32570,11 +32896,11 @@
         <v>0</v>
       </c>
       <c r="L28" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M28" s="54"/>
       <c r="N28" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O28" s="54"/>
       <c r="P28" s="91"/>
@@ -32587,24 +32913,24 @@
         <v>0</v>
       </c>
       <c r="S28" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T28" s="54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U28" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V28" s="54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="W28" s="91"/>
       <c r="X28" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y28" s="54"/>
       <c r="Z28" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AA28" s="54"/>
       <c r="AB28" s="53"/>
@@ -32613,10 +32939,10 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C29" s="98"/>
       <c r="D29" s="52" t="str">
@@ -32628,10 +32954,10 @@
         <v/>
       </c>
       <c r="F29" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G29" s="54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H29" s="54"/>
       <c r="I29" s="55"/>
@@ -32644,11 +32970,11 @@
         <v>0</v>
       </c>
       <c r="L29" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M29" s="54"/>
       <c r="N29" s="54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O29" s="54"/>
       <c r="P29" s="91"/>
@@ -32661,24 +32987,24 @@
         <v>0</v>
       </c>
       <c r="S29" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T29" s="54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U29" s="54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="V29" s="54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="W29" s="91"/>
       <c r="X29" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y29" s="54"/>
       <c r="Z29" s="54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AA29" s="54"/>
       <c r="AB29" s="53"/>
@@ -32687,10 +33013,10 @@
     </row>
     <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C30" s="100" t="s">
         <v>369</v>
@@ -32709,26 +33035,26 @@
       <c r="I30" s="8"/>
       <c r="J30" s="62" t="str">
         <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-      <c r="K30" s="63">
+        <v>-</v>
+      </c>
+      <c r="K30" s="63" t="str">
         <f t="array" ref="K30">IF(J30="Y",MAX(IF(WnSAssignmentHarbourCruise=$A30,TaskRankRequirements)),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="L30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P30" s="65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q30" s="62" t="str">
         <f t="shared" si="2"/>
@@ -32739,47 +33065,47 @@
         <v>0</v>
       </c>
       <c r="S30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="T30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="W30" s="65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="X30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Y30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Z30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AA30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AB30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AC30" s="64"/>
       <c r="AD30" s="65"/>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C31" s="100" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D31" s="22" t="str">
         <f t="shared" si="0"/>
@@ -32795,14 +33121,14 @@
       <c r="I31" s="8"/>
       <c r="J31" s="62" t="str">
         <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-      <c r="K31" s="63">
+        <v>-</v>
+      </c>
+      <c r="K31" s="63" t="str">
         <f t="array" ref="K31">IF(J31="Y",MAX(IF(WnSAssignmentHarbourCruise=$A31,TaskRankRequirements)),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="L31" s="64" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M31" s="64"/>
       <c r="N31" s="64"/>
@@ -32817,20 +33143,20 @@
         <v>0</v>
       </c>
       <c r="S31" s="64" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="T31" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U31" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="V31" s="64" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W31" s="65"/>
       <c r="X31" s="64" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Y31" s="64"/>
       <c r="Z31" s="64"/>
@@ -32841,10 +33167,10 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C32" s="100"/>
       <c r="D32" s="22" t="str">
@@ -32861,14 +33187,14 @@
       <c r="I32" s="8"/>
       <c r="J32" s="62" t="str">
         <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-      <c r="K32" s="63">
+        <v>-</v>
+      </c>
+      <c r="K32" s="63" t="str">
         <f t="array" ref="K32">IF(J32="Y",MAX(IF(WnSAssignmentHarbourCruise=$A32,TaskRankRequirements)),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L32" s="64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M32" s="64"/>
       <c r="N32" s="64"/>
@@ -32883,20 +33209,20 @@
         <v>0</v>
       </c>
       <c r="S32" s="64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T32" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U32" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V32" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="W32" s="65"/>
       <c r="X32" s="64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y32" s="64"/>
       <c r="Z32" s="64"/>
@@ -32910,7 +33236,7 @@
         <v>370</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C33" s="100"/>
       <c r="D33" s="22" t="str">
@@ -32927,14 +33253,14 @@
       <c r="I33" s="8"/>
       <c r="J33" s="62" t="str">
         <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-      <c r="K33" s="63">
+        <v>-</v>
+      </c>
+      <c r="K33" s="63" t="str">
         <f t="array" ref="K33">IF(J33="Y",MAX(IF(WnSAssignmentHarbourCruise=$A33,TaskRankRequirements)),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L33" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M33" s="64"/>
       <c r="N33" s="64"/>
@@ -32949,20 +33275,20 @@
         <v>0</v>
       </c>
       <c r="S33" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="T33" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U33" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="V33" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="W33" s="65"/>
       <c r="X33" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Y33" s="64"/>
       <c r="Z33" s="64"/>
@@ -32973,10 +33299,10 @@
     </row>
     <row r="34" spans="1:30">
       <c r="A34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C34" s="100"/>
       <c r="D34" s="22" t="str">
@@ -32993,14 +33319,14 @@
       <c r="I34" s="8"/>
       <c r="J34" s="62" t="str">
         <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-      <c r="K34" s="63">
+        <v>-</v>
+      </c>
+      <c r="K34" s="63" t="str">
         <f t="array" ref="K34">IF(J34="Y",MAX(IF(WnSAssignmentHarbourCruise=$A34,TaskRankRequirements)),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="L34" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M34" s="64"/>
       <c r="N34" s="64"/>
@@ -33015,20 +33341,20 @@
         <v>0</v>
       </c>
       <c r="S34" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="T34" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U34" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V34" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="W34" s="65"/>
       <c r="X34" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Y34" s="64"/>
       <c r="Z34" s="64"/>
@@ -33042,7 +33368,7 @@
         <v>371</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C35" s="100" t="s">
         <v>374</v>
@@ -33061,11 +33387,11 @@
       <c r="I35" s="8"/>
       <c r="J35" s="62" t="str">
         <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-      <c r="K35" s="63">
+        <v>-</v>
+      </c>
+      <c r="K35" s="63" t="str">
         <f t="array" ref="K35">IF(J35="Y",MAX(IF(WnSAssignmentHarbourCruise=$A35,TaskRankRequirements)),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="L35" s="64" t="s">
         <v>374</v>
@@ -33122,7 +33448,7 @@
         <v>372</v>
       </c>
       <c r="B36" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C36" s="99"/>
       <c r="D36" s="22" t="str">
@@ -33160,13 +33486,13 @@
       </c>
       <c r="S36" s="60"/>
       <c r="T36" s="60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U36" s="60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="V36" s="60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="W36" s="61"/>
       <c r="X36" s="60"/>
@@ -33182,7 +33508,7 @@
         <v>359</v>
       </c>
       <c r="B37" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C37" s="99"/>
       <c r="D37" s="22" t="str">
@@ -33220,13 +33546,13 @@
       </c>
       <c r="S37" s="60"/>
       <c r="T37" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U37" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V37" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="W37" s="61"/>
       <c r="X37" s="60"/>
@@ -33242,7 +33568,7 @@
         <v>373</v>
       </c>
       <c r="B38" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C38" s="99"/>
       <c r="D38" s="22" t="str">
@@ -33280,13 +33606,13 @@
       </c>
       <c r="S38" s="60"/>
       <c r="T38" s="60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U38" s="60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="V38" s="60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="W38" s="61"/>
       <c r="X38" s="60"/>
@@ -33302,7 +33628,7 @@
         <v>360</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C39" s="99"/>
       <c r="D39" s="22" t="str">
@@ -33340,13 +33666,13 @@
       </c>
       <c r="S39" s="60"/>
       <c r="T39" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U39" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V39" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="W39" s="61"/>
       <c r="X39" s="60"/>
@@ -33359,10 +33685,10 @@
     </row>
     <row r="40" spans="1:30">
       <c r="A40" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B40" s="73" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="22" t="str">
@@ -33413,10 +33739,10 @@
     </row>
     <row r="41" spans="1:30">
       <c r="A41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C41" s="80"/>
       <c r="D41" s="22" t="str">
@@ -33467,10 +33793,10 @@
     </row>
     <row r="42" spans="1:30">
       <c r="A42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B42" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C42" s="80"/>
       <c r="D42" s="22" t="str">
@@ -33521,10 +33847,10 @@
     </row>
     <row r="43" spans="1:30">
       <c r="A43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B43" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C43" s="80"/>
       <c r="D43" s="22" t="str">
@@ -33575,10 +33901,10 @@
     </row>
     <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B44" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C44" s="80"/>
       <c r="D44" s="22" t="str">
@@ -33629,10 +33955,10 @@
     </row>
     <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B45" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C45" s="80"/>
       <c r="D45" s="22" t="str">
@@ -33683,10 +34009,10 @@
     </row>
     <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B46" s="76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C46" s="101"/>
       <c r="D46" s="22" t="str">
@@ -33737,10 +34063,10 @@
     </row>
     <row r="47" spans="1:30">
       <c r="A47" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B47" s="76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C47" s="101"/>
       <c r="D47" s="22" t="str">
@@ -33791,10 +34117,10 @@
     </row>
     <row r="48" spans="1:30">
       <c r="A48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B48" s="76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C48" s="101"/>
       <c r="D48" s="22" t="str">
@@ -33845,10 +34171,10 @@
     </row>
     <row r="49" spans="1:30">
       <c r="A49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B49" s="76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C49" s="101"/>
       <c r="D49" s="22" t="str">
@@ -33899,7 +34225,7 @@
     </row>
     <row r="50" spans="1:30">
       <c r="A50" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B50" s="76"/>
       <c r="C50" s="101"/>
@@ -33951,10 +34277,10 @@
     </row>
     <row r="51" spans="1:30">
       <c r="A51" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B51" s="77" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C51" s="107"/>
       <c r="D51" s="40" t="str">
@@ -34005,7 +34331,7 @@
     </row>
     <row r="52" spans="1:30">
       <c r="A52" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B52" s="67" t="s">
         <v>383</v>
@@ -34019,32 +34345,32 @@
         <v>4</v>
       </c>
       <c r="F52" s="54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G52" s="54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H52" s="54"/>
       <c r="I52" s="55"/>
       <c r="J52" s="52" t="str">
         <f t="shared" si="5"/>
-        <v>Y</v>
-      </c>
-      <c r="K52" s="53" t="e">
+        <v>-</v>
+      </c>
+      <c r="K52" s="53" t="str">
         <f t="array" ref="K52">IF(J52="Y",MAX(IF(WnSAssignmentHarbourCruise=$A52,TaskRankRequirements)),"")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="L52" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M52" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N52" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O52" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P52" s="91"/>
       <c r="Q52" s="52" t="str">
@@ -34053,16 +34379,16 @@
       </c>
       <c r="R52" s="53"/>
       <c r="S52" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T52" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U52" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="V52" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="W52" s="91"/>
       <c r="X52" s="53"/>
@@ -34075,10 +34401,10 @@
     </row>
     <row r="53" spans="1:30">
       <c r="A53" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B53" s="102" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C53" s="78"/>
       <c r="D53" s="22" t="str">
@@ -34092,23 +34418,23 @@
       <c r="I53" s="8"/>
       <c r="J53" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Y</v>
-      </c>
-      <c r="K53" s="64" t="e">
+        <v>-</v>
+      </c>
+      <c r="K53" s="64" t="str">
         <f t="array" ref="K53">IF(J53="Y",MAX(IF(WnSAssignmentHarbourCruise=$A53,TaskRankRequirements)),"")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="L53" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M53" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N53" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O53" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P53" s="65"/>
       <c r="Q53" s="62" t="str">
@@ -34117,16 +34443,16 @@
       </c>
       <c r="R53" s="64"/>
       <c r="S53" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="T53" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U53" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="V53" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W53" s="65"/>
       <c r="X53" s="64"/>
@@ -34139,10 +34465,10 @@
     </row>
     <row r="54" spans="1:30">
       <c r="A54" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B54" s="73" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C54" s="79"/>
       <c r="D54" s="22" t="str">
@@ -34187,10 +34513,10 @@
     </row>
     <row r="55" spans="1:30">
       <c r="A55" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B55" s="74" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C55" s="80"/>
       <c r="D55" s="22" t="str">
@@ -34235,7 +34561,7 @@
     </row>
     <row r="56" spans="1:30">
       <c r="A56" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B56" s="70"/>
       <c r="C56" s="81"/>
@@ -34281,10 +34607,10 @@
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B57" s="105" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C57" s="106"/>
       <c r="D57" s="40" t="str">
@@ -34332,7 +34658,7 @@
         <v>362</v>
       </c>
       <c r="B58" s="102" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C58" s="78"/>
       <c r="D58" s="22" t="str">
@@ -34346,18 +34672,18 @@
       <c r="I58" s="8"/>
       <c r="J58" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Y</v>
-      </c>
-      <c r="K58" s="64" t="e">
+        <v>-</v>
+      </c>
+      <c r="K58" s="64" t="str">
         <f t="array" ref="K58">IF(J58="Y",MAX(IF(WnSAssignmentHarbourCruise=$A58,TaskRankRequirements)),"")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="L58" s="64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M58" s="64"/>
       <c r="N58" s="64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O58" s="64"/>
       <c r="P58" s="65"/>
@@ -34367,11 +34693,11 @@
       </c>
       <c r="R58" s="64"/>
       <c r="S58" s="64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T58" s="64"/>
       <c r="U58" s="64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="V58" s="64"/>
       <c r="W58" s="65"/>
@@ -34385,7 +34711,7 @@
     </row>
     <row r="59" spans="1:30">
       <c r="A59" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B59" s="74" t="s">
         <v>367</v>
@@ -34450,16 +34776,16 @@
       <c r="I60" s="8"/>
       <c r="J60" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Y</v>
-      </c>
-      <c r="K60" s="64" t="e">
+        <v>-</v>
+      </c>
+      <c r="K60" s="64" t="str">
         <f t="array" ref="K60">IF(J60="Y",MAX(IF(WnSAssignmentHarbourCruise=$A60,TaskRankRequirements)),"")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="L60" s="64"/>
       <c r="M60" s="64"/>
       <c r="N60" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O60" s="64"/>
       <c r="P60" s="65"/>
@@ -34471,7 +34797,7 @@
       <c r="S60" s="64"/>
       <c r="T60" s="64"/>
       <c r="U60" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="V60" s="64"/>
       <c r="W60" s="65"/>
@@ -34510,7 +34836,7 @@
       <c r="L61" s="64"/>
       <c r="M61" s="64"/>
       <c r="N61" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O61" s="64"/>
       <c r="P61" s="65"/>
@@ -34522,7 +34848,7 @@
       <c r="S61" s="64"/>
       <c r="T61" s="64"/>
       <c r="U61" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="V61" s="64"/>
       <c r="W61" s="65"/>
@@ -34572,7 +34898,7 @@
       <c r="S62" s="60"/>
       <c r="T62" s="60"/>
       <c r="U62" s="60" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="V62" s="60"/>
       <c r="W62" s="61"/>
@@ -34586,7 +34912,7 @@
     </row>
     <row r="63" spans="1:30">
       <c r="A63" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B63" s="69" t="s">
         <v>364</v>
@@ -34634,7 +34960,7 @@
     </row>
     <row r="64" spans="1:30">
       <c r="A64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B64" s="69" t="s">
         <v>364</v>
@@ -34682,10 +35008,10 @@
     </row>
     <row r="65" spans="1:30">
       <c r="A65" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B65" s="92" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C65" s="93"/>
       <c r="D65" s="22" t="str">
@@ -34730,10 +35056,10 @@
     </row>
     <row r="66" spans="1:30">
       <c r="A66" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B66" s="70" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C66" s="81"/>
       <c r="D66" s="22" t="str">
@@ -34778,10 +35104,10 @@
     </row>
     <row r="67" spans="1:30">
       <c r="A67" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B67" s="104" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C67" s="94"/>
       <c r="D67" s="40" t="str">
@@ -34836,7 +35162,7 @@
     <mergeCell ref="S3:W3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A67">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -34856,7 +35182,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -34880,7 +35206,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="C2" s="38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D2" s="16">
         <f>COUNTIF(D5:D67,"Y")</f>
@@ -34900,7 +35226,7 @@
         <v>301</v>
       </c>
       <c r="F3" s="123" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G3" s="123"/>
       <c r="H3" s="123"/>
@@ -34911,7 +35237,7 @@
         <v>376</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C4" t="s">
         <v>377</v>
@@ -34919,16 +35245,16 @@
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
       <c r="F4" s="44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G4" s="44" t="s">
         <v>293</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -34953,7 +35279,7 @@
         <v>306</v>
       </c>
       <c r="G5" s="87" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H5" s="87"/>
       <c r="I5" s="88"/>
@@ -34977,23 +35303,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H6" s="54"/>
       <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D7" s="22" t="str">
         <f t="array" ref="D7">IF(OR(ISNUMBER(SEARCH(","&amp;$A7&amp;",",","&amp;WnSAssignmentMoveShip&amp;","))),"Y","-")</f>
@@ -35010,13 +35336,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D8" s="22" t="str">
         <f t="array" ref="D8">IF(OR(ISNUMBER(SEARCH(","&amp;$A8&amp;",",","&amp;WnSAssignmentMoveShip&amp;","))),"Y","-")</f>
@@ -35030,13 +35356,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D9" s="22" t="str">
         <f t="array" ref="D9">IF(OR(ISNUMBER(SEARCH(","&amp;$A9&amp;",",","&amp;WnSAssignmentMoveShip&amp;","))),"Y","-")</f>
@@ -35053,10 +35379,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="108" t="s">
+        <v>458</v>
+      </c>
+      <c r="B10" s="109" t="s">
         <v>459</v>
-      </c>
-      <c r="B10" s="109" t="s">
-        <v>460</v>
       </c>
       <c r="C10" s="110"/>
       <c r="D10" s="40" t="str">
@@ -35091,27 +35417,27 @@
         <v>#N/A</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D12" s="52" t="str">
         <f t="array" ref="D12">IF(OR(ISNUMBER(SEARCH(","&amp;$A12&amp;",",","&amp;WnSAssignmentMoveShip&amp;","))),"Y","-")</f>
@@ -35122,23 +35448,23 @@
         <v>4</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H12" s="54"/>
       <c r="I12" s="55"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C13" s="99" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D13" s="22" t="str">
         <f t="array" ref="D13">IF(OR(ISNUMBER(SEARCH(","&amp;$A13&amp;",",","&amp;WnSAssignmentMoveShip&amp;","))),"Y","-")</f>
@@ -35155,13 +35481,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D14" s="22" t="str">
         <f t="array" ref="D14">IF(OR(ISNUMBER(SEARCH(","&amp;$A14&amp;",",","&amp;WnSAssignmentMoveShip&amp;","))),"Y","-")</f>
@@ -35181,7 +35507,7 @@
         <v>490</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C15" s="98" t="s">
         <v>368</v>
@@ -35195,27 +35521,27 @@
         <v>1</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H15" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C16" s="99" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D16" s="22" t="str">
         <f t="array" ref="D16">IF(OR(ISNUMBER(SEARCH(","&amp;$A16&amp;",",","&amp;WnSAssignmentMoveShip&amp;","))),"Y","-")</f>
@@ -35232,10 +35558,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="22" t="str">
@@ -35253,10 +35579,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="22" t="str">
@@ -35274,10 +35600,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>501</v>
+        <v>458</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C19" s="99" t="s">
         <v>358</v>
@@ -35297,10 +35623,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>502</v>
+        <v>458</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C20" s="99"/>
       <c r="D20" s="22" t="str">
@@ -35318,10 +35644,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>503</v>
+        <v>458</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C21" s="99"/>
       <c r="D21" s="22" t="str">
@@ -35339,10 +35665,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="22" t="str">
@@ -35360,10 +35686,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B23" s="73" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="22" t="str">
@@ -35381,10 +35707,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="22" t="str">
@@ -35402,10 +35728,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C25" s="80"/>
       <c r="D25" s="22" t="str">
@@ -35423,10 +35749,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C26" s="98"/>
       <c r="D26" s="52" t="str">
@@ -35438,10 +35764,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H26" s="54"/>
       <c r="I26" s="55"/>
@@ -35451,7 +35777,7 @@
         <v>496</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C27" s="98"/>
       <c r="D27" s="52" t="str">
@@ -35463,20 +35789,20 @@
         <v>0</v>
       </c>
       <c r="F27" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G27" s="54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H27" s="54"/>
       <c r="I27" s="55"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B28" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C28" s="98"/>
       <c r="D28" s="52" t="str">
@@ -35488,20 +35814,20 @@
         <v>0</v>
       </c>
       <c r="F28" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G28" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H28" s="54"/>
       <c r="I28" s="55"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C29" s="98"/>
       <c r="D29" s="52" t="str">
@@ -35513,20 +35839,20 @@
         <v>0</v>
       </c>
       <c r="F29" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G29" s="54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H29" s="54"/>
       <c r="I29" s="55"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C30" s="100" t="s">
         <v>369</v>
@@ -35546,13 +35872,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C31" s="100" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D31" s="22" t="str">
         <f t="array" ref="D31">IF(OR(ISNUMBER(SEARCH(","&amp;$A31&amp;",",","&amp;WnSAssignmentMoveShip&amp;","))),"Y","-")</f>
@@ -35569,10 +35895,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C32" s="100"/>
       <c r="D32" s="22" t="str">
@@ -35590,10 +35916,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C33" s="100"/>
       <c r="D33" s="22" t="str">
@@ -35611,10 +35937,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C34" s="100"/>
       <c r="D34" s="22" t="str">
@@ -35632,10 +35958,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C35" s="100" t="s">
         <v>374</v>
@@ -35655,10 +35981,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B36" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C36" s="99"/>
       <c r="D36" s="22" t="str">
@@ -35676,10 +36002,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B37" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C37" s="99"/>
       <c r="D37" s="22" t="str">
@@ -35697,10 +36023,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B38" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C38" s="99"/>
       <c r="D38" s="22" t="str">
@@ -35718,10 +36044,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C39" s="99"/>
       <c r="D39" s="22" t="str">
@@ -35739,10 +36065,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B40" s="73" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="22" t="str">
@@ -35760,10 +36086,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C41" s="80"/>
       <c r="D41" s="22" t="str">
@@ -35781,10 +36107,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B42" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C42" s="80"/>
       <c r="D42" s="22" t="str">
@@ -35802,10 +36128,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B43" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C43" s="80"/>
       <c r="D43" s="22" t="str">
@@ -35823,10 +36149,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B44" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C44" s="80"/>
       <c r="D44" s="22" t="str">
@@ -35844,10 +36170,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B45" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C45" s="80"/>
       <c r="D45" s="22" t="str">
@@ -35865,10 +36191,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B46" s="76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C46" s="101"/>
       <c r="D46" s="22" t="str">
@@ -35886,10 +36212,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B47" s="76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C47" s="101"/>
       <c r="D47" s="22" t="str">
@@ -35907,10 +36233,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B48" s="76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C48" s="101"/>
       <c r="D48" s="22" t="str">
@@ -35928,10 +36254,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B49" s="76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C49" s="101"/>
       <c r="D49" s="22" t="str">
@@ -35949,7 +36275,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B50" s="76"/>
       <c r="C50" s="101"/>
@@ -35968,10 +36294,10 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B51" s="77" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C51" s="107"/>
       <c r="D51" s="40" t="str">
@@ -36003,20 +36329,20 @@
         <v>4</v>
       </c>
       <c r="F52" s="54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G52" s="54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H52" s="54"/>
       <c r="I52" s="55"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B53" s="102" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C53" s="78"/>
       <c r="D53" s="22" t="str">
@@ -36031,10 +36357,10 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B54" s="73" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C54" s="79"/>
       <c r="D54" s="22" t="str">
@@ -36049,10 +36375,10 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B55" s="74" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C55" s="80"/>
       <c r="D55" s="22" t="str">
@@ -36067,7 +36393,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B56" s="70"/>
       <c r="C56" s="81"/>
@@ -36083,10 +36409,10 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B57" s="105" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C57" s="106"/>
       <c r="D57" s="40" t="str">
@@ -36101,10 +36427,10 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B58" s="102" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C58" s="78"/>
       <c r="D58" s="22" t="str">
@@ -36119,7 +36445,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B59" s="74" t="s">
         <v>367</v>
@@ -36137,7 +36463,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B60" s="102" t="s">
         <v>364</v>
@@ -36155,7 +36481,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B61" s="102" t="s">
         <v>364</v>
@@ -36173,7 +36499,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B62" s="103" t="s">
         <v>364</v>
@@ -36191,7 +36517,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B63" s="69" t="s">
         <v>364</v>
@@ -36209,7 +36535,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B64" s="69" t="s">
         <v>364</v>
@@ -36227,10 +36553,10 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B65" s="92" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C65" s="93"/>
       <c r="D65" s="22" t="str">
@@ -36245,10 +36571,10 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B66" s="70" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C66" s="81"/>
       <c r="D66" s="22" t="str">
@@ -36263,10 +36589,10 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B67" s="104" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C67" s="94"/>
       <c r="D67" s="40" t="str">
@@ -36285,7 +36611,13 @@
     <mergeCell ref="F3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A67">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>A5=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+      <formula>A5=" "</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36301,11 +36633,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -36319,7 +36651,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20">
       <c r="D1" s="120" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E1" s="121"/>
       <c r="F1" s="121"/>
@@ -36330,7 +36662,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D2" s="22">
         <f>COUNTIF(D5:D67,"Y")</f>
@@ -36349,7 +36681,7 @@
       <c r="D3" s="22"/>
       <c r="E3" s="7"/>
       <c r="F3" s="123" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G3" s="123"/>
       <c r="H3" s="123"/>
@@ -36361,7 +36693,7 @@
         <v>376</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C4" t="s">
         <v>377</v>
@@ -36369,24 +36701,24 @@
       <c r="D4" s="50"/>
       <c r="E4" s="51"/>
       <c r="F4" s="44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H4" s="44" t="s">
         <v>293</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
       <c r="B5" s="84" t="s">
         <v>381</v>
@@ -36395,7 +36727,7 @@
         <v>381</v>
       </c>
       <c r="D5" s="85" t="str">
-        <f t="shared" ref="D5:D60" si="0">IF(COUNTIF(WnSAssignmentHarbourCruise,$A5)&gt;0,"Y","-")</f>
+        <f t="array" ref="D5">IF(OR(ISNUMBER(SEARCH(","&amp;$A5&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>Y</v>
       </c>
       <c r="E5" s="86" t="e">
@@ -36420,7 +36752,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>382</v>
@@ -36429,7 +36761,7 @@
         <v>382</v>
       </c>
       <c r="D6" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D6">IF(OR(ISNUMBER(SEARCH(","&amp;$A6&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>Y</v>
       </c>
       <c r="E6" s="53">
@@ -36437,29 +36769,29 @@
         <v>4</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I6" s="54"/>
       <c r="J6" s="91"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D7" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D7">IF(OR(ISNUMBER(SEARCH(","&amp;$A7&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E7" s="24" t="str">
@@ -36474,16 +36806,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D8" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D8">IF(OR(ISNUMBER(SEARCH(","&amp;$A8&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="23" t="str">
@@ -36498,16 +36830,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D9" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D9">IF(OR(ISNUMBER(SEARCH(","&amp;$A9&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E9" s="23" t="str">
@@ -36522,14 +36854,14 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="108" t="s">
+        <v>458</v>
+      </c>
+      <c r="B10" s="109" t="s">
         <v>459</v>
-      </c>
-      <c r="B10" s="109" t="s">
-        <v>460</v>
       </c>
       <c r="C10" s="110"/>
       <c r="D10" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D10">IF(OR(ISNUMBER(SEARCH(","&amp;$A10&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E10" s="41" t="str">
@@ -36544,7 +36876,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>380</v>
@@ -36553,7 +36885,7 @@
         <v>380</v>
       </c>
       <c r="D11" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D11">IF(OR(ISNUMBER(SEARCH(","&amp;$A11&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>Y</v>
       </c>
       <c r="E11" s="53" t="e">
@@ -36561,33 +36893,33 @@
         <v>#N/A</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J11" s="91" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>466</v>
+        <v>510</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D12" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D12">IF(OR(ISNUMBER(SEARCH(","&amp;$A12&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>Y</v>
       </c>
       <c r="E12" s="53">
@@ -36595,7 +36927,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
@@ -36604,16 +36936,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C13" s="99" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D13" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D13">IF(OR(ISNUMBER(SEARCH(","&amp;$A13&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E13" s="23" t="str">
@@ -36628,16 +36960,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D14" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D14">IF(OR(ISNUMBER(SEARCH(","&amp;$A14&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E14" s="24" t="str">
@@ -36652,44 +36984,44 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C15" s="98" t="s">
         <v>368</v>
       </c>
       <c r="D15" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D15">IF(OR(ISNUMBER(SEARCH(","&amp;$A15&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>Y</v>
       </c>
       <c r="E15" s="53">
         <f t="array" ref="E15">IF(D15="Y",MAX(IF(WnSAssignmentHarbourCruise=$A15,TaskRankRequirements)),"")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G15" s="54"/>
       <c r="H15" s="54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="91"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>458</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C16" s="99" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D16" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D16">IF(OR(ISNUMBER(SEARCH(","&amp;$A16&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E16" s="23" t="str">
@@ -36704,14 +37036,14 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D17">IF(OR(ISNUMBER(SEARCH(","&amp;$A17&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E17" s="24" t="str">
@@ -36726,14 +37058,14 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D18">IF(OR(ISNUMBER(SEARCH(","&amp;$A18&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E18" s="24" t="str">
@@ -36748,16 +37080,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C19" s="99" t="s">
         <v>358</v>
       </c>
       <c r="D19" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D19">IF(OR(ISNUMBER(SEARCH(","&amp;$A19&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E19" s="23" t="str">
@@ -36772,14 +37104,14 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C20" s="99"/>
       <c r="D20" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D20">IF(OR(ISNUMBER(SEARCH(","&amp;$A20&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E20" s="23" t="str">
@@ -36794,14 +37126,14 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C21" s="99"/>
       <c r="D21" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D21">IF(OR(ISNUMBER(SEARCH(","&amp;$A21&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E21" s="23" t="str">
@@ -36816,14 +37148,14 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D22">IF(OR(ISNUMBER(SEARCH(","&amp;$A22&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E22" s="24" t="str">
@@ -36838,14 +37170,14 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B23" s="73" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D23">IF(OR(ISNUMBER(SEARCH(","&amp;$A23&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E23" s="24" t="str">
@@ -36860,14 +37192,14 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D24">IF(OR(ISNUMBER(SEARCH(","&amp;$A24&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E24" s="23" t="str">
@@ -36882,14 +37214,14 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C25" s="80"/>
       <c r="D25" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D25">IF(OR(ISNUMBER(SEARCH(","&amp;$A25&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E25" s="23" t="str">
@@ -36904,14 +37236,14 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C26" s="98"/>
       <c r="D26" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D26">IF(OR(ISNUMBER(SEARCH(","&amp;$A26&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>Y</v>
       </c>
       <c r="E26" s="53">
@@ -36919,25 +37251,25 @@
         <v>0</v>
       </c>
       <c r="F26" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G26" s="54"/>
       <c r="H26" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I26" s="54"/>
       <c r="J26" s="91"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C27" s="98"/>
       <c r="D27" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D27">IF(OR(ISNUMBER(SEARCH(","&amp;$A27&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>Y</v>
       </c>
       <c r="E27" s="53">
@@ -36945,25 +37277,25 @@
         <v>0</v>
       </c>
       <c r="F27" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G27" s="54"/>
       <c r="H27" s="54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="91"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="B28" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C28" s="98"/>
       <c r="D28" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D28">IF(OR(ISNUMBER(SEARCH(","&amp;$A28&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>Y</v>
       </c>
       <c r="E28" s="53">
@@ -36971,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="F28" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G28" s="54"/>
       <c r="H28" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I28" s="54"/>
       <c r="J28" s="91"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C29" s="98"/>
       <c r="D29" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D29">IF(OR(ISNUMBER(SEARCH(","&amp;$A29&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>Y</v>
       </c>
       <c r="E29" s="53">
@@ -36997,27 +37329,27 @@
         <v>0</v>
       </c>
       <c r="F29" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G29" s="54"/>
       <c r="H29" s="54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I29" s="54"/>
       <c r="J29" s="91"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C30" s="100" t="s">
         <v>369</v>
       </c>
       <c r="D30" s="62" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D30">IF(OR(ISNUMBER(SEARCH(","&amp;$A30&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>Y</v>
       </c>
       <c r="E30" s="63">
@@ -37025,41 +37357,41 @@
         <v>1</v>
       </c>
       <c r="F30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J30" s="65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C31" s="100" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D31" s="62" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D31">IF(OR(ISNUMBER(SEARCH(","&amp;$A31&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>Y</v>
       </c>
       <c r="E31" s="63">
         <f t="array" ref="E31">IF(D31="Y",MAX(IF(WnSAssignmentHarbourCruise=$A31,TaskRankRequirements)),"")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F31" s="64" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G31" s="64"/>
       <c r="H31" s="64"/>
@@ -37068,14 +37400,14 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C32" s="100"/>
       <c r="D32" s="62" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D32">IF(OR(ISNUMBER(SEARCH(","&amp;$A32&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>Y</v>
       </c>
       <c r="E32" s="63">
@@ -37083,7 +37415,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G32" s="64"/>
       <c r="H32" s="64"/>
@@ -37092,14 +37424,14 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>370</v>
+        <v>509</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C33" s="100"/>
       <c r="D33" s="62" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D33">IF(OR(ISNUMBER(SEARCH(","&amp;$A33&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>Y</v>
       </c>
       <c r="E33" s="63">
@@ -37107,7 +37439,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G33" s="64"/>
       <c r="H33" s="64"/>
@@ -37116,22 +37448,22 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C34" s="100"/>
       <c r="D34" s="62" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D34">IF(OR(ISNUMBER(SEARCH(","&amp;$A34&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>Y</v>
       </c>
       <c r="E34" s="63">
         <f t="array" ref="E34">IF(D34="Y",MAX(IF(WnSAssignmentHarbourCruise=$A34,TaskRankRequirements)),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G34" s="64"/>
       <c r="H34" s="64"/>
@@ -37140,16 +37472,16 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>371</v>
+        <v>505</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C35" s="100" t="s">
         <v>374</v>
       </c>
       <c r="D35" s="62" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D35">IF(OR(ISNUMBER(SEARCH(","&amp;$A35&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>Y</v>
       </c>
       <c r="E35" s="63">
@@ -37172,14 +37504,14 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>372</v>
+        <v>458</v>
       </c>
       <c r="B36" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C36" s="99"/>
       <c r="D36" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D36">IF(OR(ISNUMBER(SEARCH(","&amp;$A36&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E36" s="23" t="str">
@@ -37194,14 +37526,14 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>359</v>
+        <v>458</v>
       </c>
       <c r="B37" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C37" s="99"/>
       <c r="D37" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D37">IF(OR(ISNUMBER(SEARCH(","&amp;$A37&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E37" s="23" t="str">
@@ -37216,14 +37548,14 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>373</v>
+        <v>458</v>
       </c>
       <c r="B38" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C38" s="99"/>
       <c r="D38" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D38">IF(OR(ISNUMBER(SEARCH(","&amp;$A38&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E38" s="23" t="str">
@@ -37238,14 +37570,14 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>360</v>
+        <v>458</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C39" s="99"/>
       <c r="D39" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D39">IF(OR(ISNUMBER(SEARCH(","&amp;$A39&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E39" s="23" t="str">
@@ -37260,14 +37592,14 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B40" s="73" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D40">IF(OR(ISNUMBER(SEARCH(","&amp;$A40&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E40" s="24" t="str">
@@ -37282,14 +37614,14 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C41" s="80"/>
       <c r="D41" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D41">IF(OR(ISNUMBER(SEARCH(","&amp;$A41&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E41" s="23" t="str">
@@ -37304,14 +37636,14 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B42" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C42" s="80"/>
       <c r="D42" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D42">IF(OR(ISNUMBER(SEARCH(","&amp;$A42&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E42" s="23" t="str">
@@ -37326,14 +37658,14 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B43" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C43" s="80"/>
       <c r="D43" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D43">IF(OR(ISNUMBER(SEARCH(","&amp;$A43&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E43" s="23" t="str">
@@ -37348,14 +37680,14 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B44" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C44" s="80"/>
       <c r="D44" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D44">IF(OR(ISNUMBER(SEARCH(","&amp;$A44&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E44" s="23" t="str">
@@ -37370,14 +37702,14 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B45" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C45" s="80"/>
       <c r="D45" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D45">IF(OR(ISNUMBER(SEARCH(","&amp;$A45&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E45" s="23" t="str">
@@ -37392,14 +37724,14 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B46" s="76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C46" s="101"/>
       <c r="D46" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D46">IF(OR(ISNUMBER(SEARCH(","&amp;$A46&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E46" s="23" t="str">
@@ -37414,14 +37746,14 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B47" s="76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C47" s="101"/>
       <c r="D47" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D47">IF(OR(ISNUMBER(SEARCH(","&amp;$A47&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E47" s="23" t="str">
@@ -37436,14 +37768,14 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B48" s="76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C48" s="101"/>
       <c r="D48" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D48">IF(OR(ISNUMBER(SEARCH(","&amp;$A48&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E48" s="23" t="str">
@@ -37458,14 +37790,14 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B49" s="76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C49" s="101"/>
       <c r="D49" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D49">IF(OR(ISNUMBER(SEARCH(","&amp;$A49&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E49" s="23" t="str">
@@ -37480,12 +37812,12 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B50" s="76"/>
       <c r="C50" s="101"/>
       <c r="D50" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D50">IF(OR(ISNUMBER(SEARCH(","&amp;$A50&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E50" s="23" t="str">
@@ -37500,14 +37832,14 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B51" s="77" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C51" s="107"/>
       <c r="D51" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D51">IF(OR(ISNUMBER(SEARCH(","&amp;$A51&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E51" s="41" t="str">
@@ -37522,14 +37854,14 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>457</v>
+        <v>513</v>
       </c>
       <c r="B52" s="67" t="s">
         <v>383</v>
       </c>
       <c r="C52" s="98"/>
       <c r="D52" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D52">IF(OR(ISNUMBER(SEARCH(","&amp;$A52&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>Y</v>
       </c>
       <c r="E52" s="53" t="e">
@@ -37537,29 +37869,29 @@
         <v>#N/A</v>
       </c>
       <c r="F52" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G52" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H52" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I52" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J52" s="91"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="B53" s="102" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C53" s="78"/>
       <c r="D53" s="62" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D53">IF(OR(ISNUMBER(SEARCH(","&amp;$A53&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>Y</v>
       </c>
       <c r="E53" s="64" t="e">
@@ -37567,29 +37899,29 @@
         <v>#N/A</v>
       </c>
       <c r="F53" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G53" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H53" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I53" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J53" s="65"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B54" s="73" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C54" s="79"/>
       <c r="D54" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D54">IF(OR(ISNUMBER(SEARCH(","&amp;$A54&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E54" s="39" t="str">
@@ -37604,14 +37936,14 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B55" s="74" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C55" s="80"/>
       <c r="D55" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D55">IF(OR(ISNUMBER(SEARCH(","&amp;$A55&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E55" s="7" t="str">
@@ -37626,12 +37958,12 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B56" s="70"/>
       <c r="C56" s="81"/>
       <c r="D56" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D56">IF(OR(ISNUMBER(SEARCH(","&amp;$A56&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E56" s="7" t="str">
@@ -37646,14 +37978,14 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B57" s="105" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C57" s="106"/>
       <c r="D57" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D57">IF(OR(ISNUMBER(SEARCH(","&amp;$A57&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E57" s="42" t="str">
@@ -37668,14 +38000,14 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>362</v>
+        <v>516</v>
       </c>
       <c r="B58" s="102" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C58" s="78"/>
       <c r="D58" s="62" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D58">IF(OR(ISNUMBER(SEARCH(","&amp;$A58&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>Y</v>
       </c>
       <c r="E58" s="64" t="e">
@@ -37683,25 +38015,25 @@
         <v>#N/A</v>
       </c>
       <c r="F58" s="64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G58" s="64"/>
       <c r="H58" s="64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I58" s="64"/>
       <c r="J58" s="65"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B59" s="74" t="s">
         <v>367</v>
       </c>
       <c r="C59" s="80"/>
       <c r="D59" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D59">IF(OR(ISNUMBER(SEARCH(","&amp;$A59&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E59" s="7" t="str">
@@ -37716,38 +38048,39 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>363</v>
+        <v>517</v>
       </c>
       <c r="B60" s="102" t="s">
         <v>364</v>
       </c>
       <c r="C60" s="78"/>
       <c r="D60" s="62" t="str">
-        <f t="shared" si="0"/>
+        <f t="array" ref="D60">IF(OR(ISNUMBER(SEARCH(","&amp;$A60&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>Y</v>
       </c>
-      <c r="E60" s="64" t="e">
+      <c r="E60" s="64">
         <f t="array" ref="E60">IF(D60="Y",MAX(IF(WnSAssignmentHarbourCruise=$A60,TaskRankRequirements)),"")</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="F60" s="64"/>
       <c r="G60" s="64"/>
       <c r="H60" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I60" s="64"/>
       <c r="J60" s="65"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>365</v>
+        <v>522</v>
       </c>
       <c r="B61" s="102" t="s">
         <v>364</v>
       </c>
       <c r="C61" s="78"/>
-      <c r="D61" s="62" t="s">
-        <v>210</v>
+      <c r="D61" s="62" t="str">
+        <f t="array" ref="D61">IF(OR(ISNUMBER(SEARCH(","&amp;$A61&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
+        <v>Y</v>
       </c>
       <c r="E61" s="64">
         <f t="array" ref="E61">IF(D61="Y",MAX(IF(WnSAssignmentHarbourCruise=$A61,TaskRankRequirements)),"")</f>
@@ -37756,21 +38089,21 @@
       <c r="F61" s="64"/>
       <c r="G61" s="64"/>
       <c r="H61" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I61" s="64"/>
       <c r="J61" s="65"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>366</v>
+        <v>458</v>
       </c>
       <c r="B62" s="103" t="s">
         <v>364</v>
       </c>
       <c r="C62" s="82"/>
       <c r="D62" s="22" t="str">
-        <f t="shared" ref="D62:D92" si="1">IF(COUNTIF(WnSAssignmentHarbourCruise,$A62)&gt;0,"Y","-")</f>
+        <f t="array" ref="D62">IF(OR(ISNUMBER(SEARCH(","&amp;$A62&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E62" s="7" t="str">
@@ -37785,14 +38118,14 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B63" s="69" t="s">
         <v>364</v>
       </c>
       <c r="C63" s="83"/>
       <c r="D63" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="array" ref="D63">IF(OR(ISNUMBER(SEARCH(","&amp;$A63&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E63" s="39" t="str">
@@ -37807,14 +38140,14 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B64" s="69" t="s">
         <v>364</v>
       </c>
       <c r="C64" s="83"/>
       <c r="D64" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="array" ref="D64">IF(OR(ISNUMBER(SEARCH(","&amp;$A64&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E64" s="39" t="str">
@@ -37829,14 +38162,14 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B65" s="92" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C65" s="93"/>
       <c r="D65" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="array" ref="D65">IF(OR(ISNUMBER(SEARCH(","&amp;$A65&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E65" s="7" t="str">
@@ -37851,14 +38184,14 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B66" s="70" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C66" s="81"/>
       <c r="D66" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="array" ref="D66">IF(OR(ISNUMBER(SEARCH(","&amp;$A66&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E66" s="7" t="str">
@@ -37873,14 +38206,14 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B67" s="104" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C67" s="94"/>
       <c r="D67" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="array" ref="D67">IF(OR(ISNUMBER(SEARCH(","&amp;$A67&amp;",",","&amp;WnSAssignmentHarbourCruise&amp;","))),"Y","-")</f>
         <v>-</v>
       </c>
       <c r="E67" s="42" t="str">
@@ -37899,7 +38232,13 @@
     <mergeCell ref="F3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A67">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>A5=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
+      <formula>A5=" "</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -37919,7 +38258,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -37945,7 +38284,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D2" s="22">
         <f>COUNTIF(D5:D67,"Y")</f>
@@ -37964,7 +38303,7 @@
       <c r="D3" s="22"/>
       <c r="E3" s="7"/>
       <c r="F3" s="123" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G3" s="123"/>
       <c r="H3" s="123"/>
@@ -37976,7 +38315,7 @@
         <v>376</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C4" t="s">
         <v>377</v>
@@ -37984,24 +38323,24 @@
       <c r="D4" s="50"/>
       <c r="E4" s="51"/>
       <c r="F4" s="44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H4" s="44" t="s">
         <v>293</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B5" s="84" t="s">
         <v>381</v>
@@ -38035,7 +38374,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>382</v>
@@ -38052,26 +38391,26 @@
         <v>0</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I6" s="53"/>
       <c r="J6" s="91"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D7" s="26" t="str">
         <f t="shared" si="0"/>
@@ -38089,13 +38428,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D8" s="22" t="str">
         <f t="shared" si="0"/>
@@ -38113,13 +38452,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D9" s="22" t="str">
         <f t="shared" si="0"/>
@@ -38137,10 +38476,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="108" t="s">
+        <v>458</v>
+      </c>
+      <c r="B10" s="109" t="s">
         <v>459</v>
-      </c>
-      <c r="B10" s="109" t="s">
-        <v>460</v>
       </c>
       <c r="C10" s="110"/>
       <c r="D10" s="40" t="str">
@@ -38156,7 +38495,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>380</v>
@@ -38173,30 +38512,30 @@
         <v/>
       </c>
       <c r="F11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J11" s="91" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D12" s="52" t="str">
         <f t="shared" si="0"/>
@@ -38207,28 +38546,28 @@
         <v>0</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G12" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>449</v>
+      </c>
+      <c r="I12" s="53" t="s">
         <v>448</v>
-      </c>
-      <c r="H12" s="54" t="s">
-        <v>450</v>
-      </c>
-      <c r="I12" s="53" t="s">
-        <v>449</v>
       </c>
       <c r="J12" s="91"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C13" s="99" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D13" s="58" t="str">
         <f t="shared" si="0"/>
@@ -38239,28 +38578,28 @@
         <v/>
       </c>
       <c r="F13" s="60" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G13" s="60" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H13" s="60" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I13" s="60" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J13" s="61"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D14" s="26" t="str">
         <f t="shared" si="0"/>
@@ -38278,10 +38617,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C15" s="98" t="s">
         <v>368</v>
@@ -38295,14 +38634,14 @@
         <v>0</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G15" s="54"/>
       <c r="H15" s="54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J15" s="91"/>
     </row>
@@ -38311,10 +38650,10 @@
         <v>375</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C16" s="99" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D16" s="58" t="str">
         <f t="shared" si="0"/>
@@ -38326,20 +38665,20 @@
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H16" s="60"/>
       <c r="I16" s="60" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="26" t="str">
@@ -38358,10 +38697,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="26" t="str">
@@ -38380,10 +38719,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C19" s="99" t="s">
         <v>358</v>
@@ -38398,22 +38737,22 @@
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H19" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I19" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C20" s="99"/>
       <c r="D20" s="58" t="str">
@@ -38426,22 +38765,22 @@
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H20" s="60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I20" s="60" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J20" s="61"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C21" s="99"/>
       <c r="D21" s="58" t="str">
@@ -38454,22 +38793,22 @@
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H21" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I21" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J21" s="61"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="26" t="str">
@@ -38488,10 +38827,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B23" s="73" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="26" t="str">
@@ -38510,10 +38849,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="22" t="str">
@@ -38532,10 +38871,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C25" s="80"/>
       <c r="D25" s="22" t="str">
@@ -38554,10 +38893,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C26" s="98"/>
       <c r="D26" s="52" t="str">
@@ -38569,25 +38908,25 @@
         <v>0</v>
       </c>
       <c r="F26" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H26" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I26" s="54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J26" s="91"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C27" s="98"/>
       <c r="D27" s="52" t="str">
@@ -38599,25 +38938,25 @@
         <v>0</v>
       </c>
       <c r="F27" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G27" s="54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H27" s="54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I27" s="54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J27" s="91"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B28" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C28" s="98"/>
       <c r="D28" s="52" t="str">
@@ -38629,25 +38968,25 @@
         <v>0</v>
       </c>
       <c r="F28" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G28" s="54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H28" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I28" s="54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J28" s="91"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C29" s="98"/>
       <c r="D29" s="52" t="str">
@@ -38659,25 +38998,25 @@
         <v>0</v>
       </c>
       <c r="F29" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G29" s="54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H29" s="54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I29" s="54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J29" s="91"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C30" s="100" t="s">
         <v>369</v>
@@ -38691,30 +39030,30 @@
         <v>0</v>
       </c>
       <c r="F30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J30" s="65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C31" s="100" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D31" s="62" t="str">
         <f t="shared" si="0"/>
@@ -38725,25 +39064,25 @@
         <v>0</v>
       </c>
       <c r="F31" s="64" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G31" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H31" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I31" s="64" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J31" s="65"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C32" s="100"/>
       <c r="D32" s="62" t="str">
@@ -38755,16 +39094,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G32" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H32" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I32" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J32" s="65"/>
     </row>
@@ -38773,7 +39112,7 @@
         <v>370</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C33" s="100"/>
       <c r="D33" s="62" t="str">
@@ -38785,25 +39124,25 @@
         <v>0</v>
       </c>
       <c r="F33" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G33" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H33" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I33" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C34" s="100"/>
       <c r="D34" s="62" t="str">
@@ -38815,16 +39154,16 @@
         <v>0</v>
       </c>
       <c r="F34" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G34" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H34" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I34" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J34" s="65"/>
     </row>
@@ -38833,7 +39172,7 @@
         <v>371</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C35" s="100" t="s">
         <v>374</v>
@@ -38865,7 +39204,7 @@
         <v>372</v>
       </c>
       <c r="B36" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C36" s="99"/>
       <c r="D36" s="58" t="str">
@@ -38878,13 +39217,13 @@
       </c>
       <c r="F36" s="60"/>
       <c r="G36" s="60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H36" s="60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I36" s="60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J36" s="61"/>
     </row>
@@ -38893,7 +39232,7 @@
         <v>359</v>
       </c>
       <c r="B37" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C37" s="99"/>
       <c r="D37" s="58" t="str">
@@ -38906,13 +39245,13 @@
       </c>
       <c r="F37" s="60"/>
       <c r="G37" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H37" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I37" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J37" s="61"/>
     </row>
@@ -38921,7 +39260,7 @@
         <v>373</v>
       </c>
       <c r="B38" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C38" s="99"/>
       <c r="D38" s="58" t="str">
@@ -38934,13 +39273,13 @@
       </c>
       <c r="F38" s="60"/>
       <c r="G38" s="60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H38" s="60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I38" s="60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J38" s="61"/>
     </row>
@@ -38949,7 +39288,7 @@
         <v>360</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C39" s="99"/>
       <c r="D39" s="58" t="str">
@@ -38962,22 +39301,22 @@
       </c>
       <c r="F39" s="60"/>
       <c r="G39" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H39" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I39" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J39" s="61"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B40" s="73" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="26" t="str">
@@ -38996,10 +39335,10 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C41" s="80"/>
       <c r="D41" s="22" t="str">
@@ -39018,10 +39357,10 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B42" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C42" s="80"/>
       <c r="D42" s="22" t="str">
@@ -39040,10 +39379,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B43" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C43" s="80"/>
       <c r="D43" s="22" t="str">
@@ -39062,10 +39401,10 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B44" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C44" s="80"/>
       <c r="D44" s="22" t="str">
@@ -39084,10 +39423,10 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B45" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C45" s="80"/>
       <c r="D45" s="22" t="str">
@@ -39106,10 +39445,10 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B46" s="76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C46" s="101"/>
       <c r="D46" s="22" t="str">
@@ -39128,10 +39467,10 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B47" s="76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C47" s="101"/>
       <c r="D47" s="22" t="str">
@@ -39150,10 +39489,10 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B48" s="76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C48" s="101"/>
       <c r="D48" s="22" t="str">
@@ -39172,10 +39511,10 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B49" s="76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C49" s="101"/>
       <c r="D49" s="22" t="str">
@@ -39194,7 +39533,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B50" s="76"/>
       <c r="C50" s="101"/>
@@ -39214,10 +39553,10 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B51" s="77" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C51" s="107"/>
       <c r="D51" s="40" t="str">
@@ -39236,7 +39575,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B52" s="67" t="s">
         <v>383</v>
@@ -39248,25 +39587,25 @@
       </c>
       <c r="E52" s="53"/>
       <c r="F52" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G52" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H52" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I52" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J52" s="91"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B53" s="102" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C53" s="78"/>
       <c r="D53" s="62" t="str">
@@ -39275,25 +39614,25 @@
       </c>
       <c r="E53" s="64"/>
       <c r="F53" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G53" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H53" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I53" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J53" s="65"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B54" s="73" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C54" s="79"/>
       <c r="D54" s="26" t="str">
@@ -39309,10 +39648,10 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B55" s="74" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C55" s="80"/>
       <c r="D55" s="22" t="str">
@@ -39328,7 +39667,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B56" s="70"/>
       <c r="C56" s="81"/>
@@ -39345,10 +39684,10 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B57" s="105" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C57" s="106"/>
       <c r="D57" s="40" t="str">
@@ -39367,7 +39706,7 @@
         <v>362</v>
       </c>
       <c r="B58" s="102" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C58" s="78"/>
       <c r="D58" s="62" t="str">
@@ -39376,18 +39715,18 @@
       </c>
       <c r="E58" s="64"/>
       <c r="F58" s="64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G58" s="64"/>
       <c r="H58" s="64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I58" s="64"/>
       <c r="J58" s="65"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B59" s="74" t="s">
         <v>367</v>
@@ -39420,7 +39759,7 @@
       <c r="F60" s="64"/>
       <c r="G60" s="64"/>
       <c r="H60" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I60" s="64"/>
       <c r="J60" s="65"/>
@@ -39441,7 +39780,7 @@
       <c r="F61" s="64"/>
       <c r="G61" s="64"/>
       <c r="H61" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I61" s="64"/>
       <c r="J61" s="65"/>
@@ -39462,14 +39801,14 @@
       <c r="F62" s="60"/>
       <c r="G62" s="60"/>
       <c r="H62" s="60" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I62" s="60"/>
       <c r="J62" s="61"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B63" s="69" t="s">
         <v>364</v>
@@ -39488,7 +39827,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B64" s="69" t="s">
         <v>364</v>
@@ -39507,10 +39846,10 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B65" s="92" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C65" s="93"/>
       <c r="D65" s="22" t="str">
@@ -39526,10 +39865,10 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B66" s="70" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C66" s="81"/>
       <c r="D66" s="22" t="str">
@@ -39545,10 +39884,10 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B67" s="104" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C67" s="94"/>
       <c r="D67" s="40" t="str">
@@ -39568,7 +39907,13 @@
     <mergeCell ref="F3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A67">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>A5=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>A5=" "</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -44441,7 +44786,7 @@
       </c>
       <c r="G143" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-M4</v>
+        <v>mM4</v>
       </c>
       <c r="H143" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -44475,7 +44820,7 @@
       </c>
       <c r="G144" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-M4</v>
+        <v>mM4</v>
       </c>
       <c r="H144" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -44611,7 +44956,7 @@
       </c>
       <c r="G148" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-M4</v>
+        <v>mM4</v>
       </c>
       <c r="H148" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -44645,7 +44990,7 @@
       </c>
       <c r="G149" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-M4</v>
+        <v>mM4</v>
       </c>
       <c r="H149" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -44679,7 +45024,7 @@
       </c>
       <c r="G150" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-M4</v>
+        <v>mM4</v>
       </c>
       <c r="H150" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45121,7 +45466,7 @@
       </c>
       <c r="G163" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-F1</v>
+        <v>mF1</v>
       </c>
       <c r="H163" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45155,7 +45500,7 @@
       </c>
       <c r="G164" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-F1</v>
+        <v>mF1</v>
       </c>
       <c r="H164" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45189,7 +45534,7 @@
       </c>
       <c r="G165" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-F1</v>
+        <v>mF1</v>
       </c>
       <c r="H165" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45223,7 +45568,7 @@
       </c>
       <c r="G166" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-F1</v>
+        <v>mF1</v>
       </c>
       <c r="H166" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45257,7 +45602,7 @@
       </c>
       <c r="G167" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-F1</v>
+        <v>mF1</v>
       </c>
       <c r="H167" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45271,7 +45616,7 @@
       </c>
       <c r="B168" t="str">
         <f ca="1">IF(OFFSET('Skills Grid'!$C$2,0,ROW()-ROW('Task Listing'!$B$2))=0,B167,OFFSET('Skills Grid'!$C$2,0,ROW()-ROW('Task Listing'!$B$2)))</f>
-        <v>Seaboat Coxain</v>
+        <v>Seaboat Coxain &amp; Crew</v>
       </c>
       <c r="C168" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
@@ -45305,7 +45650,7 @@
       </c>
       <c r="B169" t="str">
         <f ca="1">IF(OFFSET('Skills Grid'!$C$2,0,ROW()-ROW('Task Listing'!$B$2))=0,B168,OFFSET('Skills Grid'!$C$2,0,ROW()-ROW('Task Listing'!$B$2)))</f>
-        <v>Seaboat Coxain</v>
+        <v>Seaboat Coxain &amp; Crew</v>
       </c>
       <c r="C169" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
@@ -45339,7 +45684,7 @@
       </c>
       <c r="B170" t="str">
         <f ca="1">IF(OFFSET('Skills Grid'!$C$2,0,ROW()-ROW('Task Listing'!$B$2))=0,B169,OFFSET('Skills Grid'!$C$2,0,ROW()-ROW('Task Listing'!$B$2)))</f>
-        <v>Seaboat Coxain</v>
+        <v>Seaboat Coxain &amp; Crew</v>
       </c>
       <c r="C170" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
@@ -45581,27 +45926,27 @@
       </c>
       <c r="C177" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Handle a berthing line on shore</v>
+        <v>Call Evolution Aft</v>
       </c>
       <c r="D177">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E177">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F177">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
         <v>0</v>
       </c>
-      <c r="G177">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>0</v>
-      </c>
-      <c r="H177" t="str">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>Y</v>
+      <c r="G177" t="str">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>mM3,mF1</v>
+      </c>
+      <c r="H177">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -45615,7 +45960,7 @@
       </c>
       <c r="C178" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Call Evolution Aft</v>
+        <v>Call Evolution Forward</v>
       </c>
       <c r="D178">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45629,9 +45974,9 @@
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
         <v>0</v>
       </c>
-      <c r="G178" t="str">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-M3,MS-F1</v>
+      <c r="G178">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>0</v>
       </c>
       <c r="H178">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45649,7 +45994,7 @@
       </c>
       <c r="C179" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Call Evolution Forward</v>
+        <v>Pass a berthing line with a heaving line</v>
       </c>
       <c r="D179">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45657,7 +46002,7 @@
       </c>
       <c r="E179">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F179">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45667,9 +46012,9 @@
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
         <v>0</v>
       </c>
-      <c r="H179">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>0</v>
+      <c r="H179" t="str">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>Y</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -45683,7 +46028,7 @@
       </c>
       <c r="C180" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Pass a berthing line with a heaving line</v>
+        <v>Handle a berthing line on the ship</v>
       </c>
       <c r="D180">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45691,7 +46036,7 @@
       </c>
       <c r="E180">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F180">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45717,7 +46062,7 @@
       </c>
       <c r="C181" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Pass a berthing line with a heaving line</v>
+        <v>Handle a berthing line on the ship</v>
       </c>
       <c r="D181">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45735,9 +46080,9 @@
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
         <v>0</v>
       </c>
-      <c r="H181">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>0</v>
+      <c r="H181" t="str">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>Y</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -45751,7 +46096,7 @@
       </c>
       <c r="C182" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Handle a berthing line on the ship</v>
+        <v>Transfer between the ship and the shore via tug</v>
       </c>
       <c r="D182">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45759,7 +46104,7 @@
       </c>
       <c r="E182">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F182">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45785,7 +46130,7 @@
       </c>
       <c r="C183" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Handle a berthing line on the ship</v>
+        <v>Transfer between the ship and the shore via tug</v>
       </c>
       <c r="D183">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45815,11 +46160,11 @@
       </c>
       <c r="B184" t="str">
         <f ca="1">IF(OFFSET('Skills Grid'!$C$2,0,ROW()-ROW('Task Listing'!$B$2))=0,B183,OFFSET('Skills Grid'!$C$2,0,ROW()-ROW('Task Listing'!$B$2)))</f>
-        <v>Berth the ship along-side</v>
+        <v>Connect/disconnect the gangway</v>
       </c>
       <c r="C184" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Transfer between the ship and the shore via tug</v>
+        <v>Direct the movement of the gangway</v>
       </c>
       <c r="D184">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45849,15 +46194,15 @@
       </c>
       <c r="B185" t="str">
         <f ca="1">IF(OFFSET('Skills Grid'!$C$2,0,ROW()-ROW('Task Listing'!$B$2))=0,B184,OFFSET('Skills Grid'!$C$2,0,ROW()-ROW('Task Listing'!$B$2)))</f>
-        <v>Berth the ship along-side</v>
+        <v>Connect/disconnect the gangway</v>
       </c>
       <c r="C185" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Transfer between the ship and the shore via tug</v>
+        <v>Prepare the gangway for moving</v>
       </c>
       <c r="D185">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E185">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45887,7 +46232,7 @@
       </c>
       <c r="C186" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Direct the movement of the gangway</v>
+        <v>Assist in moving the gangway</v>
       </c>
       <c r="D186">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45921,7 +46266,7 @@
       </c>
       <c r="C187" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Prepare the gangway for moving</v>
+        <v>Connect or disconnect the gangway tackle</v>
       </c>
       <c r="D187">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45947,15 +46292,15 @@
     <row r="188" spans="1:8">
       <c r="A188" t="str">
         <f ca="1">IF(OFFSET('Skills Grid'!$C$1,0,ROW()-ROW('Task Listing'!$A$2))=0,A187,OFFSET('Skills Grid'!$C$1,0,ROW()-ROW('Task Listing'!$A$2)))</f>
-        <v>Berthing and Unberthing</v>
+        <v>Emergency situations</v>
       </c>
       <c r="B188" t="str">
         <f ca="1">IF(OFFSET('Skills Grid'!$C$2,0,ROW()-ROW('Task Listing'!$B$2))=0,B187,OFFSET('Skills Grid'!$C$2,0,ROW()-ROW('Task Listing'!$B$2)))</f>
-        <v>Connect/disconnect the gangway</v>
+        <v>Fight a fire</v>
       </c>
       <c r="C188" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Assist in moving the gangway</v>
+        <v>Protect attack party with water wall</v>
       </c>
       <c r="D188">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45965,13 +46310,13 @@
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
         <v>0</v>
       </c>
-      <c r="F188">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>0</v>
-      </c>
-      <c r="G188">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>0</v>
+      <c r="F188" t="str">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>Y</v>
+      </c>
+      <c r="G188" t="str">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>mM6</v>
       </c>
       <c r="H188" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45981,15 +46326,15 @@
     <row r="189" spans="1:8">
       <c r="A189" t="str">
         <f ca="1">IF(OFFSET('Skills Grid'!$C$1,0,ROW()-ROW('Task Listing'!$A$2))=0,A188,OFFSET('Skills Grid'!$C$1,0,ROW()-ROW('Task Listing'!$A$2)))</f>
-        <v>Berthing and Unberthing</v>
+        <v>Emergency situations</v>
       </c>
       <c r="B189" t="str">
         <f ca="1">IF(OFFSET('Skills Grid'!$C$2,0,ROW()-ROW('Task Listing'!$B$2))=0,B188,OFFSET('Skills Grid'!$C$2,0,ROW()-ROW('Task Listing'!$B$2)))</f>
-        <v>Connect/disconnect the gangway</v>
+        <v>Fight a fire</v>
       </c>
       <c r="C189" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Connect or disconnect the gangway tackle</v>
+        <v>Lead a fire hose attack</v>
       </c>
       <c r="D189">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -45997,15 +46342,15 @@
       </c>
       <c r="E189">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>0</v>
-      </c>
-      <c r="F189">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>0</v>
-      </c>
-      <c r="G189">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F189" t="str">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>Y</v>
+      </c>
+      <c r="G189" t="str">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>mM3</v>
       </c>
       <c r="H189" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -46023,7 +46368,7 @@
       </c>
       <c r="C190" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Protect attack party with water wall</v>
+        <v>Assist hose handling</v>
       </c>
       <c r="D190">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -46039,7 +46384,7 @@
       </c>
       <c r="G190" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-M6</v>
+        <v>mF6,mF7</v>
       </c>
       <c r="H190" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -46057,23 +46402,23 @@
       </c>
       <c r="C191" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Lead a fire hose attack</v>
+        <v>Assist hose handling</v>
       </c>
       <c r="D191">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E191">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F191" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
         <v>Y</v>
       </c>
-      <c r="G191" t="str">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-M3</v>
+      <c r="G191">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>0</v>
       </c>
       <c r="H191" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -46091,7 +46436,7 @@
       </c>
       <c r="C192" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Assist hose handling</v>
+        <v>Attack a fire with hose</v>
       </c>
       <c r="D192">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -46107,7 +46452,7 @@
       </c>
       <c r="G192" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-F6,MS-F7</v>
+        <v>mM7</v>
       </c>
       <c r="H192" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -46125,15 +46470,15 @@
       </c>
       <c r="C193" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Assist hose handling</v>
+        <v>Support fire party from safe retreat area</v>
       </c>
       <c r="D193">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E193">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -46159,7 +46504,7 @@
       </c>
       <c r="C194" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Attack a fire with hose</v>
+        <v>Prepare fore a hose party attack</v>
       </c>
       <c r="D194">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -46169,17 +46514,17 @@
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
         <v>0</v>
       </c>
-      <c r="F194" t="str">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>Y</v>
-      </c>
-      <c r="G194" t="str">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>MS-M7</v>
-      </c>
-      <c r="H194" t="str">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>Y</v>
+      <c r="F194">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -46189,11 +46534,11 @@
       </c>
       <c r="B195" t="str">
         <f ca="1">IF(OFFSET('Skills Grid'!$C$2,0,ROW()-ROW('Task Listing'!$B$2))=0,B194,OFFSET('Skills Grid'!$C$2,0,ROW()-ROW('Task Listing'!$B$2)))</f>
-        <v>Fight a fire</v>
+        <v>Abandon Ship</v>
       </c>
       <c r="C195" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Support fire party from safe retreat area</v>
+        <v>Manually Launch a life raft</v>
       </c>
       <c r="D195">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -46201,11 +46546,11 @@
       </c>
       <c r="E195">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>1</v>
-      </c>
-      <c r="F195" t="str">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>Y</v>
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>0</v>
       </c>
       <c r="G195">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -46223,11 +46568,11 @@
       </c>
       <c r="B196" t="str">
         <f ca="1">IF(OFFSET('Skills Grid'!$C$2,0,ROW()-ROW('Task Listing'!$B$2))=0,B195,OFFSET('Skills Grid'!$C$2,0,ROW()-ROW('Task Listing'!$B$2)))</f>
-        <v>Fight a fire</v>
+        <v>Abandon Ship</v>
       </c>
       <c r="C196" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Prepare fore a hose party attack</v>
+        <v>Right a life raft</v>
       </c>
       <c r="D196">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -46245,9 +46590,9 @@
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
         <v>0</v>
       </c>
-      <c r="H196">
-        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
-        <v>0</v>
+      <c r="H196" t="str">
+        <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
+        <v>Y</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -46261,7 +46606,7 @@
       </c>
       <c r="C197" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Manually Launch a life raft</v>
+        <v>Don a life vest</v>
       </c>
       <c r="D197">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -46295,7 +46640,7 @@
       </c>
       <c r="C198" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Right a life raft</v>
+        <v>Assist others in donning a life vest</v>
       </c>
       <c r="D198">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -46329,7 +46674,7 @@
       </c>
       <c r="C199" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Don a life vest</v>
+        <v>Assist others in boarding a life raft</v>
       </c>
       <c r="D199">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -46363,7 +46708,7 @@
       </c>
       <c r="C200" t="str">
         <f ca="1">OFFSET('Skills Grid'!$C$3,0,ROW()-ROW('Task Listing'!$C$2))</f>
-        <v>Assist others in donning a life vest</v>
+        <v>Lead a life raft party</v>
       </c>
       <c r="D200">
         <f ca="1">OFFSET('Skills Grid'!$C$1,COLUMN()-COLUMN($A$2),ROW()-ROW($D$2))</f>
@@ -46389,7 +46734,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A5:B200 B4">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>A4=A3</formula>
     </cfRule>
   </conditionalFormatting>
